--- a/doctor_fio_list.xlsx
+++ b/doctor_fio_list.xlsx
@@ -19,36 +19,3825 @@
     <t>doctor_fio</t>
   </si>
   <si>
+    <t>Бородай Евгений Борисович</t>
+  </si>
+  <si>
+    <t>Шмонов Сергей Михайлович</t>
+  </si>
+  <si>
+    <t>Алиева Умукусум Абдулгамидовна</t>
+  </si>
+  <si>
+    <t>Маракушина Дарья Евгеньевна</t>
+  </si>
+  <si>
+    <t>Кострова Людмила Анатольевна</t>
+  </si>
+  <si>
+    <t>Зайнутдинов Роман Раисович</t>
+  </si>
+  <si>
+    <t>Васин Андрей Андреевич</t>
+  </si>
+  <si>
+    <t>Моисеева Ольга Сергеевна</t>
+  </si>
+  <si>
+    <t>Данаилова Ирина Николаевна</t>
+  </si>
+  <si>
+    <t>Веселова Мария Антоновна</t>
+  </si>
+  <si>
+    <t>Васильева Наталья Валерьевна</t>
+  </si>
+  <si>
+    <t>Мирзанагимова Альфия Сулеймановна</t>
+  </si>
+  <si>
+    <t>Мороз Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>Ильинцева Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>Нурмагомедова Умакусум Магомедовна</t>
+  </si>
+  <si>
+    <t>Дадулагова Джейнара Вахаевна</t>
+  </si>
+  <si>
+    <t>Хациева Луиза Мухарбековна</t>
+  </si>
+  <si>
+    <t>Абдуллаева Лейла Дагировна</t>
+  </si>
+  <si>
+    <t>Охапкина Мария Валерьевна</t>
+  </si>
+  <si>
+    <t>Юденкова Елена Юрьевна</t>
+  </si>
+  <si>
+    <t>Саляхов Ренат Радикович</t>
+  </si>
+  <si>
+    <t>Минагулова Эльмира Джемилевна</t>
+  </si>
+  <si>
+    <t>Исаев Алим Чингизханович</t>
+  </si>
+  <si>
+    <t>Мордвинова Александра Евгеньевна</t>
+  </si>
+  <si>
+    <t>Афанасьева Дина Александровна</t>
+  </si>
+  <si>
+    <t>Рязанцева Дарья Витальевна</t>
+  </si>
+  <si>
+    <t>Кислица Лариса Владимировна</t>
+  </si>
+  <si>
+    <t>Хусейнов Ибрагим Махданович</t>
+  </si>
+  <si>
+    <t>Берлинская Вера Владимировна</t>
+  </si>
+  <si>
+    <t>Тлизамова Марина Муаедовна</t>
+  </si>
+  <si>
+    <t>Картоев Ибрагим Алиханович</t>
+  </si>
+  <si>
+    <t>Шведов Илья Игоревич</t>
+  </si>
+  <si>
+    <t>Ермакова Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>Листенко Мария Михайловна</t>
+  </si>
+  <si>
+    <t>Степанова Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Кишенина Валентина Александровна</t>
+  </si>
+  <si>
+    <t>Муратова Светлана Алексеевна</t>
+  </si>
+  <si>
+    <t>Непочатова Юлия Викторовна</t>
+  </si>
+  <si>
+    <t>Низен Елена Эвальдовна</t>
+  </si>
+  <si>
+    <t>Шестакова Екатерина Аркадьевна</t>
+  </si>
+  <si>
+    <t>Никульцев Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Белкина Галина Анатольевна</t>
+  </si>
+  <si>
+    <t>Ломовцев Дмитрий Алексеевич</t>
+  </si>
+  <si>
+    <t>Джабарова Зухра Радиковна</t>
+  </si>
+  <si>
+    <t>Дичкова Ольга Алексеевна</t>
+  </si>
+  <si>
+    <t>Дронова Алла Васильевна</t>
+  </si>
+  <si>
+    <t>Карзова Наталья Юрьевна</t>
+  </si>
+  <si>
+    <t>Хестанова Галина Уруспиевна</t>
+  </si>
+  <si>
+    <t>Янгляева Айгуль Маратовна</t>
+  </si>
+  <si>
+    <t>Кучерова Серафима Николаевна</t>
+  </si>
+  <si>
+    <t>Чернавкина Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>Магомедова Альбина Пархутдиновна</t>
+  </si>
+  <si>
+    <t>Илларионова Ольга Сергеевна</t>
+  </si>
+  <si>
+    <t>Ляшина Раиса Николаевна</t>
+  </si>
+  <si>
+    <t>Каримов Умеджон Хокималиевич</t>
+  </si>
+  <si>
+    <t>Бобриков Евгений Алексеевич</t>
+  </si>
+  <si>
+    <t>Мамбетова Нуриса Борукчиевна</t>
+  </si>
+  <si>
+    <t>Шульга Анна Максимовна</t>
+  </si>
+  <si>
+    <t>Егорова Татьяна Петровна</t>
+  </si>
+  <si>
+    <t>Яковлев Сергей Игоревич</t>
+  </si>
+  <si>
+    <t>Уразгельдиева Лия Мухамедхановна</t>
+  </si>
+  <si>
+    <t>Тамазова Эдита Яковлевна</t>
+  </si>
+  <si>
+    <t>Красничков Алексей Сергеевич</t>
+  </si>
+  <si>
+    <t>Стратович Ирина Валентиновна</t>
+  </si>
+  <si>
+    <t>Яковлева Нина Геннадьевна</t>
+  </si>
+  <si>
+    <t>Шабалина Нина Валерьевна</t>
+  </si>
+  <si>
+    <t>Эсуев Ахмед Абдуллаевич</t>
+  </si>
+  <si>
+    <t>Магомедова Разият Робертовна</t>
+  </si>
+  <si>
+    <t>Довлатян Грайр Робертович</t>
+  </si>
+  <si>
+    <t>Гудиев Али Гириевич</t>
+  </si>
+  <si>
+    <t>Дмитриева Антонина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Степанова Елена Геннадьевна</t>
+  </si>
+  <si>
+    <t>Михайлова Екатерина Николаевна</t>
+  </si>
+  <si>
+    <t>Василенкова Александра Сергеевна</t>
+  </si>
+  <si>
+    <t>Керимли Фаик Ильхам Оглы</t>
+  </si>
+  <si>
+    <t>Худайбердиева Мая Мыратгелдиевна</t>
+  </si>
+  <si>
+    <t>Румянцева Анна Андреевна</t>
+  </si>
+  <si>
+    <t>Котляр Владислав Альбертович</t>
+  </si>
+  <si>
+    <t>Валикова Марина Владимировна</t>
+  </si>
+  <si>
+    <t>Беляева Мария Александровна</t>
+  </si>
+  <si>
+    <t>Лимаенко Дмитрий Андреевич</t>
+  </si>
+  <si>
+    <t>Немкович Галина Михайловна</t>
+  </si>
+  <si>
+    <t>Оже Галина Сергеевна</t>
+  </si>
+  <si>
+    <t>Эфендиева Фарида Фахраддин кызы</t>
+  </si>
+  <si>
+    <t>Исакова Хадижат Заирбеговна</t>
+  </si>
+  <si>
+    <t>Арзуманян Ануш Аршаковна</t>
+  </si>
+  <si>
+    <t>Кузнецова Ирина Арсеньевна</t>
+  </si>
+  <si>
+    <t>Арсельгова Марина Сулеймановна</t>
+  </si>
+  <si>
+    <t>Абрамова Людмила Дмитриевна</t>
+  </si>
+  <si>
+    <t>Мясоутова Тамара Гиниятовна</t>
+  </si>
+  <si>
+    <t>Тедеева Циала Борисовна</t>
+  </si>
+  <si>
+    <t>Кудряшов Дмитрий Викторович</t>
+  </si>
+  <si>
+    <t>Мустафаева Гюнель Будаг кызы</t>
+  </si>
+  <si>
+    <t>Козлов Егор Романович</t>
+  </si>
+  <si>
+    <t>Овчинникова Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t>Кириллова Ольга Алексеевна</t>
+  </si>
+  <si>
+    <t>Могдарева Елена Максимовна</t>
+  </si>
+  <si>
+    <t>Лялите Иоланта Альгимантовна</t>
+  </si>
+  <si>
+    <t>Ходжаева Анна Юрьевна</t>
+  </si>
+  <si>
+    <t>Морозенко Оксана Владимировна</t>
+  </si>
+  <si>
+    <t>Хлыстова Рената Анваровна</t>
+  </si>
+  <si>
+    <t>Оганнисян Кристина Альбертовна</t>
+  </si>
+  <si>
+    <t>Арефьева Ольга Сердаровна</t>
+  </si>
+  <si>
+    <t>Удалаева Розия Ахияровна</t>
+  </si>
+  <si>
+    <t>Мирибян Наира Размиковна</t>
+  </si>
+  <si>
+    <t>Макеева Елена Валентиновна</t>
+  </si>
+  <si>
+    <t>Ризвонов Максуджон Мавлонович</t>
+  </si>
+  <si>
+    <t>Давыдова Людмила Николаевна</t>
+  </si>
+  <si>
+    <t>Мусаева Сумая Иса кызы</t>
+  </si>
+  <si>
+    <t>Мещерякова Надежда Петровна</t>
+  </si>
+  <si>
+    <t>Намазова Гюнай Рашидовна</t>
+  </si>
+  <si>
+    <t>Набиев Тимур Рамизович</t>
+  </si>
+  <si>
+    <t>Кикалия Манучар Карлоевич</t>
+  </si>
+  <si>
+    <t>Махноносов Сергей Дмитриевич</t>
+  </si>
+  <si>
+    <t>Ильин Максим Олегович</t>
+  </si>
+  <si>
+    <t>Багаутдинова Луиза Ильмировна</t>
+  </si>
+  <si>
+    <t>Базырова Дельгир Вячеславовна</t>
+  </si>
+  <si>
+    <t>Камбаров Иляз Мухаматалиевич</t>
+  </si>
+  <si>
+    <t>Габитова Назира Магомедназировна</t>
+  </si>
+  <si>
+    <t>Гвалия Медея Григорьевна</t>
+  </si>
+  <si>
+    <t>Малкина Анна Ильинична</t>
+  </si>
+  <si>
+    <t>Кочеткова Наталья Михайловна</t>
+  </si>
+  <si>
+    <t>Ямашкина Оксана Игоревна</t>
+  </si>
+  <si>
+    <t>Перекосова Юлия Владиславовна</t>
+  </si>
+  <si>
+    <t>Ткаченко Валерия Валерьевна</t>
+  </si>
+  <si>
+    <t>Рыбакова Анастасия Ивановна</t>
+  </si>
+  <si>
+    <t>Рыбак Диана Исметовна</t>
+  </si>
+  <si>
+    <t>Павлович Валерия Андреевна</t>
+  </si>
+  <si>
+    <t>Катаев Александр Александрович</t>
+  </si>
+  <si>
+    <t>Боева Вера Михайловна</t>
+  </si>
+  <si>
+    <t>Кожемяко Наталья Васильевна</t>
+  </si>
+  <si>
+    <t>Цыбикова Наталья Балдоржиевна</t>
+  </si>
+  <si>
+    <t>Джалалов Шарабутдин Магомедович</t>
+  </si>
+  <si>
+    <t>Панченко Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Аушева Зара Баторбековна</t>
+  </si>
+  <si>
+    <t>Хаматханов Руслан Магометович</t>
+  </si>
+  <si>
+    <t>Михальченко Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Оздоева Фатима Беслановна</t>
+  </si>
+  <si>
+    <t>Гордеева Екатерина Евгеньевна</t>
+  </si>
+  <si>
+    <t>Парнякова Людмила Александровна</t>
+  </si>
+  <si>
+    <t>Сазонова Елена Валентиновна</t>
+  </si>
+  <si>
+    <t>Загородникова Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>Пусев Андрей Викторович</t>
+  </si>
+  <si>
+    <t>Кухта Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Товмасян Анжела Рафаеловна</t>
+  </si>
+  <si>
+    <t>Леонова Ольга Валерьевна</t>
+  </si>
+  <si>
+    <t>Лапшина Екатерина Владимировна</t>
+  </si>
+  <si>
+    <t>Шевченко Лариса Ивановна</t>
+  </si>
+  <si>
+    <t>Хохрикова Марина Николаевна</t>
+  </si>
+  <si>
+    <t>Логинова Марина Ивановна</t>
+  </si>
+  <si>
+    <t>Лишаева Анна Михайловна</t>
+  </si>
+  <si>
+    <t>Арсанукаева Овлаз Шахидовна</t>
+  </si>
+  <si>
+    <t>Миронова Полина Михайловна</t>
+  </si>
+  <si>
+    <t>Ларсанова Аминат Султанбековна</t>
+  </si>
+  <si>
+    <t>Покатин Юрий Анатольевич</t>
+  </si>
+  <si>
+    <t>Илюшкина Ольга Васильевна</t>
+  </si>
+  <si>
+    <t>Дадашева Камила Мурадовна</t>
+  </si>
+  <si>
+    <t>Камалов Амир Камильевич</t>
+  </si>
+  <si>
+    <t>Расулова Светлана Владимировна</t>
+  </si>
+  <si>
+    <t>Турлавова Зульфия Садуллаевна</t>
+  </si>
+  <si>
+    <t>Рахмихудоева Нигина Гуламадовна</t>
+  </si>
+  <si>
+    <t>Снарская Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Творожкова Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>Коцкая Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Грозина Александра Вольфрамовна</t>
+  </si>
+  <si>
+    <t>Шестакова Галина Николаевна</t>
+  </si>
+  <si>
+    <t>Пагиева Светлана Ахматовна</t>
+  </si>
+  <si>
+    <t>Гончарова Алла Геннадиевна</t>
+  </si>
+  <si>
+    <t>Галямова Марьям Баязитовна</t>
+  </si>
+  <si>
+    <t>Горланова Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Гусева Галина Владимировна</t>
+  </si>
+  <si>
+    <t>Гладкая Жанна Васильевна</t>
+  </si>
+  <si>
+    <t>Цховребова Ольга Зурабовна</t>
+  </si>
+  <si>
+    <t>Рабаданова Наида Насруллаевна</t>
+  </si>
+  <si>
+    <t>Спирина Дарья Игоревна</t>
+  </si>
+  <si>
+    <t>Степанова Светлана Николаевна</t>
+  </si>
+  <si>
+    <t>Шахназарова Галина Владимировна</t>
+  </si>
+  <si>
+    <t>Эрендженова Мария Лиджиевна</t>
+  </si>
+  <si>
+    <t>Мурадова Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Мглинец Виктор Павлович</t>
+  </si>
+  <si>
+    <t>Алирзаева Хадижат Абдулнасировна</t>
+  </si>
+  <si>
+    <t>Гюльметова Сабина Тагировна</t>
+  </si>
+  <si>
+    <t>Исаева Анастасия Павловна</t>
+  </si>
+  <si>
+    <t>Багандова Марьям Абдулмуслимовна</t>
+  </si>
+  <si>
+    <t>Ковыршина Екатерина Павловна</t>
+  </si>
+  <si>
+    <t>Ассанаев Омар Ширванович</t>
+  </si>
+  <si>
+    <t>Пагиева Инна Ахсарбековна</t>
+  </si>
+  <si>
+    <t>Ефимова Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Зиварова Гульзада Сарсенбаевна</t>
+  </si>
+  <si>
+    <t>Зеленяев Николай Алексеевич</t>
+  </si>
+  <si>
+    <t>Жеребцова Анастасия Павловна</t>
+  </si>
+  <si>
+    <t>Авилкина Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>Матвеева Мария Васильевна</t>
+  </si>
+  <si>
+    <t>Кан Ольга Валентиновна</t>
+  </si>
+  <si>
+    <t>Макарова Анастасия Сергеевна</t>
+  </si>
+  <si>
+    <t>Булискерия Нана Хутаевна</t>
+  </si>
+  <si>
+    <t>Токунова Татьяна Станиславовна</t>
+  </si>
+  <si>
+    <t>Трушина Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>Волоскова Мария Семеновна</t>
+  </si>
+  <si>
+    <t>Шуптинова Елена Романовна</t>
+  </si>
+  <si>
+    <t>Селезнева Наталия Геннадьевна</t>
+  </si>
+  <si>
+    <t>Масёма Максим Николаевич</t>
+  </si>
+  <si>
+    <t>Товсултанова Лиза Руслановна</t>
+  </si>
+  <si>
+    <t>Ротарь Ирина Михайловна</t>
+  </si>
+  <si>
+    <t>Кикова Анжела Галиевна</t>
+  </si>
+  <si>
+    <t>Казымова Улькер Бахрам кызы</t>
+  </si>
+  <si>
+    <t>Бузынина Анна Владимировна</t>
+  </si>
+  <si>
+    <t>Дашкина Динара Фяритовна</t>
+  </si>
+  <si>
+    <t>Канева Онега Алексеевна</t>
+  </si>
+  <si>
+    <t>Воробьев Александр Александрович</t>
+  </si>
+  <si>
+    <t>Грошева Нина Александровна</t>
+  </si>
+  <si>
+    <t>Петухова Светлана Васильевна</t>
+  </si>
+  <si>
+    <t>Гвинджилия Тамуна Джамбуловна</t>
+  </si>
+  <si>
+    <t>Токмакова Оксана Николаевна</t>
+  </si>
+  <si>
+    <t>Войтюк Николай Степанович</t>
+  </si>
+  <si>
+    <t>Гемуева Светлана Юсуфовна</t>
+  </si>
+  <si>
+    <t>Воротникова Дарья Сергеевна</t>
+  </si>
+  <si>
+    <t>Губжокова Марина Замировна</t>
+  </si>
+  <si>
+    <t>Текучева Валентина Викторовна</t>
+  </si>
+  <si>
+    <t>Кутейникова Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Самойлова Мария Игоревна</t>
+  </si>
+  <si>
+    <t>Суббота София Юрьевна</t>
+  </si>
+  <si>
+    <t>Лавров Владислав Сергеевич</t>
+  </si>
+  <si>
+    <t>Туробов Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Стульникова Оксана Викторовна</t>
+  </si>
+  <si>
+    <t>Лаптева Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>Иванов Степан Владимирович</t>
+  </si>
+  <si>
+    <t>Магомедов Расул Ханапиевич</t>
+  </si>
+  <si>
+    <t>Лепихин Игорь Александрович</t>
+  </si>
+  <si>
+    <t>Коробченко Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>Глазова Елена Анатольевна</t>
+  </si>
+  <si>
+    <t>Мурадян Ерануи Наполеоновна</t>
+  </si>
+  <si>
+    <t>Морозова Екатерина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Медякова Христина Александровна</t>
+  </si>
+  <si>
+    <t>Лисовская Светлана Юрьевна</t>
+  </si>
+  <si>
+    <t>Моисеева Елена Михайловна</t>
+  </si>
+  <si>
+    <t>Крючкова Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>Мулюкова Регина Рильевна</t>
+  </si>
+  <si>
+    <t>Куталия Теа Омеховна</t>
+  </si>
+  <si>
+    <t>Акопян Анаит Сосиковна</t>
+  </si>
+  <si>
+    <t>Ершов Алексей Иванович</t>
+  </si>
+  <si>
+    <t>Гриненко Дина Владимировна</t>
+  </si>
+  <si>
+    <t>Каптанова Ольга Вильевна</t>
+  </si>
+  <si>
+    <t>Немцева Ольга Александровна</t>
+  </si>
+  <si>
+    <t>Каменцева Надежда Борисовна</t>
+  </si>
+  <si>
+    <t>Харченко Юлия Владимировна</t>
+  </si>
+  <si>
+    <t>Смирнова Вера Георгиевна</t>
+  </si>
+  <si>
+    <t>Карнова Людмила Ивановна</t>
+  </si>
+  <si>
+    <t>Елина Мария Вячеславовна</t>
+  </si>
+  <si>
+    <t>Игнатова Елена Анатольевна</t>
+  </si>
+  <si>
+    <t>Мамаева Евгения Александровна</t>
+  </si>
+  <si>
+    <t>Желудкова Лидия Николаевна</t>
+  </si>
+  <si>
+    <t>Брыков Александр Владимирович</t>
+  </si>
+  <si>
+    <t>Толстикова Виктория Геннадьевна</t>
+  </si>
+  <si>
+    <t>Авальяни Вера Юзовна</t>
+  </si>
+  <si>
+    <t>Артемьев Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Бутякова Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>Абдуллоева Ганжина Бахтиёровна</t>
+  </si>
+  <si>
+    <t>Андреев Михаил Алексеевич</t>
+  </si>
+  <si>
+    <t>Амирагян Сиран Сандроевна</t>
+  </si>
+  <si>
+    <t>Гаджимагомедова Луиза Ибадуллаевна</t>
+  </si>
+  <si>
+    <t>Алимова Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Ануфриева Елена Андреевна</t>
+  </si>
+  <si>
+    <t>Лосев Антон Сергеевич</t>
+  </si>
+  <si>
+    <t>Новикова Юлия Марковна</t>
+  </si>
+  <si>
+    <t>Мефодьева Валентина Федоровна</t>
+  </si>
+  <si>
+    <t>Шапкин Кирилл Николаевич</t>
+  </si>
+  <si>
+    <t>Алексейков Владимир Павлович</t>
+  </si>
+  <si>
+    <t>Мусаева Насиба Магомедовна</t>
+  </si>
+  <si>
+    <t>Поправка Антонина Юрьевна</t>
+  </si>
+  <si>
+    <t>Мнацаканян Эмма Ашотовна</t>
+  </si>
+  <si>
+    <t>Мустафина Айсылу Тагировна</t>
+  </si>
+  <si>
+    <t>Бородулина Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Назранова Жанна Мусарбиевна</t>
+  </si>
+  <si>
+    <t>Авдеева Наталия Ивановна</t>
+  </si>
+  <si>
+    <t>Панкратова Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Герасимова Евгения Львовна</t>
+  </si>
+  <si>
+    <t>Яковченкова Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Иванова Любовь Николаевна</t>
+  </si>
+  <si>
+    <t>Мигирова Ирина Алановна</t>
+  </si>
+  <si>
+    <t>Тукиш Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>Шейхова Наргиз Рустамовна</t>
+  </si>
+  <si>
+    <t>Иванцова Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Илюхин Кирилл Олегович</t>
+  </si>
+  <si>
+    <t>Романова Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t>Руднева Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Эскирханова Лолита Алхазуровна</t>
+  </si>
+  <si>
+    <t>Калашникова Галина Александровна</t>
+  </si>
+  <si>
+    <t>Миралиева Зарина Тохировна</t>
+  </si>
+  <si>
+    <t>Куклев Александр Дмитриевич</t>
+  </si>
+  <si>
+    <t>Буренкова Наталия Юрьевна</t>
+  </si>
+  <si>
+    <t>Самаков Сергей Владимирович</t>
+  </si>
+  <si>
+    <t>Фахрудинова Жанна Владимировна</t>
+  </si>
+  <si>
+    <t>Гаджиханова Патиматзаграт Магомедшапиевна</t>
+  </si>
+  <si>
+    <t>Смирнова Людмила Анатольевна</t>
+  </si>
+  <si>
+    <t>Косырев Павел Михайлович</t>
+  </si>
+  <si>
+    <t>Калоева Лолита Казбековна</t>
+  </si>
+  <si>
+    <t>Пинчук Екатерина Андреевна</t>
+  </si>
+  <si>
+    <t>Кузьмина Виктория Валерьевна</t>
+  </si>
+  <si>
+    <t>Ильина Олеся Геннадьевна</t>
+  </si>
+  <si>
+    <t>Качанов Артем Анатольевич</t>
+  </si>
+  <si>
+    <t>Бондарева Лидия Андреевна</t>
+  </si>
+  <si>
+    <t>Ярушкина Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t>Таратунина Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Масимова Хумай Васиф кызы</t>
+  </si>
+  <si>
+    <t>Колганова Анастасия Андреевна</t>
+  </si>
+  <si>
+    <t>Предко Лилия Фагимовна</t>
+  </si>
+  <si>
+    <t>Григорьева Инна Михайловна</t>
+  </si>
+  <si>
+    <t>Хамидов Рашидбек Жамшидбек Угли</t>
+  </si>
+  <si>
+    <t>Корякина Ольга Сергеевна</t>
+  </si>
+  <si>
+    <t>Кузнецова Ольга Дмитриевна</t>
+  </si>
+  <si>
+    <t>Арушанян Арев Анушавановна</t>
+  </si>
+  <si>
+    <t>Боровкова Валентина Григорьевна</t>
+  </si>
+  <si>
+    <t>Боровик Нина Федоровна</t>
+  </si>
+  <si>
+    <t>Юлдашева Ойдин Мирзаевна</t>
+  </si>
+  <si>
+    <t>Ганапиева Габибат Саидовна</t>
+  </si>
+  <si>
+    <t>Зверева Ольга Васильевна</t>
+  </si>
+  <si>
+    <t>Анвар Мухаммад Зиишан</t>
+  </si>
+  <si>
+    <t>Калесникова Татьяна Юрьевна</t>
+  </si>
+  <si>
+    <t>Дикаева Макка Султановна</t>
+  </si>
+  <si>
+    <t>Ильина Светлана Петровна</t>
+  </si>
+  <si>
+    <t>Фролова Инна Каримовна</t>
+  </si>
+  <si>
+    <t>Гогичаев Таймураз Валерьевич</t>
+  </si>
+  <si>
+    <t>Наседкина Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Маргарян Овсеп Ваграмович</t>
+  </si>
+  <si>
+    <t>Гусев Юрий Анатольевич</t>
+  </si>
+  <si>
+    <t>Тамбиева Эльвира Магомет-Аминовна</t>
+  </si>
+  <si>
+    <t>Климов Антон Александрович</t>
+  </si>
+  <si>
+    <t>Кранжиевская Алевтина Сергеевна</t>
+  </si>
+  <si>
+    <t>Маслова Любовь Николаевна</t>
+  </si>
+  <si>
+    <t>Курочка Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>Жижина Наталья Михайловна</t>
+  </si>
+  <si>
+    <t>Алиметова Раида Кязымовна</t>
+  </si>
+  <si>
+    <t>Дудугова Тамила Адамовна</t>
+  </si>
+  <si>
+    <t>Селиванов Алексей Валериевич</t>
+  </si>
+  <si>
+    <t>Абдуллаева Луиза Мавулдиевна</t>
+  </si>
+  <si>
+    <t>Скороходова Вера Германовна</t>
+  </si>
+  <si>
+    <t>Амоголонов Борис Цыренович</t>
+  </si>
+  <si>
+    <t>Мовсарова Марха Юсуповна</t>
+  </si>
+  <si>
+    <t>Ашаева Дана Мовсаровна</t>
+  </si>
+  <si>
+    <t>Молдокасымова Айсулуу Кайырбековна</t>
+  </si>
+  <si>
+    <t>Пшеничникова Елизавета Сергеевна</t>
+  </si>
+  <si>
+    <t>Тарабрина Елена Викторовна</t>
+  </si>
+  <si>
+    <t>Климова Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>Гуров Руслан Владимирович</t>
+  </si>
+  <si>
+    <t>Хосровов Фахраддин Рамазан Оглы</t>
+  </si>
+  <si>
+    <t>Тучак Алексей Анатольевич</t>
+  </si>
+  <si>
+    <t>Хасуева Амина Умаровна</t>
+  </si>
+  <si>
+    <t>Соболевский Виталий Анатольевич</t>
+  </si>
+  <si>
+    <t>Данилова Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Кубышева Алевтина Ивановна</t>
+  </si>
+  <si>
+    <t>Старостина Ирина Михайловна</t>
+  </si>
+  <si>
+    <t>Лабинтан Милен Марсельевна</t>
+  </si>
+  <si>
+    <t>Бахтиёрова Сайёра Отохоновна</t>
+  </si>
+  <si>
+    <t>Сипетая Людмила Ивановна</t>
+  </si>
+  <si>
+    <t>Гебекова Юлдуз Саладиновна</t>
+  </si>
+  <si>
+    <t>Суворов-Талаев Игорь Николаевич</t>
+  </si>
+  <si>
+    <t>Фастова Татьяна Олеговна</t>
+  </si>
+  <si>
+    <t>Флягина Наталья Евгеньевна</t>
+  </si>
+  <si>
+    <t>Курдюкова Екатерина Николаевна</t>
+  </si>
+  <si>
+    <t>Мирзакеримова Беневша Абасмирзаевна</t>
+  </si>
+  <si>
+    <t>Пономарева Ксения Александровна</t>
+  </si>
+  <si>
+    <t>Мусаева Наиля Махмудовна</t>
+  </si>
+  <si>
+    <t>Ной Наталья Викторовна</t>
+  </si>
+  <si>
+    <t>Джабаров Султонджон Махмудович</t>
+  </si>
+  <si>
+    <t>Кагазежева Инна Залимхановна</t>
+  </si>
+  <si>
+    <t>Орзалиева Эльза Ахмедовна</t>
+  </si>
+  <si>
+    <t>Сенжапова Марьям Рашидовна</t>
+  </si>
+  <si>
+    <t>Курский Денис Сергеевич</t>
+  </si>
+  <si>
+    <t>Костычева Марина Владимировна</t>
+  </si>
+  <si>
+    <t>Искандарова Елена Анатольевна</t>
+  </si>
+  <si>
+    <t>Волжинский Илья Викторович</t>
+  </si>
+  <si>
+    <t>Сулейманова Сагибат Мустафаевна</t>
+  </si>
+  <si>
+    <t>Яснопольская Людмила Юрьевна</t>
+  </si>
+  <si>
+    <t>Гречухина Галина Александровна</t>
+  </si>
+  <si>
+    <t>Харченко Роман Сергеевич</t>
+  </si>
+  <si>
+    <t>Большакова Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Заболотская Марина Игоревна</t>
+  </si>
+  <si>
+    <t>Дубовая Нина Николаевна</t>
+  </si>
+  <si>
+    <t>Гузачева Людмила Александровна</t>
+  </si>
+  <si>
+    <t>Грабуздов Антон Михайлович</t>
+  </si>
+  <si>
+    <t>Жидкова Ольга Алексеевна</t>
+  </si>
+  <si>
+    <t>Лавушкин Максим Дмитриевич</t>
+  </si>
+  <si>
+    <t>Макиев Евгений Алмазович</t>
+  </si>
+  <si>
+    <t>Масленников Вячеслав Михайлович</t>
+  </si>
+  <si>
+    <t>Кочетова Ксения Валентиновна</t>
+  </si>
+  <si>
+    <t>Юсубова Мехрибан Паша кызы</t>
+  </si>
+  <si>
+    <t>Бесирова Альбина Вахидовна</t>
+  </si>
+  <si>
+    <t>Гусейнова Элвира Загид кызы</t>
+  </si>
+  <si>
+    <t>Колян Сусанна Хачатуровна</t>
+  </si>
+  <si>
+    <t>Амирбеков Минатула Магомедович</t>
+  </si>
+  <si>
+    <t>Бейшеева Алтынкуль Сакеновна</t>
+  </si>
+  <si>
+    <t>Бугаенко Георгий Александрович</t>
+  </si>
+  <si>
+    <t>Родина Татьяна Дмитриевна</t>
+  </si>
+  <si>
+    <t>Аляутдинова Ирина Анисимовна</t>
+  </si>
+  <si>
+    <t>Насриддинова Мавлюдахон Тажибаевна</t>
+  </si>
+  <si>
+    <t>Рустамова Кенюль Талет кызы</t>
+  </si>
+  <si>
+    <t>Абдурахимов Абдурахим Абдукодирович</t>
+  </si>
+  <si>
+    <t>Фомичева Ольга Германовна</t>
+  </si>
+  <si>
+    <t>Шевченко Анна Алексеевна</t>
+  </si>
+  <si>
+    <t>Исаева Мадина Абдулмуслимовна</t>
+  </si>
+  <si>
+    <t>Ивашкина Валентина Николаевна</t>
+  </si>
+  <si>
+    <t>Ахмедова Умуриза Абдулманаповна</t>
+  </si>
+  <si>
+    <t>Гасанова Ламия Вагиф Кызы</t>
+  </si>
+  <si>
+    <t>Петушинова Цыренханда Дашинимаевна</t>
+  </si>
+  <si>
+    <t>Алекперов Алим Азим Оглы</t>
+  </si>
+  <si>
+    <t>Костикова Ольга Игоревна</t>
+  </si>
+  <si>
+    <t>Каряка Екатерина Анатольевна</t>
+  </si>
+  <si>
+    <t>Хрисанова Наталия Валериевна</t>
+  </si>
+  <si>
+    <t>Сафина Алсу Куддусовна</t>
+  </si>
+  <si>
+    <t>Баматов Ислам Исаевич</t>
+  </si>
+  <si>
+    <t>Мальцагов Хаджимурад Мусаевич</t>
+  </si>
+  <si>
+    <t>Базарова Александра Юрьевна</t>
+  </si>
+  <si>
+    <t>Батюк Зоя Леонидовна</t>
+  </si>
+  <si>
+    <t>Медведев Сергей Николаевич</t>
+  </si>
+  <si>
+    <t>Помогайбо Виктор Витальевич</t>
+  </si>
+  <si>
+    <t>Токуев Кирсан Асланович</t>
+  </si>
+  <si>
+    <t>Григориади Одиссей Софоклович</t>
+  </si>
+  <si>
+    <t>Сорокин Геннадий Иванович</t>
+  </si>
+  <si>
+    <t>Иванова Лариса Борисовна</t>
+  </si>
+  <si>
+    <t>Владимирова Наталья Робертовна</t>
+  </si>
+  <si>
+    <t>Баращук Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Гадисова Патимат Исаевна</t>
+  </si>
+  <si>
+    <t>Джумашева Лейла Сабировна</t>
+  </si>
+  <si>
+    <t>Загирова Патимат Абдулманаповна</t>
+  </si>
+  <si>
+    <t>Доев Тамерлан Казбекович</t>
+  </si>
+  <si>
+    <t>Джан Екатерина Николаевна</t>
+  </si>
+  <si>
+    <t>Мархасаева Марина Геннадьевна</t>
+  </si>
+  <si>
+    <t>Губайдуллина Венера Тагировна</t>
+  </si>
+  <si>
+    <t>Самедова Хаяле Фиридун кызы</t>
+  </si>
+  <si>
+    <t>Кравченко Евгений Владимирович</t>
+  </si>
+  <si>
+    <t>Боровкова Мария Алексеевна</t>
+  </si>
+  <si>
+    <t>Лукьянова Мария Александровна</t>
+  </si>
+  <si>
+    <t>Куранбаев Адхам Абдукаримович</t>
+  </si>
+  <si>
+    <t>Лалаев Октай Рагим оглы</t>
+  </si>
+  <si>
+    <t>Тренина Виктория Сергеевна</t>
+  </si>
+  <si>
+    <t>Федорова Ирина Эдуардовна</t>
+  </si>
+  <si>
+    <t>Трушина Людмила Николаевна</t>
+  </si>
+  <si>
+    <t>Парсаданян Армине Ромеоевна</t>
+  </si>
+  <si>
+    <t>Садикова Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Орозумбетова Мамлякат Джадигеровна</t>
+  </si>
+  <si>
+    <t>Гучмазов Аким Маирбегович</t>
+  </si>
+  <si>
+    <t>Джураева Мукаддас Болтаевна</t>
+  </si>
+  <si>
+    <t>Краснова Вероника Федоровна</t>
+  </si>
+  <si>
+    <t>Вохидова Дилфуза Мубинджоновна</t>
+  </si>
+  <si>
+    <t>Зайцев Андрей Михайлович</t>
+  </si>
+  <si>
+    <t>Жугинисова Райхан Шарибаевна</t>
+  </si>
+  <si>
+    <t>Колганова Ольга Витальевна</t>
+  </si>
+  <si>
+    <t>Чибичева Анифе Толятовна</t>
+  </si>
+  <si>
+    <t>Уляшкина Ольга Ивановна</t>
+  </si>
+  <si>
+    <t>Шереметьева Татьяна Ивановна</t>
+  </si>
+  <si>
+    <t>Шереметьева Елена Анатольевна</t>
+  </si>
+  <si>
+    <t>Шутова Валентина Васильевна</t>
+  </si>
+  <si>
+    <t>Баламирзоева Аида Амахановна</t>
+  </si>
+  <si>
+    <t>Перепичай Екатерина Николаевна</t>
+  </si>
+  <si>
+    <t>Урусова Хаджият Ахметовна</t>
+  </si>
+  <si>
+    <t>Черная Эллина Валерьевна</t>
+  </si>
+  <si>
+    <t>Сафарова Динара Шарифбоевна</t>
+  </si>
+  <si>
+    <t>Кипкеева Мадина Суфьяновна</t>
+  </si>
+  <si>
+    <t>Селиверстова Лариса Руслановна</t>
+  </si>
+  <si>
+    <t>Чумакин Владимир Владимирович</t>
+  </si>
+  <si>
+    <t>Мусаева Райсат Магомедовна</t>
+  </si>
+  <si>
+    <t>Вельченко Екатерина Валерьевна</t>
+  </si>
+  <si>
+    <t>Платонова Анна Николаевна</t>
+  </si>
+  <si>
+    <t>Лаздан Геннадий Иванович</t>
+  </si>
+  <si>
+    <t>Аксёнова Юлия Викторовна</t>
+  </si>
+  <si>
+    <t>Казакова Ирина Юрьевна</t>
+  </si>
+  <si>
+    <t>Макашова Анна Владимировна</t>
+  </si>
+  <si>
+    <t>Дубовская Дарья Сергеевна</t>
+  </si>
+  <si>
+    <t>Полозова Анастасия Александровна</t>
+  </si>
+  <si>
+    <t>Малиева Зарема Георгиевна</t>
+  </si>
+  <si>
+    <t>Сакаева Адэля Ильдусовна</t>
+  </si>
+  <si>
+    <t>Шахаева Аманат Хасановна</t>
+  </si>
+  <si>
+    <t>Сергеева Надежда Валентиновна</t>
+  </si>
+  <si>
+    <t>Чиняева Кристина Сергеевна</t>
+  </si>
+  <si>
+    <t>Эллидёрт Анна Александровна</t>
+  </si>
+  <si>
+    <t>Ситкалиева Камила Юрьевна</t>
+  </si>
+  <si>
+    <t>Туюкбаева Махабат Рустеновна</t>
+  </si>
+  <si>
+    <t>Михалюта Лариса Викторовна</t>
+  </si>
+  <si>
+    <t>Арчакова Макка Даудовна</t>
+  </si>
+  <si>
+    <t>Бесланеева Элеонора Чарионовна</t>
+  </si>
+  <si>
+    <t>Суровцева Динара Жаудатовна</t>
+  </si>
+  <si>
+    <t>Новожилкина Светлана Юрьевна</t>
+  </si>
+  <si>
+    <t>Саткеева Райлахан Толонбаевна</t>
+  </si>
+  <si>
+    <t>Кац Лариса Дмитриевна</t>
+  </si>
+  <si>
+    <t>Маслова Лилия Михайловна</t>
+  </si>
+  <si>
+    <t>Змеёва Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Шаров Анатолий Валентинович</t>
+  </si>
+  <si>
+    <t>Егорова Екатерина Владимировна</t>
+  </si>
+  <si>
+    <t>Ваделова Диана Руслановна</t>
+  </si>
+  <si>
+    <t>Мариненко Владислав Сергеевич</t>
+  </si>
+  <si>
+    <t>Османова Лейли Алибеговна</t>
+  </si>
+  <si>
+    <t>Хамзатова Лайла Сулимаевна</t>
+  </si>
+  <si>
+    <t>Бекиева Ирина Тахировна</t>
+  </si>
+  <si>
+    <t>Чабан Ольга Андреевна</t>
+  </si>
+  <si>
+    <t>Храпова Елена Александровна</t>
+  </si>
+  <si>
+    <t>Кукушкина Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Землянов Владлен Андреевич</t>
+  </si>
+  <si>
+    <t>Мажан Дарья Сергеевна</t>
+  </si>
+  <si>
+    <t>Алиева Камилла Камильевна</t>
+  </si>
+  <si>
+    <t>Гоголева Полина Сергеевна</t>
+  </si>
+  <si>
+    <t>Старцева Ирина Евгеньевна</t>
+  </si>
+  <si>
+    <t>Толмачева Валерия Игоревна</t>
+  </si>
+  <si>
+    <t>Фирсов Владимир Анатольевич</t>
+  </si>
+  <si>
+    <t>Савенкова Татьяна Васильевна</t>
+  </si>
+  <si>
+    <t>Кривошеева Кристина Сергеевна</t>
+  </si>
+  <si>
+    <t>Искандарова Венера Арсланбековна</t>
+  </si>
+  <si>
+    <t>Стадникова Анна Анатольевна</t>
+  </si>
+  <si>
+    <t>Волкова Татьяна Юрьевна</t>
+  </si>
+  <si>
+    <t>Макарова Маргарита Андреевна</t>
+  </si>
+  <si>
+    <t>Шевцова Карина Александровна</t>
+  </si>
+  <si>
+    <t>Мишакова Анастасия Вениаминовна</t>
+  </si>
+  <si>
+    <t>Гаджиева Кифаят Узеир кызы</t>
+  </si>
+  <si>
+    <t>Трунов Николай Эдуардович</t>
+  </si>
+  <si>
+    <t>Исмаилова Хадижа Султановна</t>
+  </si>
+  <si>
+    <t>Алагиров Эльдар Анзорович</t>
+  </si>
+  <si>
+    <t>Афанасьева Альбина Михайловна</t>
+  </si>
+  <si>
+    <t>Гедеева Джиргала Нимяшевна</t>
+  </si>
+  <si>
+    <t>Мурзакова Ольга Артуровна</t>
+  </si>
+  <si>
+    <t>Ступина Татьяна Вадимовна</t>
+  </si>
+  <si>
+    <t>Кулешова Вера Семеновна</t>
+  </si>
+  <si>
+    <t>Кошелев Николай Дмитриевич</t>
+  </si>
+  <si>
+    <t>Аккужина Индира Дамировна</t>
+  </si>
+  <si>
+    <t>Монакова Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>Хан Александра Валерьевна</t>
+  </si>
+  <si>
+    <t>Джаббаров Нурлан Наил оглы</t>
+  </si>
+  <si>
+    <t>Газимагомедов Мурад Артурович</t>
+  </si>
+  <si>
+    <t>Охунов Мирзобаходур Мирзомубинович</t>
+  </si>
+  <si>
+    <t>Ермакова Ирина Вячеславовна</t>
+  </si>
+  <si>
+    <t>Игнатенко Валентина Васильевна</t>
+  </si>
+  <si>
+    <t>Васильева Валентина Ивановна</t>
+  </si>
+  <si>
+    <t>Хандохова Марианна Хамидбиевна</t>
+  </si>
+  <si>
+    <t>Исмаилова Мехрибан Адил кызы</t>
+  </si>
+  <si>
+    <t>Коледенкова Елена Александровна</t>
+  </si>
+  <si>
+    <t>Сыркина Дарья Владимировна</t>
+  </si>
+  <si>
+    <t>Сыч Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>Халатова Саният Шапиевна</t>
+  </si>
+  <si>
+    <t>Тарасюк Максим Сергеевич</t>
+  </si>
+  <si>
+    <t>Ливенцова Алла Николаевна</t>
+  </si>
+  <si>
+    <t>Гайнутдинов Ирек Маратович</t>
+  </si>
+  <si>
+    <t>Косова Нина Сергеевна</t>
+  </si>
+  <si>
+    <t>Фишин Сергей Алексеевич</t>
+  </si>
+  <si>
+    <t>Лисунова Татьяна Игоревна</t>
+  </si>
+  <si>
+    <t>Вилковыская Дильдаш Елюсеновна</t>
+  </si>
+  <si>
+    <t>Фадеев Алексей Валерьевич</t>
+  </si>
+  <si>
+    <t>Штукатурова Елена Степановна</t>
+  </si>
+  <si>
+    <t>Шаньгина Виктория Александровна</t>
+  </si>
+  <si>
+    <t>Шилова Татьяна Ивановна</t>
+  </si>
+  <si>
+    <t>Туфанова Оксана Владимировна</t>
+  </si>
+  <si>
+    <t>Новикова Вера Ивановна</t>
+  </si>
+  <si>
+    <t>Вишняков Алексей Сергеевич</t>
+  </si>
+  <si>
+    <t>Колмогорова Эльвия Мазитовна</t>
+  </si>
+  <si>
+    <t>Козацкая Руслана Викторовна</t>
+  </si>
+  <si>
+    <t>Гаджиева Айшат Магомедалиевна</t>
+  </si>
+  <si>
+    <t>Зеленина Галина Вадимовна</t>
+  </si>
+  <si>
+    <t>Антонникова Марина Алексеевна</t>
+  </si>
+  <si>
+    <t>Урусов Александр Алексеевич</t>
+  </si>
+  <si>
+    <t>Межерицкая Алена Александровна</t>
+  </si>
+  <si>
+    <t>Милых Светлана Станиславовна</t>
+  </si>
+  <si>
+    <t>Аракчеева Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Бояркина Надежда Николаевна</t>
+  </si>
+  <si>
+    <t>Басонова Анна Орестовна</t>
+  </si>
+  <si>
+    <t>Баранова Яна Юрьевна</t>
+  </si>
+  <si>
+    <t>Воронина Анна Юрьевна</t>
+  </si>
+  <si>
+    <t>Субботина Марина Алексеевна</t>
+  </si>
+  <si>
+    <t>Дунюшина Александра Андреевна</t>
+  </si>
+  <si>
+    <t>Балакшина Полина Павловна</t>
+  </si>
+  <si>
+    <t>Амелин Алексей Вадимович</t>
+  </si>
+  <si>
+    <t>Гамидова Земфира Рамазановна</t>
+  </si>
+  <si>
+    <t>Сундукова Светлана Сафарбиевна</t>
+  </si>
+  <si>
+    <t>Павлова Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Фарафонова Татьяна Вячеславовна</t>
+  </si>
+  <si>
+    <t>Комарова Валерия Алексеевна</t>
+  </si>
+  <si>
+    <t>Шорникова Светлана Геннадьевна</t>
+  </si>
+  <si>
+    <t>Шарова Анна Юрьевна</t>
+  </si>
+  <si>
+    <t>Богданович Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Алленов Николай Сергеевич</t>
+  </si>
+  <si>
+    <t>Масалова Любовь Михайловна</t>
+  </si>
+  <si>
+    <t>Аветова Татьяна Романовна</t>
+  </si>
+  <si>
+    <t>Зиятдинова Лейла Шавкатовна</t>
+  </si>
+  <si>
+    <t>Подковкина Ольга Зиновьевна</t>
+  </si>
+  <si>
+    <t>Алиева Земфира Имран кызы</t>
+  </si>
+  <si>
+    <t>Суслова Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t>Вирясова Марина Васильевна</t>
+  </si>
+  <si>
+    <t>Дмитриева Светлана Евгеньевна</t>
+  </si>
+  <si>
+    <t>Валасанян Кима Айрапетовна</t>
+  </si>
+  <si>
+    <t>Горбулина Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>Белякова Светлана Сергеевна</t>
+  </si>
+  <si>
+    <t>Курбонов Асрорбек Ибрагимович</t>
+  </si>
+  <si>
+    <t>Ахмедов Рафаэль Габил оглы</t>
+  </si>
+  <si>
+    <t>Боготова Екатерина Юрьевна</t>
+  </si>
+  <si>
+    <t>Хотин Михаил Игоревич</t>
+  </si>
+  <si>
+    <t>Себегатуллина Элина Василовна</t>
+  </si>
+  <si>
+    <t>Мугаева Хава Абдулаевна</t>
+  </si>
+  <si>
+    <t>Хизриева Хадижат Зияутдиновна</t>
+  </si>
+  <si>
+    <t>Ким Александр Григорьевич</t>
+  </si>
+  <si>
+    <t>Тихонова Любовь Валентиновна</t>
+  </si>
+  <si>
+    <t>Сафиуллина Валерия Романовна</t>
+  </si>
+  <si>
+    <t>Малов Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Семенова Халимат Борисовна</t>
+  </si>
+  <si>
+    <t>Комкова Альфия Камильевна</t>
+  </si>
+  <si>
+    <t>Морозова Юлия Валерьевна</t>
+  </si>
+  <si>
+    <t>Муравлева Валентина Львовна</t>
+  </si>
+  <si>
+    <t>Пчельникова Анна Геннадиевна</t>
+  </si>
+  <si>
+    <t>Суспицына Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>Ломовцева Ольга Николаевна</t>
+  </si>
+  <si>
+    <t>Мамедова Тамам Махировна</t>
+  </si>
+  <si>
+    <t>Полякова Людмила Александровна</t>
+  </si>
+  <si>
+    <t>Сергеева Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>Тимофеева Татьяна Сергеевна</t>
+  </si>
+  <si>
+    <t>Филиппова Мария Александровна</t>
+  </si>
+  <si>
+    <t>Мосякина Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Фадеева Ирина Николаевна</t>
+  </si>
+  <si>
+    <t>Ломидзе Ирина Зурабиевна</t>
+  </si>
+  <si>
+    <t>Тлярукова Елена Заудиновна</t>
+  </si>
+  <si>
+    <t>Селезнев Денис Евгеньевич</t>
+  </si>
+  <si>
+    <t>Ойтова Рузанна Анатольевна</t>
+  </si>
+  <si>
+    <t>Лагуткина Елена Анатольевна</t>
+  </si>
+  <si>
+    <t>Гаджираджабов Алибулат Гусейниевич</t>
+  </si>
+  <si>
+    <t>Пиньковский Дмитрий Владимирович</t>
+  </si>
+  <si>
+    <t>Макерова Ольга Михайловна</t>
+  </si>
+  <si>
+    <t>Сергеева Елена Владиславовна</t>
+  </si>
+  <si>
+    <t>Самотохина Елена Рудольфовна</t>
+  </si>
+  <si>
+    <t>Евдокимова Екатерина Владимировна</t>
+  </si>
+  <si>
+    <t>Богачева Анна Федоровна</t>
+  </si>
+  <si>
+    <t>Киракосян Анна Феликсовна</t>
+  </si>
+  <si>
+    <t>Клёц Леся Николаевна</t>
+  </si>
+  <si>
+    <t>Резепова Альбина Аллямовна</t>
+  </si>
+  <si>
+    <t>Артамохина Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Крылов Игорь Евгеньевич</t>
+  </si>
+  <si>
+    <t>Ярахмедова Гюльнара Маратовна</t>
+  </si>
+  <si>
+    <t>Прытков Евгений Романович</t>
+  </si>
+  <si>
+    <t>Митрошин Алексей Геннадьевич</t>
+  </si>
+  <si>
+    <t>Маркарян Кристина Айгазовна</t>
+  </si>
+  <si>
+    <t>Забавкина Анастасия Алексеевна</t>
+  </si>
+  <si>
+    <t>Калиновская Анна Вячеславовна</t>
+  </si>
+  <si>
+    <t>Симакова Галина Геннадиевна</t>
+  </si>
+  <si>
+    <t>Сергеева Галина Владимировна</t>
+  </si>
+  <si>
+    <t>Сниткина Наталия Александровна</t>
+  </si>
+  <si>
+    <t>Адушкина Наталия Викторовна</t>
+  </si>
+  <si>
+    <t>Широкова Ангелина Олеговна</t>
+  </si>
+  <si>
+    <t>Дрожжина Мария Александровна</t>
+  </si>
+  <si>
+    <t>Ермакова Надежда Юрьевна</t>
+  </si>
+  <si>
+    <t>Сейсебаев Артем Юрьевич</t>
+  </si>
+  <si>
+    <t>Новиков Евгений Валентинович</t>
+  </si>
+  <si>
+    <t>Попленкина Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Белова Алина Сергеевна</t>
+  </si>
+  <si>
+    <t>Берендеева Мария Сергеевна</t>
+  </si>
+  <si>
+    <t>Зимина Карина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Ямуткова Анна Александровна</t>
+  </si>
+  <si>
+    <t>Литвина Юлия Сергеевна</t>
+  </si>
+  <si>
+    <t>Богданова Софья Александровна</t>
+  </si>
+  <si>
+    <t>Морозова Светлана Глебовна</t>
+  </si>
+  <si>
+    <t>Пищугина Ольга Геннадиевна</t>
+  </si>
+  <si>
+    <t>Смирнова Татьяна Ивановна</t>
+  </si>
+  <si>
+    <t>Галиаскарова Анжелика Альфредовна</t>
+  </si>
+  <si>
+    <t>Пожогина Галина Константиновна</t>
+  </si>
+  <si>
+    <t>Аблякимова Валерия Олеговна</t>
+  </si>
+  <si>
+    <t>Бадмаева Оюун Жаргаловна</t>
+  </si>
+  <si>
+    <t>Филиппова Арина Вячеславовна</t>
+  </si>
+  <si>
+    <t>Абдуллаева Альбина Тахсиновна</t>
+  </si>
+  <si>
+    <t>Давыдова Варвара Олеговна</t>
+  </si>
+  <si>
+    <t>Исманова Гулнара Чиркеевна</t>
+  </si>
+  <si>
+    <t>Гомзов Александр Витальевич</t>
+  </si>
+  <si>
+    <t>Елина Светлана Геннадьевна</t>
+  </si>
+  <si>
+    <t>Гостроус Анастасия Александровна</t>
+  </si>
+  <si>
+    <t>Белов Андрей Алексеевич</t>
+  </si>
+  <si>
+    <t>Багомедов Абдулхалик Магомедшапиевич</t>
+  </si>
+  <si>
+    <t>Кадиева Наргиз Хайбуллаевна</t>
+  </si>
+  <si>
+    <t>Шиман Татьяна Михайловна</t>
+  </si>
+  <si>
+    <t>Цхвитава Нато Гуликоевна</t>
+  </si>
+  <si>
+    <t>Сндоян Сусанна Мисаковна</t>
+  </si>
+  <si>
+    <t>Тамчук Анна Александровна</t>
+  </si>
+  <si>
+    <t>Долаева Тамила Муслимовна</t>
+  </si>
+  <si>
+    <t>Чупров Михаил Сергеевич</t>
+  </si>
+  <si>
+    <t>Сухотерин Алексей Вячеславович</t>
+  </si>
+  <si>
+    <t>Зуев Алексей Сергеевич</t>
+  </si>
+  <si>
+    <t>Айсина Таисия Харисовна</t>
+  </si>
+  <si>
+    <t>Морозова Виктория Александровна</t>
+  </si>
+  <si>
+    <t>Почуева Анна Дмитриевна</t>
+  </si>
+  <si>
+    <t>Абдрашитова Анна Андреевна</t>
+  </si>
+  <si>
+    <t>Рагоза Антон Сергеевич</t>
+  </si>
+  <si>
+    <t>Савельев Андрей Степанович</t>
+  </si>
+  <si>
+    <t>Мартиросян Армине Артуровна</t>
+  </si>
+  <si>
+    <t>Кваченко Диана Алексеевна</t>
+  </si>
+  <si>
+    <t>Собенина Светлана Валерьевна</t>
+  </si>
+  <si>
+    <t>Чалдышкина Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>Коняхина Дарья Андреевна</t>
+  </si>
+  <si>
+    <t>Джафаров Элвин Вахидович</t>
+  </si>
+  <si>
+    <t>Липатова Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Николаев Денис Сергеевич</t>
+  </si>
+  <si>
+    <t>Климова Наталья Юрьевна</t>
+  </si>
+  <si>
+    <t>Байкалова Ольга Александровна</t>
+  </si>
+  <si>
+    <t>Буяльская Екатерина Игоревна</t>
+  </si>
+  <si>
+    <t>Отегенова Алина Мураталиевна</t>
+  </si>
+  <si>
+    <t>Довнар Татьяна Дмитриевна</t>
+  </si>
+  <si>
+    <t>Рубцова Александра Владимировна</t>
+  </si>
+  <si>
+    <t>Федюкина Байон Маргарита Анатольевна</t>
+  </si>
+  <si>
+    <t>Воякина Любовь Ивановна</t>
+  </si>
+  <si>
+    <t>Лебедь Екатерина Юрьевна</t>
+  </si>
+  <si>
+    <t>Сатторов Абдулатиф Абдурахимович</t>
+  </si>
+  <si>
+    <t>Крыжановская Вера Васильевна</t>
+  </si>
+  <si>
+    <t>Ганеева Рената Ильдаровна</t>
+  </si>
+  <si>
+    <t>Навалиев Юзбег Магамедович</t>
+  </si>
+  <si>
+    <t>Бакунц Нарине Грантовна</t>
+  </si>
+  <si>
+    <t>Клементьева Светлана Вячеславовна</t>
+  </si>
+  <si>
+    <t>Бледнова Валентина Николаевна</t>
+  </si>
+  <si>
+    <t>Ежовкина Валентина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Арсеньева Яна Олеговна</t>
+  </si>
+  <si>
+    <t>Казюлина Екатерина Вячеславовна</t>
+  </si>
+  <si>
+    <t>Потапов Алексей Артемович</t>
+  </si>
+  <si>
+    <t>Мисриханов Абдул Алиевич</t>
+  </si>
+  <si>
+    <t>Коновалова Екатерина Вячеславовна</t>
+  </si>
+  <si>
+    <t>Томин Виталий Владимирович</t>
+  </si>
+  <si>
+    <t>Мамедалиева Шамс Илхамовна</t>
+  </si>
+  <si>
+    <t>Джамуева Айшат Юсуповна</t>
+  </si>
+  <si>
+    <t>Запесочная Ирина Леонидовна</t>
+  </si>
+  <si>
+    <t>Фомина Татьяна Геннадьевна</t>
+  </si>
+  <si>
+    <t>Баранов Никита Юрьевич</t>
+  </si>
+  <si>
+    <t>Лозовая Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>Пастухова Наталья Александровна</t>
+  </si>
+  <si>
+    <t>Фаградян Лариса Мартиновна</t>
+  </si>
+  <si>
+    <t>Подставкина Наталья Анатольевна</t>
+  </si>
+  <si>
+    <t>Фаткулаева Малика Надирбековна</t>
+  </si>
+  <si>
+    <t>Сапарина Людмила Ивановна</t>
+  </si>
+  <si>
+    <t>Рамазанова Сефижат Сейфудиновна</t>
+  </si>
+  <si>
+    <t>Волынина Светлана Владимировна</t>
+  </si>
+  <si>
+    <t>Житлова Юлия Сергеевна</t>
+  </si>
+  <si>
+    <t>Макашова Татьяна Александровна</t>
+  </si>
+  <si>
+    <t>Оганова Анна Робертовна</t>
+  </si>
+  <si>
+    <t>Петешова Евгения Александровна</t>
+  </si>
+  <si>
+    <t>Дмитриев Андрей Владимирович</t>
+  </si>
+  <si>
+    <t>Анпилова Элеанора Дмитриевна</t>
+  </si>
+  <si>
+    <t>Утеалиев Ербулат Хасымович</t>
+  </si>
+  <si>
+    <t>Шафигуллина Дилара Ринатовна</t>
+  </si>
+  <si>
+    <t>Форощук Валентина Александровна</t>
+  </si>
+  <si>
+    <t>Милехина Ирина Евгеньевна</t>
+  </si>
+  <si>
+    <t>Дзудцова Ирина Казбековна</t>
+  </si>
+  <si>
+    <t>Ширков Дмитрий Алексеевич</t>
+  </si>
+  <si>
+    <t>Буцанова Александра Владимировна</t>
+  </si>
+  <si>
+    <t>Малахевич Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>Цай Надежда Николаевна</t>
+  </si>
+  <si>
+    <t>Конечных Валерия Александровна</t>
+  </si>
+  <si>
+    <t>Дроздова Вера Константиновна</t>
+  </si>
+  <si>
+    <t>Ахмедзаде Сона Рагиб кызы</t>
+  </si>
+  <si>
+    <t>Орозалиева Гулзина Маматовна</t>
+  </si>
+  <si>
+    <t>Ларина Ольга Николаевна</t>
+  </si>
+  <si>
+    <t>Барт Дмитрий Борисович</t>
+  </si>
+  <si>
+    <t>Филипская Мария Александровна</t>
+  </si>
+  <si>
+    <t>Болдырева Людмила Ивановна</t>
+  </si>
+  <si>
+    <t>Федосеева Наталья Валерьевна</t>
+  </si>
+  <si>
+    <t>Кондрашина Анна Михайловна</t>
+  </si>
+  <si>
+    <t>Тахтарова Марьям Рабадангаджиевна</t>
+  </si>
+  <si>
+    <t>Бодрова Марина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Тимофеева Юлия Александровна</t>
+  </si>
+  <si>
+    <t>Калинина Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Хендави Даниел Мохамадович</t>
+  </si>
+  <si>
+    <t>Коробкова Ирина Викторовна</t>
+  </si>
+  <si>
+    <t>Кирьязова Вера Вячеславовна</t>
+  </si>
+  <si>
+    <t>Фролова Мария Алексеевна</t>
+  </si>
+  <si>
+    <t>Чистякова Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Кожарова Карина Мусарбиевна</t>
+  </si>
+  <si>
+    <t>Киселева Александра Михайловна</t>
+  </si>
+  <si>
+    <t>Белова Нэлли Анатольевна</t>
+  </si>
+  <si>
+    <t>Калинин Евгений Александрович</t>
+  </si>
+  <si>
+    <t>Найманбаева Салия Апсаматовна</t>
+  </si>
+  <si>
+    <t>Гамидова Эсмира Муслимовна</t>
+  </si>
+  <si>
+    <t>Ярошенко Светлана Анатольевна</t>
+  </si>
+  <si>
+    <t>Данилов Василий Леонидович</t>
+  </si>
+  <si>
+    <t>Бельчикова Марина Геннадиевна</t>
+  </si>
+  <si>
+    <t>Алескерова Нигар Рахман кызы</t>
+  </si>
+  <si>
+    <t>Джаноян Виктория Сергеевна</t>
+  </si>
+  <si>
+    <t>Сизова Надежда Степановна</t>
+  </si>
+  <si>
+    <t>Иванова Вероника Николаевна</t>
+  </si>
+  <si>
+    <t>Зубачева Дарья Олеговна</t>
+  </si>
+  <si>
+    <t>Бабенко Людмила Николаевна</t>
+  </si>
+  <si>
+    <t>Луговец Сергей Григорьевич</t>
+  </si>
+  <si>
+    <t>Логинова Анастасия Викторовна</t>
+  </si>
+  <si>
+    <t>Сизотченко Ирина Александровна</t>
+  </si>
+  <si>
+    <t>Полякова Екатерина Константиновна</t>
+  </si>
+  <si>
+    <t>Пономарева Юлия Александровна</t>
+  </si>
+  <si>
+    <t>Пиксайкина Наталья Васильевна</t>
+  </si>
+  <si>
+    <t>Рожкова Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Ибрагимова Каминат Магомедовна</t>
+  </si>
+  <si>
+    <t>Сибирцева Ольга Николаевна</t>
+  </si>
+  <si>
+    <t>Плотникова Людмила Олеговна</t>
+  </si>
+  <si>
+    <t>Круцинский Андрей Николаевич</t>
+  </si>
+  <si>
+    <t>Скала Ольга Владимировна</t>
+  </si>
+  <si>
+    <t>Паронян Сильва Сосоевна</t>
+  </si>
+  <si>
+    <t>Эмирханова Сабина Азимовна</t>
+  </si>
+  <si>
+    <t>Соколова Ирина Александровна</t>
+  </si>
+  <si>
+    <t>Нурмагомедов Мурад Магомедович</t>
+  </si>
+  <si>
+    <t>Харапова Зумруд Мурадовна</t>
+  </si>
+  <si>
+    <t>Дубач Светлана Валерьевна</t>
+  </si>
+  <si>
+    <t>Вершинин Михаил Анатольевич</t>
+  </si>
+  <si>
+    <t>Батырев Евгений Игоревич</t>
+  </si>
+  <si>
+    <t>Райков Артем Андреевич</t>
+  </si>
+  <si>
+    <t>Хожаева Изольда Юрьевна</t>
+  </si>
+  <si>
+    <t>Солошенко Лада Вячеславна</t>
+  </si>
+  <si>
+    <t>Адамова Наталья Леонидовна</t>
+  </si>
+  <si>
+    <t>Закиева Виктория Липаритовна</t>
+  </si>
+  <si>
+    <t>Хомутовская Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>Спиркина Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Ханикаева Рита Алихановна</t>
+  </si>
+  <si>
+    <t>Мулдагалиева Гюзель Насыровна</t>
+  </si>
+  <si>
+    <t>Янышева Ирина Александровна</t>
+  </si>
+  <si>
+    <t>Рудакова Светлана Николаевна</t>
+  </si>
+  <si>
+    <t>Рыжова Нурия Ризвановна</t>
+  </si>
+  <si>
+    <t>Сологуб Кирилл Николаевич</t>
+  </si>
+  <si>
+    <t>Урумова Амина Асланбековна</t>
+  </si>
+  <si>
+    <t>Пиковец Оксана Владимировна</t>
+  </si>
+  <si>
+    <t>Тришина Виктория Викторовна</t>
+  </si>
+  <si>
+    <t>Рамазанова Хадиджа Сулеймановна</t>
+  </si>
+  <si>
+    <t>Родионова Светлана Валентиновна</t>
+  </si>
+  <si>
+    <t>Садаева Малика Султановна</t>
+  </si>
+  <si>
+    <t>Хачикян Эрмине Сережаевна</t>
+  </si>
+  <si>
+    <t>Татаркина Вера Ивановна</t>
+  </si>
+  <si>
+    <t>Кузнецова Инна Владимировна</t>
+  </si>
+  <si>
+    <t>Баклашова Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Титов Георгий Сергеевич</t>
+  </si>
+  <si>
+    <t>Кидяева Кристина Владимировна</t>
+  </si>
+  <si>
+    <t>Капитанова Надежда Яковлевна</t>
+  </si>
+  <si>
+    <t>Олесик Надежда Нестеровна</t>
+  </si>
+  <si>
+    <t>Горбунова Татьяна Ивановна</t>
+  </si>
+  <si>
+    <t>Склярова Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>Черковец Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t>Адынец Кристина Васильевна</t>
+  </si>
+  <si>
+    <t>Базоркина Люба Якубовна</t>
+  </si>
+  <si>
+    <t>Дигаева Малика Сайпутдиновна</t>
+  </si>
+  <si>
+    <t>Фисюк Анна Андреевна</t>
+  </si>
+  <si>
+    <t>Долинская Мария Николаевна</t>
+  </si>
+  <si>
+    <t>Исмаилова Малика Магомедовна</t>
+  </si>
+  <si>
+    <t>Деяшкина Татьяна Евгеньевна</t>
+  </si>
+  <si>
+    <t>Шапоров Юрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Хвардзикия Ирма Абрамовна</t>
+  </si>
+  <si>
+    <t>Плотникова Ольга Николаевна</t>
+  </si>
+  <si>
+    <t>Абдулмуминова Умайганат Алиевна</t>
+  </si>
+  <si>
+    <t>Зейналов Эльнур Шакир оглы</t>
+  </si>
+  <si>
+    <t>Алискерова Эльмира Гаджибалаевна</t>
+  </si>
+  <si>
+    <t>Зайнетдинов Альфред Ринатович</t>
+  </si>
+  <si>
+    <t>Аржаева Светлана Анатольевна</t>
+  </si>
+  <si>
+    <t>Андреасян Ваграм Дереникович</t>
+  </si>
+  <si>
+    <t>Бердышева Евгения Вячеславовна</t>
+  </si>
+  <si>
+    <t>Попова Анна Николаевна</t>
+  </si>
+  <si>
+    <t>Абиев Тимур Аланович</t>
+  </si>
+  <si>
+    <t>Китаев Николай Михайлович</t>
+  </si>
+  <si>
+    <t>Дзаурова Мариета Хасмагаметовна</t>
+  </si>
+  <si>
+    <t>Мирхайдарова Галия Закиевна</t>
+  </si>
+  <si>
+    <t>Хачураева Макка Магомедовна</t>
+  </si>
+  <si>
+    <t>Стрибуль Павел Анатольевич</t>
+  </si>
+  <si>
+    <t>Абдулкасимова Юлдуз Абдулходиевна</t>
+  </si>
+  <si>
+    <t>Кучерова Ксения Вадимовна</t>
+  </si>
+  <si>
+    <t>Балданова Валентина Александровна</t>
+  </si>
+  <si>
+    <t>Умралиева Айман Казимжановна</t>
+  </si>
+  <si>
+    <t>Бортник Наталья Сергеевна</t>
+  </si>
+  <si>
+    <t>Голышева Екатерина Борисовна</t>
+  </si>
+  <si>
+    <t>Щербаков Александр Фёдорович</t>
+  </si>
+  <si>
+    <t>Прошина Ирина Дамировна</t>
+  </si>
+  <si>
+    <t>Милокост Инна Геннадиевна</t>
+  </si>
+  <si>
+    <t>Абу-альджадаель Мудар Мухьедин</t>
+  </si>
+  <si>
+    <t>Якушина Светлана Ивановна</t>
+  </si>
+  <si>
+    <t>Мусина Ирина Викторовна</t>
+  </si>
+  <si>
+    <t>Каримова Ольга Файзиевна</t>
+  </si>
+  <si>
+    <t>Пухова Надежда Жановна</t>
+  </si>
+  <si>
+    <t>Карбова Ирина Вячеславовна</t>
+  </si>
+  <si>
+    <t>Панов Алексей Николаевич</t>
+  </si>
+  <si>
+    <t>Безлюдная Дарья Викторовна</t>
+  </si>
+  <si>
+    <t>Ларионов Иван Владимирович</t>
+  </si>
+  <si>
+    <t>Притворова Светлана Ивановна</t>
+  </si>
+  <si>
+    <t>Латышева Мария Ярославовна</t>
+  </si>
+  <si>
+    <t>Летягин Виктор Яковлевич</t>
+  </si>
+  <si>
+    <t>Рабцевич Анастасия Олеговна</t>
+  </si>
+  <si>
+    <t>Кривошеева Нина Владимировна</t>
+  </si>
+  <si>
+    <t>Музаева Мадина Руслановна</t>
+  </si>
+  <si>
+    <t>Рахманова Дильбар Фархадовна</t>
+  </si>
+  <si>
+    <t>Загалаев Мовсар Арбиевич</t>
+  </si>
+  <si>
+    <t>Юдина Ирина Ивановна</t>
+  </si>
+  <si>
+    <t>Льянова Милана Магометовна</t>
+  </si>
+  <si>
+    <t>Медова Фэриде Мусаевна</t>
+  </si>
+  <si>
+    <t>Полин Денис Сергеевич</t>
+  </si>
+  <si>
+    <t>Федина Алина Сергеевна</t>
+  </si>
+  <si>
+    <t>Ткачева Валентина Ивановна</t>
+  </si>
+  <si>
+    <t>Гамсахурдия Медея Гивиевна</t>
+  </si>
+  <si>
+    <t>Шагинова Галина Васильевна</t>
+  </si>
+  <si>
+    <t>Иминова Айчурок Саминовна</t>
+  </si>
+  <si>
+    <t>Васильева Дарья Николаевна</t>
+  </si>
+  <si>
+    <t>Овес Евгения Алексеевна</t>
+  </si>
+  <si>
+    <t>Сюсюра Иван Сергеевич</t>
+  </si>
+  <si>
+    <t>Вилков Сергей Юрьевич</t>
+  </si>
+  <si>
+    <t>Николаева Елена Анатольевна</t>
+  </si>
+  <si>
+    <t>Заманлы Садат Магамед кызы</t>
+  </si>
+  <si>
+    <t>Башарина Людмила Федоровна</t>
+  </si>
+  <si>
+    <t>Алишерова Динара Тажибаевна</t>
+  </si>
+  <si>
+    <t>Колупаева Мария Игоревна</t>
+  </si>
+  <si>
+    <t>Кипова Зарема Маликовна</t>
+  </si>
+  <si>
+    <t>Байкина Анна Алексеевна</t>
+  </si>
+  <si>
+    <t>Купавых Арина Владимировна</t>
+  </si>
+  <si>
+    <t>Гаглоева Ира Адоевна</t>
+  </si>
+  <si>
+    <t>Темирбеков Руслан Эльбрусович</t>
+  </si>
+  <si>
+    <t>Сефиханов Магомед Сефиханович</t>
+  </si>
+  <si>
+    <t>Апухтина Ирина Андреевна</t>
+  </si>
+  <si>
+    <t>Деордице Марина Олеговна</t>
+  </si>
+  <si>
+    <t>Никитинская Елена Валентиновна</t>
+  </si>
+  <si>
+    <t>Джаватханов Гусейн Ахмедович</t>
+  </si>
+  <si>
+    <t>Закарьяева Зиярат Адильгереевна</t>
+  </si>
+  <si>
+    <t>Григорян Александр Алексеевич</t>
+  </si>
+  <si>
+    <t>Ефремова Кристина Сергеевна</t>
+  </si>
+  <si>
+    <t>Семина Людмила Федоровна</t>
+  </si>
+  <si>
+    <t>Ямуткова Ольга Петровна</t>
+  </si>
+  <si>
+    <t>Рюриков Иоанн Олегович</t>
+  </si>
+  <si>
+    <t>Джанибекова Айшат Рашидовна</t>
+  </si>
+  <si>
+    <t>Судакова Мария Сергеевна</t>
+  </si>
+  <si>
+    <t>Джафаров Рашид Джафарович</t>
+  </si>
+  <si>
+    <t>Тихонов Константин Андреевич</t>
+  </si>
+  <si>
+    <t>Доржиева Октябрина Цыдынжаповна</t>
+  </si>
+  <si>
+    <t>Гасиев Алан Юрьевич</t>
+  </si>
+  <si>
+    <t>Деменкова Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Магомедова Шахрузат Абакаровна</t>
+  </si>
+  <si>
+    <t>Неботова Розалия Ривгатовна</t>
+  </si>
+  <si>
+    <t>Коломийская Любовь Сергеевна</t>
+  </si>
+  <si>
+    <t>Аловова Лейла Сердаровна</t>
+  </si>
+  <si>
+    <t>Степанян Маня Степановна</t>
+  </si>
+  <si>
+    <t>Тикунова Валентина Юрьевна</t>
+  </si>
+  <si>
+    <t>Световидова Анна Дмитриевна</t>
+  </si>
+  <si>
+    <t>Шишкина Анастасия Дмитриевна</t>
+  </si>
+  <si>
+    <t>Макиша Зоя Николаевна</t>
+  </si>
+  <si>
+    <t>Рословец Анна Николаевна</t>
+  </si>
+  <si>
+    <t>Токонова Гулнара Сыргабаевна</t>
+  </si>
+  <si>
+    <t>Солодовник Виктория Вениаминовна</t>
+  </si>
+  <si>
+    <t>Ачоян Левон Унанович</t>
+  </si>
+  <si>
+    <t>Старшинова Мария Валерьевна</t>
+  </si>
+  <si>
+    <t>Гусейнов Саид Гусейнович</t>
+  </si>
+  <si>
+    <t>Колесникова Татьяна Юрьевна</t>
+  </si>
+  <si>
+    <t>Глущенко Евгений Сергеевич</t>
+  </si>
+  <si>
+    <t>Исагаджиев Нугман Хабибович</t>
+  </si>
+  <si>
+    <t>Карапетян Марине Завеновна</t>
+  </si>
+  <si>
+    <t>Игнатченко Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Журкина Светлана Александровна</t>
+  </si>
+  <si>
+    <t>Юсупова Патимат Магомедовна</t>
+  </si>
+  <si>
+    <t>Хачатрян Бакур Рубикович</t>
+  </si>
+  <si>
+    <t>Магомедов Ямудин Фузлудинович</t>
+  </si>
+  <si>
+    <t>Соколовская Ирина Анатольевна</t>
+  </si>
+  <si>
+    <t>Черкасова Юлия Вячеславовна</t>
+  </si>
+  <si>
+    <t>Иванец Оксана Владимировна</t>
+  </si>
+  <si>
+    <t>Шепеленко Вадим Владимирович</t>
+  </si>
+  <si>
+    <t>Севостьянова Мария Юрьевна</t>
+  </si>
+  <si>
+    <t>Погорельский Артём Васильевич</t>
+  </si>
+  <si>
+    <t>Кормильцева Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>Корсаева Людмила Алексеевна</t>
+  </si>
+  <si>
+    <t>Серегина Дарья Сергеевна</t>
+  </si>
+  <si>
+    <t>Дегтярева Вера Сергеевна</t>
+  </si>
+  <si>
+    <t>Белая Алина Николаевна</t>
+  </si>
+  <si>
+    <t>Емелькина Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Бахмудова Патимат Аллайевна</t>
+  </si>
+  <si>
+    <t>Соловьёва Ирина Анатольевна</t>
+  </si>
+  <si>
+    <t>Свитина Светлана Евгеньевна</t>
+  </si>
+  <si>
+    <t>Сосновский Семен Александрович</t>
+  </si>
+  <si>
+    <t>Неретина Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Широва Шахринисо Станиславовна</t>
+  </si>
+  <si>
+    <t>Сосламбеков Майрбек Бесланович</t>
+  </si>
+  <si>
+    <t>Прокопьев Алексей Васильевич</t>
+  </si>
+  <si>
+    <t>Шалабина Марина Николаевна</t>
+  </si>
+  <si>
+    <t>Миронова Екатерина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Эминова Альфия Шамилевна</t>
+  </si>
+  <si>
+    <t>Нам Николай Евгеньевич</t>
+  </si>
+  <si>
+    <t>Беляков Павел Евгеньевич</t>
+  </si>
+  <si>
+    <t>Антонов Михаил Юрьевич</t>
+  </si>
+  <si>
+    <t>Головенко Анастасия Валерьевна</t>
+  </si>
+  <si>
+    <t>Бондаренко Нелли Николаевна</t>
+  </si>
+  <si>
+    <t>Гаджиев Салам Гаджиевич</t>
+  </si>
+  <si>
+    <t>Балаянц Жанна Эдуардовна</t>
+  </si>
+  <si>
+    <t>Александрова Екатерина Георгиевна</t>
+  </si>
+  <si>
+    <t>Алышова Гюльнара Ильтифат кызы</t>
+  </si>
+  <si>
+    <t>Бадалова Анжела Сейталиевна</t>
+  </si>
+  <si>
+    <t>Лосева Надежда Николаевна</t>
+  </si>
+  <si>
+    <t>Цыганок Анжела Владимировна</t>
+  </si>
+  <si>
+    <t>Галимзянова Эльвира Равилевна</t>
+  </si>
+  <si>
+    <t>Павлов Димитрий Эдуардович</t>
+  </si>
+  <si>
+    <t>Сызранцева Елена Алексеевна</t>
+  </si>
+  <si>
+    <t>Миспохов Дилшод Эсобоевич</t>
+  </si>
+  <si>
+    <t>Поладян Сатеник Мовсесовна</t>
+  </si>
+  <si>
+    <t>Зиновьева Тамара Николаевна</t>
+  </si>
+  <si>
+    <t>Воронин Константин Владимирович</t>
+  </si>
+  <si>
+    <t>Панина Алина Николаевна</t>
+  </si>
+  <si>
+    <t>Чочуа Арина Аслановна</t>
+  </si>
+  <si>
+    <t>Тенякова Шоиста Савруллоевна</t>
+  </si>
+  <si>
+    <t>Баталин Михаил Андреевич</t>
+  </si>
+  <si>
+    <t>Шапчиц Вера Николаевна</t>
+  </si>
+  <si>
+    <t>Бирюков Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Абдулкадиров Муъмин Ахмедович</t>
+  </si>
+  <si>
+    <t>Григоренко Рахбар Муазамовна</t>
+  </si>
+  <si>
+    <t>Одишария Нино Тариеловна</t>
+  </si>
+  <si>
+    <t>Кротова Наталья Васильевна</t>
+  </si>
+  <si>
+    <t>Горбач Галина Михайловна</t>
+  </si>
+  <si>
+    <t>Мордвинова Елена Феликсовна</t>
+  </si>
+  <si>
+    <t>Хасанов Тохир Далерович</t>
+  </si>
+  <si>
+    <t>Овраменко Наталия Михайловна</t>
+  </si>
+  <si>
+    <t>Русанова Оксана Рашидовна</t>
+  </si>
+  <si>
+    <t>Ведяков Денис Алексеевич</t>
+  </si>
+  <si>
+    <t>Пичушкина Ольга Сергеевна</t>
+  </si>
+  <si>
+    <t>Магамедалиев Муртаза Исамудинович</t>
+  </si>
+  <si>
+    <t>Панахов Панах Ахлиман оглы</t>
+  </si>
+  <si>
+    <t>Летова Валерия Евгеньевна</t>
+  </si>
+  <si>
+    <t>Мискинова Жанатхан Абдулмажиновна</t>
+  </si>
+  <si>
+    <t>Мальцева Лариса Александровна</t>
+  </si>
+  <si>
+    <t>Юткина Людмила Алексеевна</t>
+  </si>
+  <si>
+    <t>Писарев Владимир Александрович</t>
+  </si>
+  <si>
+    <t>Сабитова Галия Халитовна</t>
+  </si>
+  <si>
+    <t>Осетрова Татьяна Федоровна</t>
+  </si>
+  <si>
+    <t>Амшокова Лаура Анзоровна</t>
+  </si>
+  <si>
+    <t>Емельянова Ирина Алексеевна</t>
+  </si>
+  <si>
+    <t>Дунина Валентина Геннадиевна</t>
+  </si>
+  <si>
+    <t>Авсатова Рушания Абузаровна</t>
+  </si>
+  <si>
+    <t>Вердиева Гюнель Мубариз кызы</t>
+  </si>
+  <si>
+    <t>Гайсина Лиана Исхаковна</t>
+  </si>
+  <si>
+    <t>Денисов Николай Викторович</t>
+  </si>
+  <si>
+    <t>Кожевникова Светлана Алексеевна</t>
+  </si>
+  <si>
+    <t>Угловский Андрей Валерьевич</t>
+  </si>
+  <si>
+    <t>Гаджифейтуллаева Наргиз Абдулвагабовна</t>
+  </si>
+  <si>
+    <t>Ястребова Екатерина Владимировна</t>
+  </si>
+  <si>
+    <t>Паруш Станислав Николаевич</t>
+  </si>
+  <si>
+    <t>Сорокина Екатерина Николаевна</t>
+  </si>
+  <si>
+    <t>Худиева Ирина Тамерлановна</t>
+  </si>
+  <si>
+    <t>Соловьева Алена Алексеевна</t>
+  </si>
+  <si>
+    <t>Блинова Дарья Романовна</t>
+  </si>
+  <si>
+    <t>Делов Антон Дмитриевич</t>
+  </si>
+  <si>
+    <t>Колченко Артём Анатольевич</t>
+  </si>
+  <si>
+    <t>Керимова Ольга Федоровна</t>
+  </si>
+  <si>
+    <t>Кадиева Аминат Абдурахмановна</t>
+  </si>
+  <si>
+    <t>Сотников Арсен Александрович</t>
+  </si>
+  <si>
+    <t>Колосветова Ирина Игоревна</t>
+  </si>
+  <si>
+    <t>Халималова Арацбатиня Омаровна</t>
+  </si>
+  <si>
+    <t>Хачуроева Марха Магамедовна</t>
+  </si>
+  <si>
+    <t>Щербина Екатерина Сергеевна</t>
+  </si>
+  <si>
+    <t>Пятунина Людмила Олеговна</t>
+  </si>
+  <si>
+    <t>Шеметова Алена Павловна</t>
+  </si>
+  <si>
+    <t>Яковлева Людмила Михайловна</t>
+  </si>
+  <si>
+    <t>Щербаков Андрей Игоревич</t>
+  </si>
+  <si>
+    <t>Яхшатова Раиса Халитовна</t>
+  </si>
+  <si>
+    <t>Ромохова Ксения Николаевна</t>
+  </si>
+  <si>
+    <t>Стенникова Зинаида Сергеевна</t>
+  </si>
+  <si>
+    <t>Кузьмина Наталья Радимовна</t>
+  </si>
+  <si>
+    <t>Михайлянич Елена Юрьевна</t>
+  </si>
+  <si>
+    <t>Алимпиева Дина Алексеевна</t>
+  </si>
+  <si>
+    <t>Озерова Анна Александровна</t>
+  </si>
+  <si>
+    <t>Старостин Сергей Георгиевич</t>
+  </si>
+  <si>
+    <t>Сазыкина Полина Александровна</t>
+  </si>
+  <si>
+    <t>Полякова Полина Николаевна</t>
+  </si>
+  <si>
+    <t>Николаишвили Диана Автандиловна</t>
+  </si>
+  <si>
+    <t>Миндель Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>Мельникова Анастасия Витальевна</t>
+  </si>
+  <si>
+    <t>Галина Рушана Дамировна</t>
+  </si>
+  <si>
+    <t>Гудилко Марина Юльевна</t>
+  </si>
+  <si>
+    <t>Кочнова Елена Владимировна</t>
+  </si>
+  <si>
+    <t>Шумеева Оксана Вячеславовна</t>
+  </si>
+  <si>
+    <t>Бондаренко Ирина Сергеевна</t>
+  </si>
+  <si>
+    <t>Григорян Алина Мамиконовна</t>
+  </si>
+  <si>
+    <t>Семенова Екатерина Николаевна</t>
+  </si>
+  <si>
+    <t>Габидуллина Розалия Ильшатовна</t>
+  </si>
+  <si>
+    <t>Шакулина Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>Заботина Алина Владимировна</t>
+  </si>
+  <si>
+    <t>Клейменова Юлиана Олеговна</t>
+  </si>
+  <si>
+    <t>Прохорова Александра Андреевна</t>
+  </si>
+  <si>
+    <t>Шелгунова Ирина Михайловна</t>
+  </si>
+  <si>
+    <t>Мусдафаев Фахраддин Интигам оглы</t>
+  </si>
+  <si>
+    <t>Барабанова Наталья Владиславовна</t>
+  </si>
+  <si>
+    <t>Скуратовская Маргарита Алексеевна</t>
+  </si>
+  <si>
+    <t>Сальников Андрей Станиславович</t>
+  </si>
+  <si>
+    <t>Топчиева Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>Табакова Елена Георгиевна</t>
+  </si>
+  <si>
+    <t>Ермолов Александр Евгеньевич</t>
+  </si>
+  <si>
+    <t>Нецветаева Ольга Валерьевна</t>
+  </si>
+  <si>
+    <t>Борисова Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>Ефимкина Галина Юрьевна</t>
+  </si>
+  <si>
+    <t>Амирбекова Рано Рашидовна</t>
+  </si>
+  <si>
+    <t>Алексеева Татьяна Викторовна</t>
+  </si>
+  <si>
+    <t>Королев Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Зельниченко Руслан Валентинович</t>
+  </si>
+  <si>
+    <t>Китаева Виктория Юрьевна</t>
+  </si>
+  <si>
+    <t>Быков Александр Николаевич</t>
+  </si>
+  <si>
+    <t>Хан Владислав Олегович</t>
+  </si>
+  <si>
+    <t>Абрамов Константин Викторович</t>
+  </si>
+  <si>
+    <t>Керимова Гюльнара Агабубаевна</t>
+  </si>
+  <si>
+    <t>Кобзева Лариса Анатольевна</t>
+  </si>
+  <si>
+    <t>Карханова Наталья Корнеевна</t>
+  </si>
+  <si>
+    <t>Кудряшова Татьяна Николаевна</t>
+  </si>
+  <si>
+    <t>Кокая Мзия Евграфовна</t>
+  </si>
+  <si>
+    <t>Караулова Евгения Евгеньевна</t>
+  </si>
+  <si>
+    <t>Блинова Ирина Николаевна</t>
+  </si>
+  <si>
+    <t>Садыкова Арзыкан Надырбековна</t>
+  </si>
+  <si>
+    <t>Тарасова Мария Владимировна</t>
+  </si>
+  <si>
+    <t>Молчанова Наталья Олеговна</t>
+  </si>
+  <si>
+    <t>Мусхабов Ахмад Зеутдинович</t>
+  </si>
+  <si>
+    <t>Гудов Сергей Максимович</t>
+  </si>
+  <si>
+    <t>Кожоев Наманжан Кутбидинович</t>
+  </si>
+  <si>
+    <t>Скотникова Мария Александровна</t>
+  </si>
+  <si>
+    <t>Ниязалиев Медербек Калдарбекович</t>
+  </si>
+  <si>
+    <t>Либоракина Елена Юрьевна</t>
+  </si>
+  <si>
+    <t>Мамедова Мария Александровна</t>
+  </si>
+  <si>
+    <t>Мамедгусейнов Хафиз Суреддинович</t>
+  </si>
+  <si>
+    <t>Газанфарова Афаг Шахин кызы</t>
+  </si>
+  <si>
+    <t>Лыков Сергей Николаевич</t>
+  </si>
+  <si>
+    <t>Деревнина Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>Алехан Андрей Николаевич</t>
+  </si>
+  <si>
+    <t>Беркович Валентина Викторовна</t>
+  </si>
+  <si>
+    <t>Гаджимурадова Патимат Магомедовна</t>
+  </si>
+  <si>
+    <t>Гудз Денис Олегович</t>
+  </si>
+  <si>
+    <t>Гусаров Андрей Николаевич</t>
+  </si>
+  <si>
+    <t>Волков Станислав Игоревич</t>
+  </si>
+  <si>
+    <t>Громова Ксения Александровна</t>
+  </si>
+  <si>
+    <t>Горелов Владимир Сергеевич</t>
+  </si>
+  <si>
+    <t>Гришина Наталья Ивановна</t>
+  </si>
+  <si>
+    <t>Гальян Екатерина Валериевна</t>
+  </si>
+  <si>
+    <t>Волкова Евгения Александровна</t>
+  </si>
+  <si>
+    <t>Колчина Наталья Васильевна</t>
+  </si>
+  <si>
+    <t>Барсова Оксана Евгеньевна</t>
+  </si>
+  <si>
+    <t>Буланова Оксана Викторовна</t>
+  </si>
+  <si>
+    <t>Белоусова Дарья Александровна</t>
+  </si>
+  <si>
+    <t>Торубарова Елена Геннадьевна</t>
+  </si>
+  <si>
+    <t>Онкина Александра Алексеевна</t>
+  </si>
+  <si>
+    <t>Попова Мария Александровна</t>
+  </si>
+  <si>
+    <t>Серых Виктория Викторовна</t>
+  </si>
+  <si>
+    <t>Чегодаева Наталия Николаевна</t>
+  </si>
+  <si>
+    <t>Юрга Надежда Христофоровна</t>
+  </si>
+  <si>
+    <t>Игнатьева Юлия Григорьевна</t>
+  </si>
+  <si>
+    <t>Евдокименко Иван Сергеевич</t>
+  </si>
+  <si>
+    <t>Зайцева Екатерина Николаевна</t>
+  </si>
+  <si>
+    <t>Магомедова Заира Гаджиевна</t>
+  </si>
+  <si>
+    <t>Матвеенко Юлия Викторовна</t>
+  </si>
+  <si>
+    <t>Замуруева Валентина Владимировна</t>
+  </si>
+  <si>
+    <t>Колесник Людмила Викторовна</t>
+  </si>
+  <si>
+    <t>Стародуб Валентина Адамовна</t>
+  </si>
+  <si>
+    <t>Матвеева Елена Валентиновна</t>
+  </si>
+  <si>
+    <t>Пустовалов Алексей Александрович</t>
+  </si>
+  <si>
+    <t>Базаев Артур Казбекович</t>
+  </si>
+  <si>
+    <t>Соболева Татьяна Васильевна</t>
+  </si>
+  <si>
+    <t>Морозова Марина Ивановна</t>
+  </si>
+  <si>
+    <t>Засеева Людмила Григорьевна</t>
+  </si>
+  <si>
+    <t>Фомина Наталья Андреевна</t>
+  </si>
+  <si>
+    <t>Зимина Марина Владимировна</t>
+  </si>
+  <si>
+    <t>Шевцова Арина Николаевна</t>
+  </si>
+  <si>
+    <t>Бочарова Анастасия Викторовна</t>
+  </si>
+  <si>
+    <t>Буданова Юлия Александровна</t>
+  </si>
+  <si>
+    <t>Бендина Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>Бочкарёва Анна Сергеевна</t>
+  </si>
+  <si>
+    <t>Хутраева Сабрина Айдыновна</t>
+  </si>
+  <si>
+    <t>Чернышева Галина Геннадьевна</t>
+  </si>
+  <si>
+    <t>Волкова Ирина Петровна</t>
+  </si>
+  <si>
+    <t>Шмелёва Анна Владимировна</t>
+  </si>
+  <si>
+    <t>Шмелева Наталья Викторовна</t>
+  </si>
+  <si>
+    <t>Энеев Жамал Борисович</t>
+  </si>
+  <si>
+    <t>Зеркаленкова Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Зеленова Татьяна Ивановна</t>
+  </si>
+  <si>
+    <t>Спижарная Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>Кипурова Антонина Валентиновна</t>
+  </si>
+  <si>
+    <t>Иванова Людмила Алексеевна</t>
+  </si>
+  <si>
+    <t>Абашина Ирина Алексеевна</t>
+  </si>
+  <si>
+    <t>Кудряшова Маргарита Алексеевна</t>
+  </si>
+  <si>
+    <t>Кошкина Ульяна Гордеевна</t>
+  </si>
+  <si>
+    <t>Качанкин Андрей Анатольевич</t>
+  </si>
+  <si>
+    <t>Тютеева Айса Лиджиевна</t>
+  </si>
+  <si>
+    <t>Завриева Хеди Мовлашовна</t>
+  </si>
+  <si>
+    <t>Загуменников Сергей Юрьевич</t>
+  </si>
+  <si>
+    <t>Иванова Мадина Замировна</t>
+  </si>
+  <si>
+    <t>Гусева Дарья Александровна</t>
+  </si>
+  <si>
+    <t>Тедеев Руслан Сосланович</t>
+  </si>
+  <si>
+    <t>Исаева Макка Магомедовна</t>
+  </si>
+  <si>
+    <t>Чижова Людмила Владимировна</t>
+  </si>
+  <si>
+    <t>Зотова Екатерина Александровна</t>
+  </si>
+  <si>
+    <t>Марков Александр Николаевич</t>
+  </si>
+  <si>
+    <t>Анисимов Станислав Петрович</t>
+  </si>
+  <si>
+    <t>Григорьева Роза Филипповна</t>
+  </si>
+  <si>
+    <t>Гогурчунова Зухра Паражитдиновна</t>
+  </si>
+  <si>
+    <t>Гулуа Инга Гивиевна</t>
+  </si>
+  <si>
+    <t>Пущакова Ирина Павловна</t>
+  </si>
+  <si>
+    <t>Адамян Нуне Стёпаевна</t>
+  </si>
+  <si>
+    <t>Андреева Наталья Львовна</t>
+  </si>
+  <si>
+    <t>Андрианов Александр Игоревич</t>
+  </si>
+  <si>
+    <t>Андронова Оксана Борисовна</t>
+  </si>
+  <si>
+    <t>Аренкина Марина Владимировна</t>
+  </si>
+  <si>
+    <t>Астраханцева Елена Вадимовна</t>
+  </si>
+  <si>
+    <t>Бабийчук Екатерина Валентиновна</t>
+  </si>
+  <si>
+    <t>Байсагурова Рамина Шахидовна</t>
+  </si>
+  <si>
+    <t>Батаршина Валентина Георгиевна</t>
+  </si>
+  <si>
+    <t>Бахшинян Марина Кареновна</t>
+  </si>
+  <si>
+    <t>Бердинских Алеся Александровна</t>
+  </si>
+  <si>
+    <t>Богданова Анна Александровна</t>
+  </si>
+  <si>
+    <t>Боташев Астемир Алексеевич</t>
+  </si>
+  <si>
+    <t>Боткина Татьяна Сергеевна</t>
+  </si>
+  <si>
+    <t>Бродовая Лидия Александровна</t>
+  </si>
+  <si>
+    <t>Бутенко Вера Евгеньевна</t>
+  </si>
+  <si>
+    <t>Васицына Яна Юрьевна</t>
+  </si>
+  <si>
+    <t>Вахмистров Юрий Владимирович</t>
+  </si>
+  <si>
+    <t>Ветрова Татьяна Владимировна</t>
+  </si>
+  <si>
+    <t>Воробьева Лидия Федоровна</t>
+  </si>
+  <si>
+    <t>Воронина Нелли Альбертовна</t>
+  </si>
+  <si>
+    <t>Вычужанина Алла Юрьевна</t>
+  </si>
+  <si>
+    <t>Георгинова Елена Михайловна</t>
+  </si>
+  <si>
+    <t>Головенко Александр Николаевич</t>
+  </si>
+  <si>
+    <t>Горбань Анна Викторовна</t>
+  </si>
+  <si>
+    <t>Датукишвили Ирина Владимировна</t>
+  </si>
+  <si>
+    <t>Егорова Светлана Викторовна</t>
+  </si>
+  <si>
+    <t>Ерина Ольга Николаевна</t>
+  </si>
+  <si>
+    <t>Ермолаева Светлана Вячеславовна</t>
+  </si>
+  <si>
+    <t>Ермолова Любовь Анатольевна</t>
+  </si>
+  <si>
+    <t>Заречнева Наталия Михайловна</t>
+  </si>
+  <si>
+    <t>Захаров Андрей Олегович</t>
+  </si>
+  <si>
+    <t>Зернова Наталья Анатольевна</t>
+  </si>
+  <si>
+    <t>Зорькина Светлана Ивановна</t>
+  </si>
+  <si>
+    <t>Зюзина Марина Николаевна</t>
+  </si>
+  <si>
+    <t>Иванов Владислав Олегович</t>
+  </si>
+  <si>
+    <t>Иванова Марина Анатольевна</t>
+  </si>
+  <si>
+    <t>Калмахелидзе Ирина Борисовна</t>
+  </si>
+  <si>
+    <t>Кальметьева Лолита Олеговна</t>
+  </si>
+  <si>
+    <t>Капустина Юлия Викторовна</t>
+  </si>
+  <si>
+    <t>Каргаева Галина Александровна</t>
+  </si>
+  <si>
+    <t>Карнаухова Валентина Юрьевна</t>
+  </si>
+  <si>
+    <t>Каюмова Венера Султановна</t>
+  </si>
+  <si>
+    <t>Ковальчук Ольга Витальевна</t>
+  </si>
+  <si>
+    <t>Кольцов Илья Андреевич</t>
+  </si>
+  <si>
+    <t>Кошрокова Рита Александровна</t>
+  </si>
+  <si>
+    <t>Крахоткин Кирилл Дмитриевич</t>
+  </si>
+  <si>
+    <t>Кузнецова Татьяна Степановна</t>
+  </si>
+  <si>
+    <t>Кулешова Анна Ивановна</t>
+  </si>
+  <si>
+    <t>Куликова Елена Юрьевна</t>
+  </si>
+  <si>
+    <t>Курбанисмаилова Джамиля Магомедовна</t>
+  </si>
+  <si>
+    <t>Лебедева Александра Алексеевна</t>
+  </si>
+  <si>
+    <t>Лихачёва Евгения Владимировна</t>
+  </si>
+  <si>
+    <t>Лопаткина Наталия Витальевна</t>
+  </si>
+  <si>
+    <t>Мамедова Сабина Садаиловна</t>
+  </si>
+  <si>
+    <t>Маруга Юлия Леонидовна</t>
+  </si>
+  <si>
+    <t>Мещерова Римма Амировна</t>
+  </si>
+  <si>
+    <t>Митрофанова Галина Вениаминовна</t>
+  </si>
+  <si>
+    <t>Набиева Эльнара Рахмановна</t>
+  </si>
+  <si>
+    <t>Нагадиева Лейла Магомедовна</t>
+  </si>
+  <si>
+    <t>Назарова Людмила Юрьевна</t>
+  </si>
+  <si>
+    <t>Назарян Варсик Геворговна</t>
+  </si>
+  <si>
+    <t>Николаева Наталья Владимировна</t>
+  </si>
+  <si>
+    <t>Нимаева Алевтина Владимировна</t>
+  </si>
+  <si>
+    <t>Новченко Ольга Максумовна</t>
+  </si>
+  <si>
+    <t>Носова Анна Валерьевна</t>
+  </si>
+  <si>
+    <t>Окунова Марина Алексеевна</t>
+  </si>
+  <si>
+    <t>Омельченко Евгения Георгиевна</t>
+  </si>
+  <si>
+    <t>Осипова Виктория Николаевна</t>
+  </si>
+  <si>
+    <t>Остапенко Елена Николаевна</t>
+  </si>
+  <si>
+    <t>Патрушева Елена Геннадьевна</t>
+  </si>
+  <si>
+    <t>Пахоменкова Людмила Николаевна</t>
+  </si>
+  <si>
+    <t>Перлова Олеся Андреевна</t>
+  </si>
+  <si>
+    <t>Перчиков Алексей Романович</t>
+  </si>
+  <si>
+    <t>Подобедова Ольга Викторовна</t>
+  </si>
+  <si>
+    <t>Полозков Дмитрий Сергеевич</t>
+  </si>
+  <si>
+    <t>Прокошева Светлана Леонидовна</t>
+  </si>
+  <si>
+    <t>Романцова Елена Юрьевна</t>
+  </si>
+  <si>
+    <t>Рубцова Светлана Игоревна</t>
+  </si>
+  <si>
+    <t>Рузимуратов Тимур Рустамович</t>
+  </si>
+  <si>
+    <t>Рысикова Надежда Евгеньевна</t>
+  </si>
+  <si>
+    <t>Савиных Инесса Георгиевна</t>
+  </si>
+  <si>
+    <t>Серова Оксана Владимировна</t>
+  </si>
+  <si>
+    <t>Солонин Евгений Михайлович</t>
+  </si>
+  <si>
+    <t>Сосновская Дарья Юрьевна</t>
+  </si>
+  <si>
+    <t>Спрышкова Мария Александровна</t>
+  </si>
+  <si>
+    <t>Султанова Арзу Аскеровна</t>
+  </si>
+  <si>
+    <t>Тертерашвили Артур Паатович</t>
+  </si>
+  <si>
+    <t>Ти Светлана Георгиевна</t>
+  </si>
+  <si>
+    <t>Тренин Виктор Анатольевич</t>
+  </si>
+  <si>
+    <t>Уразгильдеева Наиля Хамзяевна</t>
+  </si>
+  <si>
+    <t>Халаф Таха Самир</t>
+  </si>
+  <si>
+    <t>Хомайко Дарья Александровна</t>
+  </si>
+  <si>
+    <t>Цвигун Александр Александрович</t>
+  </si>
+  <si>
+    <t>Цебоева Роза Сергеевна</t>
+  </si>
+  <si>
+    <t>Яценко Ольга Николаевна</t>
+  </si>
+  <si>
     <t>Абидова Индира Салмановна</t>
   </si>
   <si>
-    <t>Алексеева Татьяна Викторовна</t>
-  </si>
-  <si>
-    <t>Амирбекова Рано Рашидовна</t>
-  </si>
-  <si>
-    <t>Андреева Наталья Львовна</t>
-  </si>
-  <si>
-    <t>Апухтина Ирина Андреевна</t>
-  </si>
-  <si>
-    <t>Баматов Ислам Исаевич</t>
-  </si>
-  <si>
     <t>Тихонова Анастасия Леонидовна</t>
   </si>
   <si>
-    <t>Бахмудова Патимат Аллайевна</t>
-  </si>
-  <si>
-    <t>Белая Алина Николаевна</t>
-  </si>
-  <si>
-    <t>Борисова Елена Сергеевна</t>
-  </si>
-  <si>
     <t>Бочкова Полина Игоревна</t>
   </si>
   <si>
@@ -61,42 +3850,18 @@
     <t>Гребенкина Наталья Дмитриевна</t>
   </si>
   <si>
-    <t>Дегтярева Вера Сергеевна</t>
-  </si>
-  <si>
     <t>Егорова Юлия Владимировна</t>
   </si>
   <si>
-    <t>Зорькина Светлана Ивановна</t>
-  </si>
-  <si>
     <t>Иванова Кристина Владимировна</t>
   </si>
   <si>
-    <t>Иванова Мадина Замировна</t>
-  </si>
-  <si>
-    <t>Каряка Екатерина Анатольевна</t>
-  </si>
-  <si>
-    <t>Качанкин Андрей Анатольевич</t>
-  </si>
-  <si>
-    <t>Кипова Зарема Маликовна</t>
-  </si>
-  <si>
     <t>Кокшарова Наталья Сергеевна</t>
   </si>
   <si>
     <t>Лядова Нина Васильевна</t>
   </si>
   <si>
-    <t>Загуменников Сергей Юрьевич</t>
-  </si>
-  <si>
-    <t>Кошкина Ульяна Гордеевна</t>
-  </si>
-  <si>
     <t>Лаухин Николай Александрович</t>
   </si>
   <si>
@@ -112,36 +3877,18 @@
     <t>Мозгунов Артур Геннадьевич</t>
   </si>
   <si>
-    <t>Николаишвили Диана Автандиловна</t>
-  </si>
-  <si>
     <t>Павлютина Татьяна Евгеньевна</t>
   </si>
   <si>
-    <t>Перлова Олеся Андреевна</t>
-  </si>
-  <si>
-    <t>Полякова Полина Николаевна</t>
-  </si>
-  <si>
     <t>Прошкина Анна Александровна</t>
   </si>
   <si>
-    <t>Сафина Алсу Куддусовна</t>
-  </si>
-  <si>
-    <t>Сефиханов Магомед Сефиханович</t>
-  </si>
-  <si>
     <t>Тамбиева Сабира Дахировна</t>
   </si>
   <si>
     <t>Тараненко Галина Викторовна</t>
   </si>
   <si>
-    <t>Темирбеков Руслан Эльбрусович</t>
-  </si>
-  <si>
     <t>Тишина Дарья Дмитриевна</t>
   </si>
   <si>
@@ -166,123 +3913,36 @@
     <t>Атласкирова Анжанна Артуровна</t>
   </si>
   <si>
-    <t>Бутенко Вера Евгеньевна</t>
-  </si>
-  <si>
-    <t>Заботина Алина Владимировна</t>
-  </si>
-  <si>
-    <t>Илларионова Ольга Сергеевна</t>
-  </si>
-  <si>
-    <t>Каримов Умеджон Хокималиевич</t>
-  </si>
-  <si>
-    <t>Ким Александр Григорьевич</t>
-  </si>
-  <si>
-    <t>Клейменова Юлиана Олеговна</t>
-  </si>
-  <si>
-    <t>Ляшина Раиса Николаевна</t>
-  </si>
-  <si>
-    <t>Магомедова Альбина Пархутдиновна</t>
-  </si>
-  <si>
     <t>Мирзоева Наталья Олеговна</t>
   </si>
   <si>
-    <t>Мугаева Хава Абдулаевна</t>
-  </si>
-  <si>
     <t>Насибуллина Гузель Динаровна</t>
   </si>
   <si>
-    <t>Носова Анна Валерьевна</t>
-  </si>
-  <si>
-    <t>Сафиуллина Валерия Романовна</t>
-  </si>
-  <si>
-    <t>Себегатуллина Элина Василовна</t>
-  </si>
-  <si>
-    <t>Семенова Екатерина Николаевна</t>
-  </si>
-  <si>
-    <t>Тихонова Любовь Валентиновна</t>
-  </si>
-  <si>
-    <t>Шакулина Ирина Владимировна</t>
-  </si>
-  <si>
     <t>Юдина Анастасия Владимировна</t>
   </si>
   <si>
-    <t>Арсеньева Яна Олеговна</t>
-  </si>
-  <si>
-    <t>Бакунц Нарине Грантовна</t>
-  </si>
-  <si>
     <t>Бальжинимаева Анастасия Витальевна</t>
   </si>
   <si>
     <t>Головий Владислав Леонидович</t>
   </si>
   <si>
-    <t>Бледнова Валентина Николаевна</t>
-  </si>
-  <si>
     <t>Завертяев Алексей Алексеевич</t>
   </si>
   <si>
-    <t>Зубачева Дарья Олеговна</t>
-  </si>
-  <si>
     <t>Зубенко Софья Борисовна</t>
   </si>
   <si>
-    <t>Иванова Вероника Николаевна</t>
-  </si>
-  <si>
     <t>Картгишиев Камиль Айгазиевич</t>
   </si>
   <si>
-    <t>Логинова Анастасия Викторовна</t>
-  </si>
-  <si>
-    <t>Луговец Сергей Григорьевич</t>
-  </si>
-  <si>
-    <t>Магомедов Ямудин Фузлудинович</t>
-  </si>
-  <si>
     <t>Меджидова Эльмира Мусаевна</t>
   </si>
   <si>
-    <t>Пищугина Ольга Геннадиевна</t>
-  </si>
-  <si>
-    <t>Пожогина Галина Константиновна</t>
-  </si>
-  <si>
-    <t>Сизова Надежда Степановна</t>
-  </si>
-  <si>
-    <t>Смирнова Татьяна Ивановна</t>
-  </si>
-  <si>
-    <t>Соколовская Ирина Анатольевна</t>
-  </si>
-  <si>
     <t>Стёпина Дарья Дмитриевна</t>
   </si>
   <si>
-    <t>Хачатрян Бакур Рубикович</t>
-  </si>
-  <si>
     <t>Широкова Татьяна Васильевна</t>
   </si>
   <si>
@@ -292,123 +3952,30 @@
     <t>Эрднеева Цагана Анатольевна</t>
   </si>
   <si>
-    <t>Аренкина Марина Владимировна</t>
-  </si>
-  <si>
-    <t>Попова Анна Николаевна</t>
-  </si>
-  <si>
-    <t>Безлюдная Дарья Викторовна</t>
-  </si>
-  <si>
-    <t>Бердышева Евгения Вячеславовна</t>
-  </si>
-  <si>
-    <t>Беркович Валентина Викторовна</t>
-  </si>
-  <si>
     <t>Бетирсултанова Яха Аюбовна</t>
   </si>
   <si>
     <t>Виткова Светлана Васильевна</t>
   </si>
   <si>
-    <t>Волков Станислав Игоревич</t>
-  </si>
-  <si>
-    <t>Гаджимурадова Патимат Магомедовна</t>
-  </si>
-  <si>
-    <t>Гришина Наталья Ивановна</t>
-  </si>
-  <si>
     <t>Громаков Лука Анатольевич</t>
   </si>
   <si>
-    <t>Громова Ксения Александровна</t>
-  </si>
-  <si>
-    <t>Гудз Денис Олегович</t>
-  </si>
-  <si>
-    <t>Гусаров Андрей Николаевич</t>
-  </si>
-  <si>
     <t>Даниелян Наира Шарифовна</t>
   </si>
   <si>
     <t>Ершова Юлия Алексеевна</t>
   </si>
   <si>
-    <t>Зюзина Марина Николаевна</t>
-  </si>
-  <si>
-    <t>Кадиева Аминат Абдурахмановна</t>
-  </si>
-  <si>
-    <t>Керимова Ольга Федоровна</t>
-  </si>
-  <si>
-    <t>Колосветова Ирина Игоревна</t>
-  </si>
-  <si>
-    <t>Колченко Артём Анатольевич</t>
-  </si>
-  <si>
-    <t>Ларионов Иван Владимирович</t>
-  </si>
-  <si>
-    <t>Латышева Мария Ярославовна</t>
-  </si>
-  <si>
     <t>Платонова Наталья Михайловна</t>
   </si>
   <si>
-    <t>Притворова Светлана Ивановна</t>
-  </si>
-  <si>
-    <t>Рабцевич Анастасия Олеговна</t>
-  </si>
-  <si>
-    <t>Панов Алексей Николаевич</t>
-  </si>
-  <si>
     <t>Раджабова Луиза Ахмедовна</t>
   </si>
   <si>
-    <t>Рамазанова Хадиджа Сулеймановна</t>
-  </si>
-  <si>
-    <t>Родионова Светлана Валентиновна</t>
-  </si>
-  <si>
-    <t>Садаева Малика Султановна</t>
-  </si>
-  <si>
-    <t>Рубцова Светлана Игоревна</t>
-  </si>
-  <si>
-    <t>Сотников Арсен Александрович</t>
-  </si>
-  <si>
-    <t>Татаркина Вера Ивановна</t>
-  </si>
-  <si>
-    <t>Тришина Виктория Викторовна</t>
-  </si>
-  <si>
     <t>Трошенков Андрей Сергеевич</t>
   </si>
   <si>
-    <t>Халималова Арацбатиня Омаровна</t>
-  </si>
-  <si>
-    <t>Хачикян Эрмине Сережаевна</t>
-  </si>
-  <si>
-    <t>Хачуроева Марха Магамедовна</t>
-  </si>
-  <si>
     <t>Цай Людмила Ивановна</t>
   </si>
   <si>
@@ -421,168 +3988,51 @@
     <t>Яицкий Дмитрий Витальевич</t>
   </si>
   <si>
-    <t>Абдуллаева Луиза Мавулдиевна</t>
-  </si>
-  <si>
-    <t>Амоголонов Борис Цыренович</t>
-  </si>
-  <si>
-    <t>Амшокова Лаура Анзоровна</t>
-  </si>
-  <si>
     <t>Бадмаева Баин-Джиргал Валерьевна</t>
   </si>
   <si>
-    <t>Богданова Софья Александровна</t>
-  </si>
-  <si>
-    <t>Боташев Астемир Алексеевич</t>
-  </si>
-  <si>
     <t>Данжалова Туяна Очировна</t>
   </si>
   <si>
-    <t>Дмитриев Андрей Владимирович</t>
-  </si>
-  <si>
-    <t>Ермолова Любовь Анатольевна</t>
-  </si>
-  <si>
-    <t>Зимина Карина Дмитриевна</t>
-  </si>
-  <si>
     <t xml:space="preserve">Панько Вячеслав </t>
   </si>
   <si>
     <t>Золотова Полина Сергеевна</t>
   </si>
   <si>
-    <t>Скороходова Вера Германовна</t>
-  </si>
-  <si>
     <t>Клепикова Алиса Викторовна</t>
   </si>
   <si>
-    <t>Ковальчук Ольга Витальевна</t>
-  </si>
-  <si>
     <t>Кодочиева Патимат Магомедрасуловна</t>
   </si>
   <si>
-    <t>Литвина Юлия Сергеевна</t>
-  </si>
-  <si>
-    <t>Мамедова Сабина Садаиловна</t>
-  </si>
-  <si>
     <t>Михайлова Наталья Владимировна</t>
   </si>
   <si>
     <t>Мусаева Самира Яшаровна</t>
   </si>
   <si>
-    <t>Осипова Виктория Николаевна</t>
-  </si>
-  <si>
-    <t>Павлович Валерия Андреевна</t>
-  </si>
-  <si>
-    <t>Перекосова Юлия Владиславовна</t>
-  </si>
-  <si>
-    <t>Подобедова Ольга Викторовна</t>
-  </si>
-  <si>
     <t>Ромахов Игорь Святославович</t>
   </si>
   <si>
-    <t>Рыбакова Анастасия Ивановна</t>
-  </si>
-  <si>
-    <t>Сабитова Галия Халитовна</t>
-  </si>
-  <si>
     <t>Саблина Екатерина Игоревна</t>
   </si>
   <si>
     <t>Трофимова Наталья Владимировна</t>
   </si>
   <si>
-    <t>Утеалиев Ербулат Хасымович</t>
-  </si>
-  <si>
-    <t>Форощук Валентина Александровна</t>
-  </si>
-  <si>
-    <t>Шафигуллина Дилара Ринатовна</t>
-  </si>
-  <si>
-    <t>Аракчеева Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>Бабийчук Екатерина Валентиновна</t>
-  </si>
-  <si>
-    <t>Баранова Яна Юрьевна</t>
-  </si>
-  <si>
-    <t>Бузынина Анна Владимировна</t>
-  </si>
-  <si>
     <t>Гаврилова Ольга Гурьевна</t>
   </si>
   <si>
-    <t>Грабуздов Антон Михайлович</t>
-  </si>
-  <si>
-    <t>Гузачева Людмила Александровна</t>
-  </si>
-  <si>
     <t>Данилова Галина Анатольевна</t>
   </si>
   <si>
     <t>Данилова Евгения Михайловна</t>
   </si>
   <si>
-    <t>Дашкина Динара Фяритовна</t>
-  </si>
-  <si>
-    <t>Дубовая Нина Николаевна</t>
-  </si>
-  <si>
-    <t>Заболотская Марина Игоревна</t>
-  </si>
-  <si>
-    <t>Канева Онега Алексеевна</t>
-  </si>
-  <si>
-    <t>Кикова Анжела Галиевна</t>
-  </si>
-  <si>
-    <t>Кузьмина Наталья Радимовна</t>
-  </si>
-  <si>
-    <t>Кутейникова Елена Владимировна</t>
-  </si>
-  <si>
-    <t>Лавров Владислав Сергеевич</t>
-  </si>
-  <si>
-    <t>Лаптева Елена Сергеевна</t>
-  </si>
-  <si>
-    <t>Медякова Христина Александровна</t>
-  </si>
-  <si>
-    <t>Мулюкова Регина Рильевна</t>
-  </si>
-  <si>
     <t>Нестерова Ирина Игоревна</t>
   </si>
   <si>
-    <t>Окунова Марина Алексеевна</t>
-  </si>
-  <si>
     <t>Павлова Анастасия Александровна</t>
   </si>
   <si>
@@ -592,51 +4042,18 @@
     <t>Попов Денис Юрьевич</t>
   </si>
   <si>
-    <t>Ромохова Ксения Николаевна</t>
-  </si>
-  <si>
-    <t>Самойлова Мария Игоревна</t>
-  </si>
-  <si>
-    <t>Стенникова Зинаида Сергеевна</t>
-  </si>
-  <si>
-    <t>Стульникова Оксана Викторовна</t>
-  </si>
-  <si>
-    <t>Суббота София Юрьевна</t>
-  </si>
-  <si>
-    <t>Текучева Валентина Викторовна</t>
-  </si>
-  <si>
     <t>Титов Алексей Сергеевич</t>
   </si>
   <si>
-    <t>Туробов Дмитрий Сергеевич</t>
-  </si>
-  <si>
-    <t>Аблякимова Валерия Олеговна</t>
-  </si>
-  <si>
     <t>Ананьева Татьяна Николаевна</t>
   </si>
   <si>
     <t>Багаудинова Патимат Магомедовна</t>
   </si>
   <si>
-    <t>Бадмаева Оюун Жаргаловна</t>
-  </si>
-  <si>
-    <t>Беляева Мария Александровна</t>
-  </si>
-  <si>
     <t>Брызгалова Наталья Николаевна</t>
   </si>
   <si>
-    <t>Валикова Марина Владимировна</t>
-  </si>
-  <si>
     <t>Вердиева Камилла Яшаровна</t>
   </si>
   <si>
@@ -646,75 +4063,27 @@
     <t>Григорян Лилия Александровна</t>
   </si>
   <si>
-    <t>Делов Антон Дмитриевич</t>
-  </si>
-  <si>
     <t>Дорофеева Маргарита Николаевна</t>
   </si>
   <si>
-    <t>Кипкеева Мадина Суфьяновна</t>
-  </si>
-  <si>
-    <t>Котляр Владислав Альбертович</t>
-  </si>
-  <si>
-    <t>Лимаенко Дмитрий Андреевич</t>
-  </si>
-  <si>
-    <t>Румянцева Анна Андреевна</t>
-  </si>
-  <si>
-    <t>Сафарова Динара Шарифбоевна</t>
-  </si>
-  <si>
-    <t>Сорокина Екатерина Николаевна</t>
-  </si>
-  <si>
-    <t>Урусова Хаджият Ахметовна</t>
-  </si>
-  <si>
-    <t>Халаф Таха Самир</t>
-  </si>
-  <si>
-    <t>Худиева Ирина Тамерлановна</t>
-  </si>
-  <si>
     <t>Цинкевич Татьяна Игоревна</t>
   </si>
   <si>
-    <t>Ястребова Екатерина Владимировна</t>
-  </si>
-  <si>
     <t>Алиева Залина Магомедовна</t>
   </si>
   <si>
-    <t>Астраханцева Елена Вадимовна</t>
-  </si>
-  <si>
     <t>Габидуллина Марина Александровна</t>
   </si>
   <si>
-    <t>Дикаева Макка Султановна</t>
-  </si>
-  <si>
-    <t>Дрожжина Мария Александровна</t>
-  </si>
-  <si>
     <t>Жданов Дмитрий Олегович</t>
   </si>
   <si>
     <t>Жигулин Михаил Вадимович</t>
   </si>
   <si>
-    <t>Ильина Светлана Петровна</t>
-  </si>
-  <si>
     <t>Иосипой Екатерина Ильинична</t>
   </si>
   <si>
-    <t>Калесникова Татьяна Юрьевна</t>
-  </si>
-  <si>
     <t xml:space="preserve">Анвар Мухаммад Зиишан </t>
   </si>
   <si>
@@ -724,396 +4093,111 @@
     <t>Явгареева Диана Салаватовна</t>
   </si>
   <si>
-    <t>Фролова Инна Каримовна</t>
-  </si>
-  <si>
-    <t>Лопаткина Наталия Витальевна</t>
-  </si>
-  <si>
-    <t>Мартиросян Армине Артуровна</t>
-  </si>
-  <si>
     <t>Новиков Алексей Николаевич</t>
   </si>
   <si>
-    <t>Пахоменкова Людмила Николаевна</t>
-  </si>
-  <si>
-    <t>Савельев Андрей Степанович</t>
-  </si>
-  <si>
-    <t>Сейсебаев Артем Юрьевич</t>
-  </si>
-  <si>
-    <t>Сергеева Галина Владимировна</t>
-  </si>
-  <si>
-    <t>Серова Оксана Владимировна</t>
-  </si>
-  <si>
-    <t>Симакова Галина Геннадиевна</t>
-  </si>
-  <si>
-    <t>Султанова Арзу Аскеровна</t>
-  </si>
-  <si>
-    <t>Широкова Ангелина Олеговна</t>
-  </si>
-  <si>
     <t>Хасанова Раиса Хамедуловна</t>
   </si>
   <si>
-    <t>Ахмедов Рафаэль Габил оглы</t>
-  </si>
-  <si>
     <t>Бадмаева Ирина Владимировна</t>
   </si>
   <si>
-    <t>Батаршина Валентина Георгиевна</t>
-  </si>
-  <si>
-    <t>Белякова Светлана Сергеевна</t>
-  </si>
-  <si>
-    <t>Боготова Екатерина Юрьевна</t>
-  </si>
-  <si>
     <t>Бухарин Артур Решитович</t>
   </si>
   <si>
-    <t>Валасанян Кима Айрапетовна</t>
-  </si>
-  <si>
     <t>Валеева Полина Юрьевна</t>
   </si>
   <si>
-    <t>Вирясова Марина Васильевна</t>
-  </si>
-  <si>
     <t>Герасимова Светлана Юрьевна</t>
   </si>
   <si>
-    <t>Горбулина Наталья Владимировна</t>
-  </si>
-  <si>
-    <t>Дмитриева Светлана Евгеньевна</t>
-  </si>
-  <si>
-    <t>Ермолаева Светлана Вячеславовна</t>
-  </si>
-  <si>
     <t>Кадеева Ирина Михайловна</t>
   </si>
   <si>
-    <t>Каменцева Надежда Борисовна</t>
-  </si>
-  <si>
-    <t>Каптанова Ольга Вильевна</t>
-  </si>
-  <si>
     <t>Каштан Юрий Анатольевич</t>
   </si>
   <si>
-    <t>Кошрокова Рита Александровна</t>
-  </si>
-  <si>
-    <t>Курский Денис Сергеевич</t>
-  </si>
-  <si>
-    <t>Нагадиева Лейла Магомедовна</t>
-  </si>
-  <si>
-    <t>Ной Наталья Викторовна</t>
-  </si>
-  <si>
-    <t>Орзалиева Эльза Ахмедовна</t>
-  </si>
-  <si>
     <t>Орлов Лаврентий Александрович</t>
   </si>
   <si>
-    <t>Полозков Дмитрий Сергеевич</t>
-  </si>
-  <si>
-    <t>Рамазанова Сефижат Сейфудиновна</t>
-  </si>
-  <si>
     <t>Рафиева Парвана Рашидовна</t>
   </si>
   <si>
-    <t>Сапарина Людмила Ивановна</t>
-  </si>
-  <si>
-    <t>Смирнова Вера Георгиевна</t>
-  </si>
-  <si>
     <t>Суров Виктор Алексеевич</t>
   </si>
   <si>
-    <t>Фаградян Лариса Мартиновна</t>
-  </si>
-  <si>
-    <t>Фаткулаева Малика Надирбековна</t>
-  </si>
-  <si>
     <t>Чумак Елена Николаевна</t>
   </si>
   <si>
     <t>Шанжаева Елена Петровна</t>
   </si>
   <si>
-    <t>Абдуллоева Ганжина Бахтиёровна</t>
-  </si>
-  <si>
-    <t>Абдулмуминова Умайганат Алиевна</t>
-  </si>
-  <si>
-    <t>Алимова Елена Николаевна</t>
-  </si>
-  <si>
     <t>Апсаламова Нигора Махаматжановна</t>
   </si>
   <si>
     <t>Алисултанов Дашбег Абасалиевич</t>
   </si>
   <si>
-    <t>Амирагян Сиран Сандроевна</t>
-  </si>
-  <si>
-    <t>Андреев Михаил Алексеевич</t>
-  </si>
-  <si>
     <t>Багманян Светлана Абрамовна</t>
   </si>
   <si>
-    <t>Бендина Светлана Викторовна</t>
-  </si>
-  <si>
-    <t>Бочарова Анастасия Викторовна</t>
-  </si>
-  <si>
-    <t>Бочкарёва Анна Сергеевна</t>
-  </si>
-  <si>
     <t>Вахаев Саид-Магамед Исаевич</t>
   </si>
   <si>
-    <t>Воробьева Лидия Федоровна</t>
-  </si>
-  <si>
-    <t>Воронина Нелли Альбертовна</t>
-  </si>
-  <si>
-    <t>Гаджимагомедова Луиза Ибадуллаевна</t>
-  </si>
-  <si>
-    <t>Галямова Марьям Баязитовна</t>
-  </si>
-  <si>
-    <t>Горланова Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>Гусева Галина Владимировна</t>
-  </si>
-  <si>
-    <t>Долинская Мария Николаевна</t>
-  </si>
-  <si>
     <t>Дядичко Татьяна Павловна</t>
   </si>
   <si>
     <t>Ерошкина Наталья Сергеевна</t>
   </si>
   <si>
-    <t>Журкина Светлана Александровна</t>
-  </si>
-  <si>
-    <t>Зайнетдинов Альфред Ринатович</t>
-  </si>
-  <si>
-    <t>Зейналов Эльнур Шакир оглы</t>
-  </si>
-  <si>
-    <t>Ибрагимова Каминат Магомедовна</t>
-  </si>
-  <si>
-    <t>Исагаджиев Нугман Хабибович</t>
-  </si>
-  <si>
-    <t>Исмаилова Малика Магомедовна</t>
-  </si>
-  <si>
-    <t>Кальметьева Лолита Олеговна</t>
-  </si>
-  <si>
-    <t>Караулова Евгения Евгеньевна</t>
-  </si>
-  <si>
-    <t>Карханова Наталья Корнеевна</t>
-  </si>
-  <si>
-    <t>Керимова Гюльнара Агабубаевна</t>
-  </si>
-  <si>
-    <t>Кобзева Лариса Анатольевна</t>
-  </si>
-  <si>
     <t>Кошелева Елена Вадимовна</t>
   </si>
   <si>
     <t>Красовская Мария Евгеньевна</t>
   </si>
   <si>
-    <t>Крахоткин Кирилл Дмитриевич</t>
-  </si>
-  <si>
-    <t>Кудряшова Татьяна Николаевна</t>
-  </si>
-  <si>
     <t>Кцоев Азамат Казбекович</t>
   </si>
   <si>
-    <t>Лихачёва Евгения Владимировна</t>
-  </si>
-  <si>
     <t>Львова Анастасия Павловна</t>
   </si>
   <si>
-    <t>Лялите Иоланта Альгимантовна</t>
-  </si>
-  <si>
     <t>Мерова Фатимат Шарцуковна</t>
   </si>
   <si>
-    <t>Мещерякова Надежда Петровна</t>
-  </si>
-  <si>
-    <t>Могдарева Елена Максимовна</t>
-  </si>
-  <si>
-    <t>Мусаева Сумая Иса кызы</t>
-  </si>
-  <si>
-    <t>Набиев Тимур Рамизович</t>
-  </si>
-  <si>
-    <t>Намазова Гюнай Рашидовна</t>
-  </si>
-  <si>
     <t>Небритов Евгений Геннадьевич</t>
   </si>
   <si>
-    <t>Пиксайкина Наталья Васильевна</t>
-  </si>
-  <si>
     <t>Семагина Жанна Алексеевна</t>
   </si>
   <si>
-    <t>Тертерашвили Артур Паатович</t>
-  </si>
-  <si>
-    <t>Тренина Виктория Сергеевна</t>
-  </si>
-  <si>
-    <t>Трушина Людмила Николаевна</t>
-  </si>
-  <si>
     <t>Тахмазова Самара Айдыновна</t>
   </si>
   <si>
-    <t>Федорова Ирина Эдуардовна</t>
-  </si>
-  <si>
-    <t>Хвардзикия Ирма Абрамовна</t>
-  </si>
-  <si>
     <t>Хисамутдинова Танзиля Ахмадзияевна</t>
   </si>
   <si>
-    <t>Хутраева Сабрина Айдыновна</t>
-  </si>
-  <si>
     <t>Целовальникова Ольга Дмитриевна</t>
   </si>
   <si>
     <t>Цыцба Диана Элгуджовна</t>
   </si>
   <si>
-    <t>Чернышева Галина Геннадьевна</t>
-  </si>
-  <si>
-    <t>Шапоров Юрий Сергеевич</t>
-  </si>
-  <si>
-    <t>Шмелёва Анна Владимировна</t>
-  </si>
-  <si>
-    <t>Шмелева Наталья Викторовна</t>
-  </si>
-  <si>
-    <t>Энеев Жамал Борисович</t>
-  </si>
-  <si>
-    <t>Авальяни Вера Юзовна</t>
-  </si>
-  <si>
-    <t>Андрианов Александр Игоревич</t>
-  </si>
-  <si>
-    <t>Брыков Александр Владимирович</t>
-  </si>
-  <si>
     <t>Шахмандаров Шахмандара Ярагиевич</t>
   </si>
   <si>
-    <t>Карзова Наталья Юрьевна</t>
-  </si>
-  <si>
-    <t>Воротникова Дарья Сергеевна</t>
-  </si>
-  <si>
     <t>Гасымова Ирада Расаддин кызы</t>
   </si>
   <si>
-    <t>Гвинджилия Тамуна Джамбуловна</t>
-  </si>
-  <si>
-    <t>Горбань Анна Викторовна</t>
-  </si>
-  <si>
-    <t>Губжокова Марина Замировна</t>
-  </si>
-  <si>
-    <t>Датукишвили Ирина Владимировна</t>
-  </si>
-  <si>
-    <t>Джабарова Зухра Радиковна</t>
-  </si>
-  <si>
     <t>Джаниева Эсет Салмановна</t>
   </si>
   <si>
     <t>Диордиева Наталья Степановна</t>
   </si>
   <si>
-    <t>Дронова Алла Васильевна</t>
-  </si>
-  <si>
     <t>Дроханов Павел Игоревич</t>
   </si>
   <si>
-    <t>Иванова Марина Анатольевна</t>
-  </si>
-  <si>
-    <t>Кольцов Илья Андреевич</t>
-  </si>
-  <si>
-    <t>Макарова Анастасия Сергеевна</t>
-  </si>
-  <si>
-    <t>Макиша Зоя Николаевна</t>
-  </si>
-  <si>
     <t>Нагоева Рита Каральбиевна</t>
   </si>
   <si>
@@ -1123,432 +4207,93 @@
     <t>Овшиева Светлана Михайловна</t>
   </si>
   <si>
-    <t>Остапенко Елена Николаевна</t>
-  </si>
-  <si>
     <t>Палатов Александр Юрьевич</t>
   </si>
   <si>
-    <t>Патрушева Елена Геннадьевна</t>
-  </si>
-  <si>
-    <t>Световидова Анна Дмитриевна</t>
-  </si>
-  <si>
-    <t>Степанян Маня Степановна</t>
-  </si>
-  <si>
-    <t>Тикунова Валентина Юрьевна</t>
-  </si>
-  <si>
     <t>Ткаченко Анна Андреевна</t>
   </si>
   <si>
-    <t>Токмакова Оксана Николаевна</t>
-  </si>
-  <si>
-    <t>Токонова Гулнара Сыргабаевна</t>
-  </si>
-  <si>
     <t>Толмачёва Ирина Игоревна</t>
   </si>
   <si>
-    <t>Туфанова Оксана Владимировна</t>
-  </si>
-  <si>
-    <t>Фадеев Алексей Валерьевич</t>
-  </si>
-  <si>
     <t>Фильчагин Владимир Серафимович</t>
   </si>
   <si>
-    <t>Цебоева Роза Сергеевна</t>
-  </si>
-  <si>
-    <t>Шаньгина Виктория Александровна</t>
-  </si>
-  <si>
-    <t>Шилова Татьяна Ивановна</t>
-  </si>
-  <si>
-    <t>Шишкина Анастасия Дмитриевна</t>
-  </si>
-  <si>
     <t>Юсупова Аминат Магомедовна</t>
   </si>
   <si>
-    <t>Абрамов Константин Викторович</t>
-  </si>
-  <si>
-    <t>Зельниченко Руслан Валентинович</t>
-  </si>
-  <si>
     <t>Иванов Артём Алексеевич</t>
   </si>
   <si>
-    <t>Китаева Виктория Юрьевна</t>
-  </si>
-  <si>
-    <t>Кузнецова Татьяна Степановна</t>
-  </si>
-  <si>
-    <t>Кухта Татьяна Николаевна</t>
-  </si>
-  <si>
-    <t>Леонова Ольга Валерьевна</t>
-  </si>
-  <si>
-    <t>Товмасян Анжела Рафаеловна</t>
-  </si>
-  <si>
-    <t>Хан Владислав Олегович</t>
-  </si>
-  <si>
-    <t>Хохрикова Марина Николаевна</t>
-  </si>
-  <si>
-    <t>Цвигун Александр Александрович</t>
-  </si>
-  <si>
-    <t>Шевченко Лариса Ивановна</t>
-  </si>
-  <si>
-    <t>Александрова Екатерина Георгиевна</t>
-  </si>
-  <si>
-    <t>Алышова Гюльнара Ильтифат кызы</t>
-  </si>
-  <si>
-    <t>Бадалова Анжела Сейталиевна</t>
-  </si>
-  <si>
-    <t>Байсагурова Рамина Шахидовна</t>
-  </si>
-  <si>
-    <t>Балаянц Жанна Эдуардовна</t>
-  </si>
-  <si>
-    <t>Беляков Павел Евгеньевич</t>
-  </si>
-  <si>
-    <t>Бодрова Марина Дмитриевна</t>
-  </si>
-  <si>
-    <t>Бондаренко Нелли Николаевна</t>
-  </si>
-  <si>
     <t>Бурыкина Жанна Вячеславовна</t>
   </si>
   <si>
-    <t>Волжинский Илья Викторович</t>
-  </si>
-  <si>
-    <t>Гаджиев Салам Гаджиевич</t>
-  </si>
-  <si>
-    <t>Головенко Александр Николаевич</t>
-  </si>
-  <si>
-    <t>Головенко Анастасия Валерьевна</t>
-  </si>
-  <si>
-    <t>Гречухина Галина Александровна</t>
-  </si>
-  <si>
     <t>Гусева Вера Ивановна</t>
   </si>
   <si>
-    <t>Гучмазов Аким Маирбегович</t>
-  </si>
-  <si>
-    <t>Джураева Мукаддас Болтаевна</t>
-  </si>
-  <si>
     <t>Ермолкина Евгения Васильевна</t>
   </si>
   <si>
     <t>Жанатаева Динара Борисовна</t>
   </si>
   <si>
-    <t>Зайцев Андрей Михайлович</t>
-  </si>
-  <si>
-    <t>Захаров Андрей Олегович</t>
-  </si>
-  <si>
-    <t>Зернова Наталья Анатольевна</t>
-  </si>
-  <si>
-    <t>Искандарова Елена Анатольевна</t>
-  </si>
-  <si>
-    <t>Кожоев Наманжан Кутбидинович</t>
-  </si>
-  <si>
-    <t>Краснова Вероника Федоровна</t>
-  </si>
-  <si>
-    <t>Круцинский Андрей Николаевич</t>
-  </si>
-  <si>
-    <t>Либоракина Елена Юрьевна</t>
-  </si>
-  <si>
-    <t>Мамедгусейнов Хафиз Суреддинович</t>
-  </si>
-  <si>
-    <t>Мамедова Мария Александровна</t>
-  </si>
-  <si>
-    <t>Мещерова Римма Амировна</t>
-  </si>
-  <si>
-    <t>Ниязалиев Медербек Калдарбекович</t>
-  </si>
-  <si>
-    <t>Нурмагомедов Мурад Магомедович</t>
-  </si>
-  <si>
-    <t>Паронян Сильва Сосоевна</t>
-  </si>
-  <si>
-    <t>Плотникова Людмила Олеговна</t>
-  </si>
-  <si>
-    <t>Прокошева Светлана Леонидовна</t>
-  </si>
-  <si>
-    <t>Рабаданова Наида Насруллаевна</t>
-  </si>
-  <si>
     <t>Саркисян Светлана Арамаисовна</t>
   </si>
   <si>
-    <t>Скала Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>Соколова Ирина Александровна</t>
-  </si>
-  <si>
-    <t>Спирина Дарья Игоревна</t>
-  </si>
-  <si>
-    <t>Спиркина Татьяна Николаевна</t>
-  </si>
-  <si>
-    <t>Степанова Светлана Николаевна</t>
-  </si>
-  <si>
     <t>Сухарева Оксана Борисовна</t>
   </si>
   <si>
     <t>Тамонникова Елена Львовна</t>
   </si>
   <si>
-    <t>Тахтарова Марьям Рабадангаджиевна</t>
-  </si>
-  <si>
-    <t>Тимофеева Юлия Александровна</t>
-  </si>
-  <si>
     <t>Хабачирова Марьяна Салимовна</t>
   </si>
   <si>
-    <t>Ханикаева Рита Алихановна</t>
-  </si>
-  <si>
-    <t>Хендави Даниел Мохамадович</t>
-  </si>
-  <si>
-    <t>Хомайко Дарья Александровна</t>
-  </si>
-  <si>
-    <t>Хомутовская Наталья Владимировна</t>
-  </si>
-  <si>
-    <t>Цховребова Ольга Зурабовна</t>
-  </si>
-  <si>
     <t>Чернопрудова Лиля Михайловна</t>
   </si>
   <si>
-    <t>Шахназарова Галина Владимировна</t>
-  </si>
-  <si>
-    <t>Эмирханова Сабина Азимовна</t>
-  </si>
-  <si>
-    <t>Эрендженова Мария Лиджиевна</t>
-  </si>
-  <si>
-    <t>Мглинец Виктор Павлович</t>
-  </si>
-  <si>
     <t>Бахматова Юлия Николаевна</t>
   </si>
   <si>
-    <t>Вахмистров Юрий Владимирович</t>
-  </si>
-  <si>
-    <t>Вычужанина Алла Юрьевна</t>
-  </si>
-  <si>
-    <t>Георгинова Елена Михайловна</t>
-  </si>
-  <si>
     <t>Забурунов Георгий Александрович</t>
   </si>
   <si>
-    <t>Каргаева Галина Александровна</t>
-  </si>
-  <si>
     <t>Колесникова Тоара Зелимхановна</t>
   </si>
   <si>
-    <t>Комкова Альфия Камильевна</t>
-  </si>
-  <si>
     <t>Краснова Татьяна Петровна</t>
   </si>
   <si>
-    <t>Летова Валерия Евгеньевна</t>
-  </si>
-  <si>
     <t>Локтионова Оксана Валерьевна</t>
   </si>
   <si>
-    <t>Мальцева Лариса Александровна</t>
-  </si>
-  <si>
-    <t>Мамедова Тамам Махировна</t>
-  </si>
-  <si>
     <t>Мироненко Александра Александровна</t>
   </si>
   <si>
-    <t>Мискинова Жанатхан Абдулмажиновна</t>
-  </si>
-  <si>
-    <t>Морозова Юлия Валерьевна</t>
-  </si>
-  <si>
-    <t>Муравлева Валентина Львовна</t>
-  </si>
-  <si>
-    <t>Панахов Панах Ахлиман оглы</t>
-  </si>
-  <si>
-    <t>Полякова Людмила Александровна</t>
-  </si>
-  <si>
-    <t>Пчельникова Анна Геннадиевна</t>
-  </si>
-  <si>
     <t>Садомова Екатерина Викторовна</t>
   </si>
   <si>
-    <t>Сергеева Татьяна Викторовна</t>
-  </si>
-  <si>
     <t>Сячинова Ольга Юрьевна</t>
   </si>
   <si>
-    <t>Тимофеева Татьяна Сергеевна</t>
-  </si>
-  <si>
-    <t>Филиппова Мария Александровна</t>
-  </si>
-  <si>
-    <t>Абдулкадиров Муъмин Ахмедович</t>
-  </si>
-  <si>
-    <t>Ачоян Левон Унанович</t>
-  </si>
-  <si>
-    <t>Богданова Анна Александровна</t>
-  </si>
-  <si>
     <t>Верейкин Антон Александрович</t>
   </si>
   <si>
-    <t>Гебекова Юлдуз Саладиновна</t>
-  </si>
-  <si>
-    <t>Глущенко Евгений Сергеевич</t>
-  </si>
-  <si>
-    <t>Григоренко Рахбар Муазамовна</t>
-  </si>
-  <si>
-    <t>Колесникова Татьяна Юрьевна</t>
-  </si>
-  <si>
-    <t>Кротова Наталья Васильевна</t>
-  </si>
-  <si>
-    <t>Куклев Александр Дмитриевич</t>
-  </si>
-  <si>
-    <t>Куликова Елена Юрьевна</t>
-  </si>
-  <si>
-    <t>Миралиева Зарина Тохировна</t>
-  </si>
-  <si>
-    <t>Пагиева Светлана Ахматовна</t>
-  </si>
-  <si>
     <t>Парсаданова Элона Гайковна</t>
   </si>
   <si>
     <t>Подливаева Алина Андреевна</t>
   </si>
   <si>
-    <t>Романцова Елена Юрьевна</t>
-  </si>
-  <si>
-    <t>Сипетая Людмила Ивановна</t>
-  </si>
-  <si>
-    <t>Старшинова Мария Валерьевна</t>
-  </si>
-  <si>
-    <t>Суворов-Талаев Игорь Николаевич</t>
-  </si>
-  <si>
-    <t>Творожкова Елена Алексеевна</t>
-  </si>
-  <si>
     <t>Федорченко Ольга Андреевна</t>
   </si>
   <si>
-    <t>Шестакова Галина Николаевна</t>
-  </si>
-  <si>
-    <t>Барабанова Наталья Владиславовна</t>
-  </si>
-  <si>
-    <t>Барсова Оксана Евгеньевна</t>
-  </si>
-  <si>
     <t>Безбородов Андрей Владимирович</t>
   </si>
   <si>
-    <t>Буланова Оксана Викторовна</t>
-  </si>
-  <si>
-    <t>Губайдуллина Венера Тагировна</t>
-  </si>
-  <si>
-    <t>Джан Екатерина Николаевна</t>
-  </si>
-  <si>
     <t>Ерезеева Нина Васильевна</t>
   </si>
   <si>
-    <t>Жугинисова Райхан Шарибаевна</t>
-  </si>
-  <si>
     <t>Заикина Татьяна Дмитриевна</t>
   </si>
   <si>
@@ -1558,192 +4303,72 @@
     <t>Кодзокова Леся Гисовна</t>
   </si>
   <si>
-    <t>Колганова Ольга Витальевна</t>
-  </si>
-  <si>
     <t>Котлярова Юлия Андреевна</t>
   </si>
   <si>
-    <t>Кравченко Евгений Владимирович</t>
-  </si>
-  <si>
     <t>Ладошкина Оксана Леонидовна</t>
   </si>
   <si>
-    <t>Миспохов Дилшод Эсобоевич</t>
-  </si>
-  <si>
-    <t>Назарова Людмила Юрьевна</t>
-  </si>
-  <si>
     <t>Нургазиева Гульжан Амуржановна</t>
   </si>
   <si>
-    <t>Павлов Димитрий Эдуардович</t>
-  </si>
-  <si>
-    <t>Поладян Сатеник Мовсесовна</t>
-  </si>
-  <si>
     <t>Пятигорская Марина Владимировна</t>
   </si>
   <si>
     <t>Развина Наталия Викторовна</t>
   </si>
   <si>
-    <t>Сальников Андрей Станиславович</t>
-  </si>
-  <si>
-    <t>Сызранцева Елена Алексеевна</t>
-  </si>
-  <si>
-    <t>Табакова Елена Георгиевна</t>
-  </si>
-  <si>
-    <t>Топчиева Ирина Владимировна</t>
-  </si>
-  <si>
-    <t>Уляшкина Ольга Ивановна</t>
-  </si>
-  <si>
     <t>Фёдоров Юрий Юрьевич</t>
   </si>
   <si>
-    <t>Чибичева Анифе Толятовна</t>
-  </si>
-  <si>
-    <t>Шереметьева Елена Анатольевна</t>
-  </si>
-  <si>
-    <t>Шутова Валентина Васильевна</t>
-  </si>
-  <si>
-    <t>Аляутдинова Ирина Анисимовна</t>
-  </si>
-  <si>
-    <t>Амирбеков Минатула Магомедович</t>
-  </si>
-  <si>
     <t>Антюшин Тимофей Сергеевич</t>
   </si>
   <si>
     <t>Ашимова Алиймахан Ташполотовна</t>
   </si>
   <si>
-    <t>Бейшеева Алтынкуль Сакеновна</t>
-  </si>
-  <si>
-    <t>Бердинских Алеся Александровна</t>
-  </si>
-  <si>
-    <t>Большакова Татьяна Владимировна</t>
-  </si>
-  <si>
     <t>Брагина Татьяна Петровна</t>
   </si>
   <si>
-    <t>Бродовая Лидия Александровна</t>
-  </si>
-  <si>
-    <t>Бугаенко Георгий Александрович</t>
-  </si>
-  <si>
     <t>Бутова Светлана Евгеньевна</t>
   </si>
   <si>
     <t>Галкина Светлана Валериевна</t>
   </si>
   <si>
-    <t>Гедеева Джиргала Нимяшевна</t>
-  </si>
-  <si>
     <t>Гогуа Далила Демьяновна</t>
   </si>
   <si>
-    <t>Гостроус Анастасия Александровна</t>
-  </si>
-  <si>
-    <t>Елина Светлана Геннадьевна</t>
-  </si>
-  <si>
-    <t>Ерина Ольга Николаевна</t>
-  </si>
-  <si>
-    <t>Зеленова Татьяна Ивановна</t>
-  </si>
-  <si>
-    <t>Зеркаленкова Ольга Викторовна</t>
-  </si>
-  <si>
     <t>Зурабян Ирина Генриховна</t>
   </si>
   <si>
     <t>Идиятуллина Ирина Вадимовна</t>
   </si>
   <si>
-    <t>Исакова Хадижат Заирбеговна</t>
-  </si>
-  <si>
-    <t>Исманова Гулнара Чиркеевна</t>
-  </si>
-  <si>
-    <t>Гомзов Александр Витальевич</t>
-  </si>
-  <si>
     <t>Карасёва Юлия Владимировна</t>
   </si>
   <si>
-    <t>Кипурова Антонина Валентиновна</t>
-  </si>
-  <si>
     <t>Листухина Елена Александровна</t>
   </si>
   <si>
     <t>Мусуралиева Шарийпа Карагуловна</t>
   </si>
   <si>
-    <t>Набиева Эльнара Рахмановна</t>
-  </si>
-  <si>
-    <t>Немкович Галина Михайловна</t>
-  </si>
-  <si>
-    <t>Оже Галина Сергеевна</t>
-  </si>
-  <si>
-    <t>Парнякова Людмила Александровна</t>
-  </si>
-  <si>
     <t>Пономарев Денис Анатольевич</t>
   </si>
   <si>
-    <t>Сазонова Елена Валентиновна</t>
-  </si>
-  <si>
     <t>Сорокина Светлана Валентиновна</t>
   </si>
   <si>
-    <t>Спижарная Екатерина Александровна</t>
-  </si>
-  <si>
     <t>Тараканова Екатерина Сергеевна</t>
   </si>
   <si>
-    <t>Уразгильдеева Наиля Хамзяевна</t>
-  </si>
-  <si>
     <t>Хрунова Виктория Владиславовна</t>
   </si>
   <si>
     <t>Чепрасов Дмитрий Валерьевич</t>
   </si>
   <si>
-    <t>Черкасова Юлия Вячеславовна</t>
-  </si>
-  <si>
-    <t>Шепеленко Вадим Владимирович</t>
-  </si>
-  <si>
     <t>Ярославцева Татьяна Ильинична</t>
   </si>
   <si>
@@ -1753,63 +4378,24 @@
     <t>Александрова Анастасия Алексеевна</t>
   </si>
   <si>
-    <t>Барт Дмитрий Борисович</t>
-  </si>
-  <si>
-    <t>Булискерия Нана Хутаевна</t>
-  </si>
-  <si>
-    <t>Гриненко Дина Владимировна</t>
-  </si>
-  <si>
     <t>Динисламова Джамиля Садиновна</t>
   </si>
   <si>
-    <t>Заречнева Наталия Михайловна</t>
-  </si>
-  <si>
     <t>Захарова Светлана Васильевна</t>
   </si>
   <si>
-    <t>Иванов Владислав Олегович</t>
-  </si>
-  <si>
     <t>Кабисова Лаура Вячеславовна</t>
   </si>
   <si>
-    <t>Капустина Юлия Викторовна</t>
-  </si>
-  <si>
     <t>Климова Елена Ивановна</t>
   </si>
   <si>
     <t>Ковылина Наталья Валентиновна</t>
   </si>
   <si>
-    <t>Кормильцева Наталья Владимировна</t>
-  </si>
-  <si>
-    <t>Корсаева Людмила Алексеевна</t>
-  </si>
-  <si>
     <t>Кузнецова Елена Владимировна</t>
   </si>
   <si>
-    <t>Ершов Алексей Иванович</t>
-  </si>
-  <si>
-    <t>Морозова Екатерина Дмитриевна</t>
-  </si>
-  <si>
-    <t>Мурадян Ерануи Наполеоновна</t>
-  </si>
-  <si>
-    <t>Назарян Варсик Геворговна</t>
-  </si>
-  <si>
-    <t>Николаева Наталья Владимировна</t>
-  </si>
-  <si>
     <t>Новиков Андрей Юрьевич</t>
   </si>
   <si>
@@ -1819,60 +4405,18 @@
     <t>Пронькин Андрей Владимирович</t>
   </si>
   <si>
-    <t>Пятунина Людмила Олеговна</t>
-  </si>
-  <si>
-    <t>Савиных Инесса Георгиевна</t>
-  </si>
-  <si>
     <t>Сатырова Альфира Алимжановна</t>
   </si>
   <si>
     <t>Сельденкова Наталия Геннадьевна</t>
   </si>
   <si>
-    <t>Серегина Дарья Сергеевна</t>
-  </si>
-  <si>
-    <t>Сыркина Дарья Владимировна</t>
-  </si>
-  <si>
-    <t>Сыч Анна Сергеевна</t>
-  </si>
-  <si>
-    <t>Ти Светлана Георгиевна</t>
-  </si>
-  <si>
-    <t>Токунова Татьяна Станиславовна</t>
-  </si>
-  <si>
-    <t>Тренин Виктор Анатольевич</t>
-  </si>
-  <si>
     <t>Тюрина Татьяна Петровна</t>
   </si>
   <si>
-    <t>Федосеева Наталья Валерьевна</t>
-  </si>
-  <si>
-    <t>Филипская Мария Александровна</t>
-  </si>
-  <si>
     <t>Фуртуна Марина Евгеньевна</t>
   </si>
   <si>
-    <t>Халатова Саният Шапиевна</t>
-  </si>
-  <si>
-    <t>Щербаков Андрей Игоревич</t>
-  </si>
-  <si>
-    <t>Яхшатова Раиса Халитовна</t>
-  </si>
-  <si>
-    <t>Яценко Ольга Николаевна</t>
-  </si>
-  <si>
     <t>Шемелев Ислам Висханович</t>
   </si>
   <si>
@@ -1882,129 +4426,39 @@
     <t>Акунбаева Перизат Аскаралиевна</t>
   </si>
   <si>
-    <t>Андронова Оксана Борисовна</t>
-  </si>
-  <si>
     <t>Антипова Валентина Васильевна</t>
   </si>
   <si>
-    <t>Багаутдинова Луиза Ильмировна</t>
-  </si>
-  <si>
-    <t>Владимирова Наталья Робертовна</t>
-  </si>
-  <si>
-    <t>Гадисова Патимат Исаевна</t>
-  </si>
-  <si>
     <t>Гафиятуллин Айдар Хамзович</t>
   </si>
   <si>
-    <t>Гвалия Медея Григорьевна</t>
-  </si>
-  <si>
     <t>Гулузаде Тамирлан Расим оглы</t>
   </si>
   <si>
-    <t>Джумашева Лейла Сабировна</t>
-  </si>
-  <si>
-    <t>Доев Тамерлан Казбекович</t>
-  </si>
-  <si>
-    <t>Загирова Патимат Абдулманаповна</t>
-  </si>
-  <si>
-    <t>Иванова Лариса Борисовна</t>
-  </si>
-  <si>
-    <t>Ильина Олеся Геннадьевна</t>
-  </si>
-  <si>
-    <t>Калоева Лолита Казбековна</t>
-  </si>
-  <si>
-    <t>Качанов Артем Анатольевич</t>
-  </si>
-  <si>
-    <t>Колганова Анастасия Андреевна</t>
-  </si>
-  <si>
-    <t>Косырев Павел Михайлович</t>
-  </si>
-  <si>
     <t>Котов Борис Борисович</t>
   </si>
   <si>
-    <t>Кузьмина Виктория Валерьевна</t>
-  </si>
-  <si>
-    <t>Курбанисмаилова Джамиля Магомедовна</t>
-  </si>
-  <si>
     <t>Малкина Людмила Андреевна</t>
   </si>
   <si>
-    <t>Масимова Хумай Васиф кызы</t>
-  </si>
-  <si>
     <t>Павлов Константин Андреевич</t>
   </si>
   <si>
     <t>Пекарева Ирина Александровна</t>
   </si>
   <si>
-    <t>Предко Лилия Фагимовна</t>
-  </si>
-  <si>
-    <t>Самаков Сергей Владимирович</t>
-  </si>
-  <si>
-    <t>Смирнова Людмила Анатольевна</t>
-  </si>
-  <si>
-    <t>Стратович Ирина Валентиновна</t>
-  </si>
-  <si>
-    <t>Тамазова Эдита Яковлевна</t>
-  </si>
-  <si>
-    <t>Таратунина Татьяна Николаевна</t>
-  </si>
-  <si>
     <t>Текеева Земфира Солтановна</t>
   </si>
   <si>
-    <t>Уразгельдиева Лия Мухамедхановна</t>
-  </si>
-  <si>
     <t>Ухрёнкова Светлана Александровна</t>
   </si>
   <si>
-    <t>Хамидов Рашидбек Жамшидбек Угли</t>
-  </si>
-  <si>
-    <t>Шульга Анна Максимовна</t>
-  </si>
-  <si>
-    <t>Яковлев Сергей Игоревич</t>
-  </si>
-  <si>
     <t xml:space="preserve">Камел Адиб </t>
   </si>
   <si>
     <t xml:space="preserve">Жигалова Галина </t>
   </si>
   <si>
-    <t>Ярушкина Ирина Сергеевна</t>
-  </si>
-  <si>
-    <t>Адамян Нуне Стёпаевна</t>
-  </si>
-  <si>
-    <t>Алекперов Алим Азим Оглы</t>
-  </si>
-  <si>
     <t>Аль-Джаари Кассим Нассер Хассан</t>
   </si>
   <si>
@@ -2014,9 +4468,6 @@
     <t>Антипенко Александр Георгиевич</t>
   </si>
   <si>
-    <t>Ахмедова Умуриза Абдулманаповна</t>
-  </si>
-  <si>
     <t>Бондарчук Елена Валерьевна</t>
   </si>
   <si>
@@ -2029,210 +4480,69 @@
     <t>Вахидзаде Теймур Тахир оглы</t>
   </si>
   <si>
-    <t>Вердиева Гюнель Мубариз кызы</t>
-  </si>
-  <si>
-    <t>Ветрова Татьяна Владимировна</t>
-  </si>
-  <si>
     <t>Владимиров Денис Нилович</t>
   </si>
   <si>
-    <t>Гайсина Лиана Исхаковна</t>
-  </si>
-  <si>
-    <t>Денисов Николай Викторович</t>
-  </si>
-  <si>
-    <t>Деордице Марина Олеговна</t>
-  </si>
-  <si>
     <t>Джабраилов Магди Гаджимагомедович</t>
   </si>
   <si>
-    <t>Джаватханов Гусейн Ахмедович</t>
-  </si>
-  <si>
-    <t>Дунина Валентина Геннадиевна</t>
-  </si>
-  <si>
-    <t>Елина Мария Вячеславовна</t>
-  </si>
-  <si>
-    <t>Желудкова Лидия Николаевна</t>
-  </si>
-  <si>
     <t>Ивашевская Наталья Николаевна</t>
   </si>
   <si>
-    <t>Игнатова Елена Анатольевна</t>
-  </si>
-  <si>
-    <t>Исаева Мадина Абдулмуслимовна</t>
-  </si>
-  <si>
     <t xml:space="preserve">Аль-Зубайди Хусам Каддури Давуд </t>
   </si>
   <si>
     <t>Каландарова Луиза Закировна</t>
   </si>
   <si>
-    <t>Каюмова Венера Султановна</t>
-  </si>
-  <si>
-    <t>Кочетова Ксения Валентиновна</t>
-  </si>
-  <si>
-    <t>Лавушкин Максим Дмитриевич</t>
-  </si>
-  <si>
     <t>Лантух Нина Яковлевна</t>
   </si>
   <si>
-    <t>Макиев Евгений Алмазович</t>
-  </si>
-  <si>
-    <t>Мамаева Евгения Александровна</t>
-  </si>
-  <si>
-    <t>Масленников Вячеслав Михайлович</t>
-  </si>
-  <si>
     <t>Мельниченко Кристина Романовна</t>
   </si>
   <si>
     <t>Михайловский Арсений Маркович</t>
   </si>
   <si>
-    <t>Молчанова Наталья Олеговна</t>
-  </si>
-  <si>
-    <t>Мусхабов Ахмад Зеутдинович</t>
-  </si>
-  <si>
-    <t>Нам Николай Евгеньевич</t>
-  </si>
-  <si>
-    <t>Никитинская Елена Валентиновна</t>
-  </si>
-  <si>
-    <t>Новченко Ольга Максумовна</t>
-  </si>
-  <si>
-    <t>Омельченко Евгения Георгиевна</t>
-  </si>
-  <si>
     <t>Павловец Елена Васильевна</t>
   </si>
   <si>
-    <t>Прокопьев Алексей Васильевич</t>
-  </si>
-  <si>
     <t xml:space="preserve">Алайчиева Кумиринса </t>
   </si>
   <si>
     <t>Ежова Галина Юрьевна</t>
   </si>
   <si>
-    <t>Рустамова Кенюль Талет кызы</t>
-  </si>
-  <si>
-    <t>Рысикова Надежда Евгеньевна</t>
-  </si>
-  <si>
-    <t>Садыкова Арзыкан Надырбековна</t>
-  </si>
-  <si>
-    <t>Сосламбеков Майрбек Бесланович</t>
-  </si>
-  <si>
     <t>Сухорукова Юлия Алексеевна</t>
   </si>
   <si>
     <t>Тихоненко Виктор Константинович</t>
   </si>
   <si>
-    <t>Фомичева Ольга Германовна</t>
-  </si>
-  <si>
     <t>Шаповалова Ирина Владимировна</t>
   </si>
   <si>
-    <t>Шевченко Анна Алексеевна</t>
-  </si>
-  <si>
     <t>Щербакова Наталья Александровна</t>
   </si>
   <si>
-    <t>Юсубова Мехрибан Паша кызы</t>
-  </si>
-  <si>
     <t>Анварбекова Наиляхан Арсланхановна</t>
   </si>
   <si>
-    <t>Волкова Евгения Александровна</t>
-  </si>
-  <si>
     <t>Галкин Иван Игоревич</t>
   </si>
   <si>
-    <t>Гальян Екатерина Валериевна</t>
-  </si>
-  <si>
-    <t>Гудиев Али Гириевич</t>
-  </si>
-  <si>
-    <t>Джанибекова Айшат Рашидовна</t>
-  </si>
-  <si>
-    <t>Дмитриева Антонина Дмитриевна</t>
-  </si>
-  <si>
-    <t>Довлатян Грайр Робертович</t>
-  </si>
-  <si>
-    <t>Дунюшина Александра Андреевна</t>
-  </si>
-  <si>
-    <t>Ефремова Кристина Сергеевна</t>
-  </si>
-  <si>
     <t>Ким Светлана Петровна</t>
   </si>
   <si>
-    <t>Кулешова Анна Ивановна</t>
-  </si>
-  <si>
-    <t>Курдюкова Екатерина Николаевна</t>
-  </si>
-  <si>
     <t>Куснияров Геннадий Шаримзянович</t>
   </si>
   <si>
     <t>Ли Андрей Юрьевич</t>
   </si>
   <si>
-    <t>Магомедова Разият Робертовна</t>
-  </si>
-  <si>
     <t>Маклакова Ирина Петровна</t>
   </si>
   <si>
-    <t>Мирзакеримова Беневша Абасмирзаевна</t>
-  </si>
-  <si>
-    <t>Флягина Наталья Евгеньевна</t>
-  </si>
-  <si>
-    <t>Морозенко Оксана Владимировна</t>
-  </si>
-  <si>
-    <t>Мусаева Наиля Махмудовна</t>
-  </si>
-  <si>
-    <t>Нимаева Алевтина Владимировна</t>
-  </si>
-  <si>
     <t>Нурматова Дилафруз Абдушукуровна</t>
   </si>
   <si>
@@ -2242,144 +4552,51 @@
     <t>Шевцова Наталья Игоревна</t>
   </si>
   <si>
-    <t>Нурмагомедова Умакусум Магомедовна</t>
-  </si>
-  <si>
-    <t>Озерова Анна Александровна</t>
-  </si>
-  <si>
     <t>Полоницкая Дарья Алексеевна</t>
   </si>
   <si>
-    <t>Пономарева Ксения Александровна</t>
-  </si>
-  <si>
     <t>Пулатов Манучехр Мухсинджонович</t>
   </si>
   <si>
     <t>Раймулла Елизавета Александровна</t>
   </si>
   <si>
-    <t>Рузимуратов Тимур Рустамович</t>
-  </si>
-  <si>
     <t>Рудакова Елена Геннадьевна</t>
   </si>
   <si>
-    <t>Рюриков Иоанн Олегович</t>
-  </si>
-  <si>
-    <t>Соловьёва Ирина Анатольевна</t>
-  </si>
-  <si>
-    <t>Сосновский Семен Александрович</t>
-  </si>
-  <si>
-    <t>Старостин Сергей Георгиевич</t>
-  </si>
-  <si>
     <t>Тембулатова Элина Хароновна</t>
   </si>
   <si>
     <t>Харибова Людмила Николаевна</t>
   </si>
   <si>
-    <t>Хлыстова Рената Анваровна</t>
-  </si>
-  <si>
-    <t>Ходжаева Анна Юрьевна</t>
-  </si>
-  <si>
-    <t>Шабалина Нина Валерьевна</t>
-  </si>
-  <si>
-    <t>Эсуев Ахмед Абдуллаевич</t>
-  </si>
-  <si>
-    <t>Яковлева Нина Геннадьевна</t>
-  </si>
-  <si>
-    <t>Ямуткова Ольга Петровна</t>
-  </si>
-  <si>
     <t>Арифова Тахмина Александровна</t>
   </si>
   <si>
-    <t>Бородай Евгений Борисович</t>
-  </si>
-  <si>
-    <t>Васицына Яна Юрьевна</t>
-  </si>
-  <si>
-    <t>Глазова Елена Анатольевна</t>
-  </si>
-  <si>
     <t>Грищенков Денис Николаевич</t>
   </si>
   <si>
     <t>Груненышев Алексей Алексеевич</t>
   </si>
   <si>
-    <t>Иванов Степан Владимирович</t>
-  </si>
-  <si>
-    <t>Коробченко Екатерина Сергеевна</t>
-  </si>
-  <si>
     <t>Кочарян Гоар Вазгеновна</t>
   </si>
   <si>
     <t>Кузьмич Елизавета Александровна</t>
   </si>
   <si>
-    <t>Лепихин Игорь Александрович</t>
-  </si>
-  <si>
-    <t>Лосев Антон Сергеевич</t>
-  </si>
-  <si>
-    <t>Магомедов Расул Ханапиевич</t>
-  </si>
-  <si>
     <t>Магомедова Наира Аслановна</t>
   </si>
   <si>
-    <t>Маракушина Дарья Евгеньевна</t>
-  </si>
-  <si>
-    <t>Мнацаканян Эмма Ашотовна</t>
-  </si>
-  <si>
     <t>Мухиддинова Мухаббатхан Адхамовна</t>
   </si>
   <si>
-    <t>Поправка Антонина Юрьевна</t>
-  </si>
-  <si>
-    <t>Сакаева Адэля Ильдусовна</t>
-  </si>
-  <si>
-    <t>Сергеева Надежда Валентиновна</t>
-  </si>
-  <si>
     <t>Стрельников Александр Андреевич</t>
   </si>
   <si>
     <t>Чанцева Людмила Александровна</t>
   </si>
   <si>
-    <t>Чиняева Кристина Сергеевна</t>
-  </si>
-  <si>
-    <t>Шапкин Кирилл Николаевич</t>
-  </si>
-  <si>
-    <t>Шахаева Аманат Хасановна</t>
-  </si>
-  <si>
-    <t>Шмонов Сергей Михайлович</t>
-  </si>
-  <si>
     <t>Штукатурова Анна Михайловна</t>
   </si>
   <si>
@@ -2392,66 +4609,24 @@
     <t>Семенова Анастасия Владимировна</t>
   </si>
   <si>
-    <t>Анисимов Станислав Петрович</t>
-  </si>
-  <si>
-    <t>Багомедов Абдулхалик Магомедшапиевич</t>
-  </si>
-  <si>
-    <t>Бондаренко Ирина Сергеевна</t>
-  </si>
-  <si>
-    <t>Вишняков Алексей Сергеевич</t>
-  </si>
-  <si>
-    <t>Гаджиева Айшат Магомедалиевна</t>
-  </si>
-  <si>
     <t>Газимов Магомед Ильясович</t>
   </si>
   <si>
-    <t>Герасимова Евгения Львовна</t>
-  </si>
-  <si>
-    <t>Гогурчунова Зухра Паражитдиновна</t>
-  </si>
-  <si>
     <t>Голубева Елена Викторовна</t>
   </si>
   <si>
     <t>Горелова Венера Амировна</t>
   </si>
   <si>
-    <t>Григорьева Роза Филипповна</t>
-  </si>
-  <si>
     <t>Гусева Ольга Алексеевна</t>
   </si>
   <si>
-    <t>Иванова Людмила Алексеевна</t>
-  </si>
-  <si>
-    <t>Кудряшова Маргарита Алексеевна</t>
-  </si>
-  <si>
     <t>Курбанова Лаият Курбановна</t>
   </si>
   <si>
-    <t>Лагуткина Елена Анатольевна</t>
-  </si>
-  <si>
-    <t>Ломидзе Ирина Зурабиевна</t>
-  </si>
-  <si>
     <t>Махова Оксана Хаутиевна</t>
   </si>
   <si>
-    <t>Ойтова Рузанна Анатольевна</t>
-  </si>
-  <si>
-    <t>Парсаданян Армине Ромеоевна</t>
-  </si>
-  <si>
     <t>Рассейкина Вера Павловна</t>
   </si>
   <si>
@@ -2461,2182 +4636,7 @@
     <t>Реш Давид Александрович</t>
   </si>
   <si>
-    <t>Садикова Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>Селезнев Денис Евгеньевич</t>
-  </si>
-  <si>
     <t>Старостина Ольга Викторовна</t>
-  </si>
-  <si>
-    <t>Тлярукова Елена Заудиновна</t>
-  </si>
-  <si>
-    <t>Шумеева Оксана Вячеславовна</t>
-  </si>
-  <si>
-    <t>Яковченкова Елена Николаевна</t>
-  </si>
-  <si>
-    <t>Алиева Умукусум Абдулгамидовна</t>
-  </si>
-  <si>
-    <t>Кострова Людмила Анатольевна</t>
-  </si>
-  <si>
-    <t>Зайнутдинов Роман Раисович</t>
-  </si>
-  <si>
-    <t>Васин Андрей Андреевич</t>
-  </si>
-  <si>
-    <t>Моисеева Ольга Сергеевна</t>
-  </si>
-  <si>
-    <t>Данаилова Ирина Николаевна</t>
-  </si>
-  <si>
-    <t>Веселова Мария Антоновна</t>
-  </si>
-  <si>
-    <t>Васильева Наталья Валерьевна</t>
-  </si>
-  <si>
-    <t>Мирзанагимова Альфия Сулеймановна</t>
-  </si>
-  <si>
-    <t>Мороз Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>Ильинцева Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>Дадулагова Джейнара Вахаевна</t>
-  </si>
-  <si>
-    <t>Хациева Луиза Мухарбековна</t>
-  </si>
-  <si>
-    <t>Абдуллаева Лейла Дагировна</t>
-  </si>
-  <si>
-    <t>Охапкина Мария Валерьевна</t>
-  </si>
-  <si>
-    <t>Юденкова Елена Юрьевна</t>
-  </si>
-  <si>
-    <t>Саляхов Ренат Радикович</t>
-  </si>
-  <si>
-    <t>Минагулова Эльмира Джемилевна</t>
-  </si>
-  <si>
-    <t>Исаев Алим Чингизханович</t>
-  </si>
-  <si>
-    <t>Мордвинова Александра Евгеньевна</t>
-  </si>
-  <si>
-    <t>Афанасьева Дина Александровна</t>
-  </si>
-  <si>
-    <t>Рязанцева Дарья Витальевна</t>
-  </si>
-  <si>
-    <t>Кислица Лариса Владимировна</t>
-  </si>
-  <si>
-    <t>Хусейнов Ибрагим Махданович</t>
-  </si>
-  <si>
-    <t>Берлинская Вера Владимировна</t>
-  </si>
-  <si>
-    <t>Тлизамова Марина Муаедовна</t>
-  </si>
-  <si>
-    <t>Картоев Ибрагим Алиханович</t>
-  </si>
-  <si>
-    <t>Шведов Илья Игоревич</t>
-  </si>
-  <si>
-    <t>Ермакова Ирина Владимировна</t>
-  </si>
-  <si>
-    <t>Листенко Мария Михайловна</t>
-  </si>
-  <si>
-    <t>Степанова Татьяна Николаевна</t>
-  </si>
-  <si>
-    <t>Кишенина Валентина Александровна</t>
-  </si>
-  <si>
-    <t>Муратова Светлана Алексеевна</t>
-  </si>
-  <si>
-    <t>Непочатова Юлия Викторовна</t>
-  </si>
-  <si>
-    <t>Низен Елена Эвальдовна</t>
-  </si>
-  <si>
-    <t>Шестакова Екатерина Аркадьевна</t>
-  </si>
-  <si>
-    <t>Никульцев Александр Владимирович</t>
-  </si>
-  <si>
-    <t>Белкина Галина Анатольевна</t>
-  </si>
-  <si>
-    <t>Ломовцев Дмитрий Алексеевич</t>
-  </si>
-  <si>
-    <t>Дичкова Ольга Алексеевна</t>
-  </si>
-  <si>
-    <t>Хестанова Галина Уруспиевна</t>
-  </si>
-  <si>
-    <t>Янгляева Айгуль Маратовна</t>
-  </si>
-  <si>
-    <t>Кучерова Серафима Николаевна</t>
-  </si>
-  <si>
-    <t>Чернавкина Елена Алексеевна</t>
-  </si>
-  <si>
-    <t>Бобриков Евгений Алексеевич</t>
-  </si>
-  <si>
-    <t>Мамбетова Нуриса Борукчиевна</t>
-  </si>
-  <si>
-    <t>Егорова Татьяна Петровна</t>
-  </si>
-  <si>
-    <t>Красничков Алексей Сергеевич</t>
-  </si>
-  <si>
-    <t>Степанова Елена Геннадьевна</t>
-  </si>
-  <si>
-    <t>Михайлова Екатерина Николаевна</t>
-  </si>
-  <si>
-    <t>Василенкова Александра Сергеевна</t>
-  </si>
-  <si>
-    <t>Керимли Фаик Ильхам Оглы</t>
-  </si>
-  <si>
-    <t>Худайбердиева Мая Мыратгелдиевна</t>
-  </si>
-  <si>
-    <t>Эфендиева Фарида Фахраддин кызы</t>
-  </si>
-  <si>
-    <t>Арзуманян Ануш Аршаковна</t>
-  </si>
-  <si>
-    <t>Кузнецова Ирина Арсеньевна</t>
-  </si>
-  <si>
-    <t>Арсельгова Марина Сулеймановна</t>
-  </si>
-  <si>
-    <t>Абрамова Людмила Дмитриевна</t>
-  </si>
-  <si>
-    <t>Мясоутова Тамара Гиниятовна</t>
-  </si>
-  <si>
-    <t>Тедеева Циала Борисовна</t>
-  </si>
-  <si>
-    <t>Кудряшов Дмитрий Викторович</t>
-  </si>
-  <si>
-    <t>Мустафаева Гюнель Будаг кызы</t>
-  </si>
-  <si>
-    <t>Козлов Егор Романович</t>
-  </si>
-  <si>
-    <t>Овчинникова Ирина Сергеевна</t>
-  </si>
-  <si>
-    <t>Кириллова Ольга Алексеевна</t>
-  </si>
-  <si>
-    <t>Оганнисян Кристина Альбертовна</t>
-  </si>
-  <si>
-    <t>Арефьева Ольга Сердаровна</t>
-  </si>
-  <si>
-    <t>Удалаева Розия Ахияровна</t>
-  </si>
-  <si>
-    <t>Мирибян Наира Размиковна</t>
-  </si>
-  <si>
-    <t>Макеева Елена Валентиновна</t>
-  </si>
-  <si>
-    <t>Ризвонов Максуджон Мавлонович</t>
-  </si>
-  <si>
-    <t>Давыдова Людмила Николаевна</t>
-  </si>
-  <si>
-    <t>Кикалия Манучар Карлоевич</t>
-  </si>
-  <si>
-    <t>Махноносов Сергей Дмитриевич</t>
-  </si>
-  <si>
-    <t>Ильин Максим Олегович</t>
-  </si>
-  <si>
-    <t>Базырова Дельгир Вячеславовна</t>
-  </si>
-  <si>
-    <t>Камбаров Иляз Мухаматалиевич</t>
-  </si>
-  <si>
-    <t>Габитова Назира Магомедназировна</t>
-  </si>
-  <si>
-    <t>Малкина Анна Ильинична</t>
-  </si>
-  <si>
-    <t>Кочеткова Наталья Михайловна</t>
-  </si>
-  <si>
-    <t>Ямашкина Оксана Игоревна</t>
-  </si>
-  <si>
-    <t>Ткаченко Валерия Валерьевна</t>
-  </si>
-  <si>
-    <t>Рыбак Диана Исметовна</t>
-  </si>
-  <si>
-    <t>Катаев Александр Александрович</t>
-  </si>
-  <si>
-    <t>Боева Вера Михайловна</t>
-  </si>
-  <si>
-    <t>Кожемяко Наталья Васильевна</t>
-  </si>
-  <si>
-    <t>Цыбикова Наталья Балдоржиевна</t>
-  </si>
-  <si>
-    <t>Джалалов Шарабутдин Магомедович</t>
-  </si>
-  <si>
-    <t>Панченко Елена Николаевна</t>
-  </si>
-  <si>
-    <t>Аушева Зара Баторбековна</t>
-  </si>
-  <si>
-    <t>Хаматханов Руслан Магометович</t>
-  </si>
-  <si>
-    <t>Михальченко Александр Владимирович</t>
-  </si>
-  <si>
-    <t>Оздоева Фатима Беслановна</t>
-  </si>
-  <si>
-    <t>Гордеева Екатерина Евгеньевна</t>
-  </si>
-  <si>
-    <t>Загородникова Елена Сергеевна</t>
-  </si>
-  <si>
-    <t>Пусев Андрей Викторович</t>
-  </si>
-  <si>
-    <t>Лапшина Екатерина Владимировна</t>
-  </si>
-  <si>
-    <t>Логинова Марина Ивановна</t>
-  </si>
-  <si>
-    <t>Лишаева Анна Михайловна</t>
-  </si>
-  <si>
-    <t>Арсанукаева Овлаз Шахидовна</t>
-  </si>
-  <si>
-    <t>Миронова Полина Михайловна</t>
-  </si>
-  <si>
-    <t>Ларсанова Аминат Султанбековна</t>
-  </si>
-  <si>
-    <t>Покатин Юрий Анатольевич</t>
-  </si>
-  <si>
-    <t>Илюшкина Ольга Васильевна</t>
-  </si>
-  <si>
-    <t>Дадашева Камила Мурадовна</t>
-  </si>
-  <si>
-    <t>Камалов Амир Камильевич</t>
-  </si>
-  <si>
-    <t>Расулова Светлана Владимировна</t>
-  </si>
-  <si>
-    <t>Турлавова Зульфия Садуллаевна</t>
-  </si>
-  <si>
-    <t>Рахмихудоева Нигина Гуламадовна</t>
-  </si>
-  <si>
-    <t>Снарская Елена Владимировна</t>
-  </si>
-  <si>
-    <t>Коцкая Татьяна Николаевна</t>
-  </si>
-  <si>
-    <t>Грозина Александра Вольфрамовна</t>
-  </si>
-  <si>
-    <t>Гончарова Алла Геннадиевна</t>
-  </si>
-  <si>
-    <t>Гладкая Жанна Васильевна</t>
-  </si>
-  <si>
-    <t>Мурадова Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>Алирзаева Хадижат Абдулнасировна</t>
-  </si>
-  <si>
-    <t>Гюльметова Сабина Тагировна</t>
-  </si>
-  <si>
-    <t>Исаева Анастасия Павловна</t>
-  </si>
-  <si>
-    <t>Багандова Марьям Абдулмуслимовна</t>
-  </si>
-  <si>
-    <t>Ковыршина Екатерина Павловна</t>
-  </si>
-  <si>
-    <t>Ассанаев Омар Ширванович</t>
-  </si>
-  <si>
-    <t>Пагиева Инна Ахсарбековна</t>
-  </si>
-  <si>
-    <t>Ефимова Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>Зиварова Гульзада Сарсенбаевна</t>
-  </si>
-  <si>
-    <t>Зеленяев Николай Алексеевич</t>
-  </si>
-  <si>
-    <t>Жеребцова Анастасия Павловна</t>
-  </si>
-  <si>
-    <t>Авилкина Наталья Владимировна</t>
-  </si>
-  <si>
-    <t>Матвеева Мария Васильевна</t>
-  </si>
-  <si>
-    <t>Кан Ольга Валентиновна</t>
-  </si>
-  <si>
-    <t>Трушина Светлана Викторовна</t>
-  </si>
-  <si>
-    <t>Волоскова Мария Семеновна</t>
-  </si>
-  <si>
-    <t>Шуптинова Елена Романовна</t>
-  </si>
-  <si>
-    <t>Селезнева Наталия Геннадьевна</t>
-  </si>
-  <si>
-    <t>Масёма Максим Николаевич</t>
-  </si>
-  <si>
-    <t>Товсултанова Лиза Руслановна</t>
-  </si>
-  <si>
-    <t>Ротарь Ирина Михайловна</t>
-  </si>
-  <si>
-    <t>Казымова Улькер Бахрам кызы</t>
-  </si>
-  <si>
-    <t>Воробьев Александр Александрович</t>
-  </si>
-  <si>
-    <t>Грошева Нина Александровна</t>
-  </si>
-  <si>
-    <t>Петухова Светлана Васильевна</t>
-  </si>
-  <si>
-    <t>Войтюк Николай Степанович</t>
-  </si>
-  <si>
-    <t>Гемуева Светлана Юсуфовна</t>
-  </si>
-  <si>
-    <t>Лисовская Светлана Юрьевна</t>
-  </si>
-  <si>
-    <t>Моисеева Елена Михайловна</t>
-  </si>
-  <si>
-    <t>Крючкова Светлана Викторовна</t>
-  </si>
-  <si>
-    <t>Куталия Теа Омеховна</t>
-  </si>
-  <si>
-    <t>Акопян Анаит Сосиковна</t>
-  </si>
-  <si>
-    <t>Немцева Ольга Александровна</t>
-  </si>
-  <si>
-    <t>Харченко Юлия Владимировна</t>
-  </si>
-  <si>
-    <t>Карнова Людмила Ивановна</t>
-  </si>
-  <si>
-    <t>Толстикова Виктория Геннадьевна</t>
-  </si>
-  <si>
-    <t>Артемьев Владимир Владимирович</t>
-  </si>
-  <si>
-    <t>Бутякова Ирина Владимировна</t>
-  </si>
-  <si>
-    <t>Ануфриева Елена Андреевна</t>
-  </si>
-  <si>
-    <t>Новикова Юлия Марковна</t>
-  </si>
-  <si>
-    <t>Мефодьева Валентина Федоровна</t>
-  </si>
-  <si>
-    <t>Алексейков Владимир Павлович</t>
-  </si>
-  <si>
-    <t>Мусаева Насиба Магомедовна</t>
-  </si>
-  <si>
-    <t>Мустафина Айсылу Тагировна</t>
-  </si>
-  <si>
-    <t>Бородулина Татьяна Николаевна</t>
-  </si>
-  <si>
-    <t>Назранова Жанна Мусарбиевна</t>
-  </si>
-  <si>
-    <t>Авдеева Наталия Ивановна</t>
-  </si>
-  <si>
-    <t>Панкратова Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>Иванова Любовь Николаевна</t>
-  </si>
-  <si>
-    <t>Мигирова Ирина Алановна</t>
-  </si>
-  <si>
-    <t>Тукиш Сергей Сергеевич</t>
-  </si>
-  <si>
-    <t>Шейхова Наргиз Рустамовна</t>
-  </si>
-  <si>
-    <t>Иванцова Елена Николаевна</t>
-  </si>
-  <si>
-    <t>Илюхин Кирилл Олегович</t>
-  </si>
-  <si>
-    <t>Романова Ирина Сергеевна</t>
-  </si>
-  <si>
-    <t>Руднева Ольга Викторовна</t>
-  </si>
-  <si>
-    <t>Эскирханова Лолита Алхазуровна</t>
-  </si>
-  <si>
-    <t>Калашникова Галина Александровна</t>
-  </si>
-  <si>
-    <t>Буренкова Наталия Юрьевна</t>
-  </si>
-  <si>
-    <t>Фахрудинова Жанна Владимировна</t>
-  </si>
-  <si>
-    <t>Гаджиханова Патиматзаграт Магомедшапиевна</t>
-  </si>
-  <si>
-    <t>Пинчук Екатерина Андреевна</t>
-  </si>
-  <si>
-    <t>Бондарева Лидия Андреевна</t>
-  </si>
-  <si>
-    <t>Григорьева Инна Михайловна</t>
-  </si>
-  <si>
-    <t>Корякина Ольга Сергеевна</t>
-  </si>
-  <si>
-    <t>Кузнецова Ольга Дмитриевна</t>
-  </si>
-  <si>
-    <t>Арушанян Арев Анушавановна</t>
-  </si>
-  <si>
-    <t>Боровкова Валентина Григорьевна</t>
-  </si>
-  <si>
-    <t>Боровик Нина Федоровна</t>
-  </si>
-  <si>
-    <t>Юлдашева Ойдин Мирзаевна</t>
-  </si>
-  <si>
-    <t>Ганапиева Габибат Саидовна</t>
-  </si>
-  <si>
-    <t>Зверева Ольга Васильевна</t>
-  </si>
-  <si>
-    <t>Анвар Мухаммад Зиишан</t>
-  </si>
-  <si>
-    <t>Гогичаев Таймураз Валерьевич</t>
-  </si>
-  <si>
-    <t>Наседкина Елена Николаевна</t>
-  </si>
-  <si>
-    <t>Маргарян Овсеп Ваграмович</t>
-  </si>
-  <si>
-    <t>Гусев Юрий Анатольевич</t>
-  </si>
-  <si>
-    <t>Тамбиева Эльвира Магомет-Аминовна</t>
-  </si>
-  <si>
-    <t>Климов Антон Александрович</t>
-  </si>
-  <si>
-    <t>Кранжиевская Алевтина Сергеевна</t>
-  </si>
-  <si>
-    <t>Маслова Любовь Николаевна</t>
-  </si>
-  <si>
-    <t>Курочка Елена Сергеевна</t>
-  </si>
-  <si>
-    <t>Жижина Наталья Михайловна</t>
-  </si>
-  <si>
-    <t>Алиметова Раида Кязымовна</t>
-  </si>
-  <si>
-    <t>Дудугова Тамила Адамовна</t>
-  </si>
-  <si>
-    <t>Селиванов Алексей Валериевич</t>
-  </si>
-  <si>
-    <t>Мовсарова Марха Юсуповна</t>
-  </si>
-  <si>
-    <t>Ашаева Дана Мовсаровна</t>
-  </si>
-  <si>
-    <t>Молдокасымова Айсулуу Кайырбековна</t>
-  </si>
-  <si>
-    <t>Пшеничникова Елизавета Сергеевна</t>
-  </si>
-  <si>
-    <t>Тарабрина Елена Викторовна</t>
-  </si>
-  <si>
-    <t>Климова Светлана Викторовна</t>
-  </si>
-  <si>
-    <t>Гуров Руслан Владимирович</t>
-  </si>
-  <si>
-    <t>Хосровов Фахраддин Рамазан Оглы</t>
-  </si>
-  <si>
-    <t>Тучак Алексей Анатольевич</t>
-  </si>
-  <si>
-    <t>Хасуева Амина Умаровна</t>
-  </si>
-  <si>
-    <t>Соболевский Виталий Анатольевич</t>
-  </si>
-  <si>
-    <t>Данилова Елена Владимировна</t>
-  </si>
-  <si>
-    <t>Кубышева Алевтина Ивановна</t>
-  </si>
-  <si>
-    <t>Старостина Ирина Михайловна</t>
-  </si>
-  <si>
-    <t>Лабинтан Милен Марсельевна</t>
-  </si>
-  <si>
-    <t>Бахтиёрова Сайёра Отохоновна</t>
-  </si>
-  <si>
-    <t>Фастова Татьяна Олеговна</t>
-  </si>
-  <si>
-    <t>Джабаров Султонджон Махмудович</t>
-  </si>
-  <si>
-    <t>Кагазежева Инна Залимхановна</t>
-  </si>
-  <si>
-    <t>Сенжапова Марьям Рашидовна</t>
-  </si>
-  <si>
-    <t>Костычева Марина Владимировна</t>
-  </si>
-  <si>
-    <t>Сулейманова Сагибат Мустафаевна</t>
-  </si>
-  <si>
-    <t>Яснопольская Людмила Юрьевна</t>
-  </si>
-  <si>
-    <t>Харченко Роман Сергеевич</t>
-  </si>
-  <si>
-    <t>Жидкова Ольга Алексеевна</t>
-  </si>
-  <si>
-    <t>Бесирова Альбина Вахидовна</t>
-  </si>
-  <si>
-    <t>Гусейнова Элвира Загид кызы</t>
-  </si>
-  <si>
-    <t>Колян Сусанна Хачатуровна</t>
-  </si>
-  <si>
-    <t>Родина Татьяна Дмитриевна</t>
-  </si>
-  <si>
-    <t>Насриддинова Мавлюдахон Тажибаевна</t>
-  </si>
-  <si>
-    <t>Абдурахимов Абдурахим Абдукодирович</t>
-  </si>
-  <si>
-    <t>Ивашкина Валентина Николаевна</t>
-  </si>
-  <si>
-    <t>Гасанова Ламия Вагиф Кызы</t>
-  </si>
-  <si>
-    <t>Петушинова Цыренханда Дашинимаевна</t>
-  </si>
-  <si>
-    <t>Костикова Ольга Игоревна</t>
-  </si>
-  <si>
-    <t>Хрисанова Наталия Валериевна</t>
-  </si>
-  <si>
-    <t>Мальцагов Хаджимурад Мусаевич</t>
-  </si>
-  <si>
-    <t>Базарова Александра Юрьевна</t>
-  </si>
-  <si>
-    <t>Батюк Зоя Леонидовна</t>
-  </si>
-  <si>
-    <t>Медведев Сергей Николаевич</t>
-  </si>
-  <si>
-    <t>Помогайбо Виктор Витальевич</t>
-  </si>
-  <si>
-    <t>Токуев Кирсан Асланович</t>
-  </si>
-  <si>
-    <t>Григориади Одиссей Софоклович</t>
-  </si>
-  <si>
-    <t>Сорокин Геннадий Иванович</t>
-  </si>
-  <si>
-    <t>Баращук Ольга Викторовна</t>
-  </si>
-  <si>
-    <t>Мархасаева Марина Геннадьевна</t>
-  </si>
-  <si>
-    <t>Самедова Хаяле Фиридун кызы</t>
-  </si>
-  <si>
-    <t>Боровкова Мария Алексеевна</t>
-  </si>
-  <si>
-    <t>Лукьянова Мария Александровна</t>
-  </si>
-  <si>
-    <t>Куранбаев Адхам Абдукаримович</t>
-  </si>
-  <si>
-    <t>Лалаев Октай Рагим оглы</t>
-  </si>
-  <si>
-    <t>Орозумбетова Мамлякат Джадигеровна</t>
-  </si>
-  <si>
-    <t>Вохидова Дилфуза Мубинджоновна</t>
-  </si>
-  <si>
-    <t>Шереметьева Татьяна Ивановна</t>
-  </si>
-  <si>
-    <t>Баламирзоева Аида Амахановна</t>
-  </si>
-  <si>
-    <t>Перепичай Екатерина Николаевна</t>
-  </si>
-  <si>
-    <t>Черная Эллина Валерьевна</t>
-  </si>
-  <si>
-    <t>Селиверстова Лариса Руслановна</t>
-  </si>
-  <si>
-    <t>Чумакин Владимир Владимирович</t>
-  </si>
-  <si>
-    <t>Мусаева Райсат Магомедовна</t>
-  </si>
-  <si>
-    <t>Вельченко Екатерина Валерьевна</t>
-  </si>
-  <si>
-    <t>Платонова Анна Николаевна</t>
-  </si>
-  <si>
-    <t>Лаздан Геннадий Иванович</t>
-  </si>
-  <si>
-    <t>Аксёнова Юлия Викторовна</t>
-  </si>
-  <si>
-    <t>Казакова Ирина Юрьевна</t>
-  </si>
-  <si>
-    <t>Макашова Анна Владимировна</t>
-  </si>
-  <si>
-    <t>Дубовская Дарья Сергеевна</t>
-  </si>
-  <si>
-    <t>Полозова Анастасия Александровна</t>
-  </si>
-  <si>
-    <t>Малиева Зарема Георгиевна</t>
-  </si>
-  <si>
-    <t>Эллидёрт Анна Александровна</t>
-  </si>
-  <si>
-    <t>Ситкалиева Камила Юрьевна</t>
-  </si>
-  <si>
-    <t>Туюкбаева Махабат Рустеновна</t>
-  </si>
-  <si>
-    <t>Михалюта Лариса Викторовна</t>
-  </si>
-  <si>
-    <t>Арчакова Макка Даудовна</t>
-  </si>
-  <si>
-    <t>Бесланеева Элеонора Чарионовна</t>
-  </si>
-  <si>
-    <t>Суровцева Динара Жаудатовна</t>
-  </si>
-  <si>
-    <t>Новожилкина Светлана Юрьевна</t>
-  </si>
-  <si>
-    <t>Саткеева Райлахан Толонбаевна</t>
-  </si>
-  <si>
-    <t>Кац Лариса Дмитриевна</t>
-  </si>
-  <si>
-    <t>Маслова Лилия Михайловна</t>
-  </si>
-  <si>
-    <t>Змеёва Ольга Викторовна</t>
-  </si>
-  <si>
-    <t>Шаров Анатолий Валентинович</t>
-  </si>
-  <si>
-    <t>Егорова Екатерина Владимировна</t>
-  </si>
-  <si>
-    <t>Ваделова Диана Руслановна</t>
-  </si>
-  <si>
-    <t>Мариненко Владислав Сергеевич</t>
-  </si>
-  <si>
-    <t>Османова Лейли Алибеговна</t>
-  </si>
-  <si>
-    <t>Хамзатова Лайла Сулимаевна</t>
-  </si>
-  <si>
-    <t>Бекиева Ирина Тахировна</t>
-  </si>
-  <si>
-    <t>Чабан Ольга Андреевна</t>
-  </si>
-  <si>
-    <t>Храпова Елена Александровна</t>
-  </si>
-  <si>
-    <t>Кукушкина Татьяна Владимировна</t>
-  </si>
-  <si>
-    <t>Землянов Владлен Андреевич</t>
-  </si>
-  <si>
-    <t>Мажан Дарья Сергеевна</t>
-  </si>
-  <si>
-    <t>Алиева Камилла Камильевна</t>
-  </si>
-  <si>
-    <t>Гоголева Полина Сергеевна</t>
-  </si>
-  <si>
-    <t>Старцева Ирина Евгеньевна</t>
-  </si>
-  <si>
-    <t>Толмачева Валерия Игоревна</t>
-  </si>
-  <si>
-    <t>Фирсов Владимир Анатольевич</t>
-  </si>
-  <si>
-    <t>Савенкова Татьяна Васильевна</t>
-  </si>
-  <si>
-    <t>Кривошеева Кристина Сергеевна</t>
-  </si>
-  <si>
-    <t>Искандарова Венера Арсланбековна</t>
-  </si>
-  <si>
-    <t>Стадникова Анна Анатольевна</t>
-  </si>
-  <si>
-    <t>Волкова Татьяна Юрьевна</t>
-  </si>
-  <si>
-    <t>Макарова Маргарита Андреевна</t>
-  </si>
-  <si>
-    <t>Шевцова Карина Александровна</t>
-  </si>
-  <si>
-    <t>Мишакова Анастасия Вениаминовна</t>
-  </si>
-  <si>
-    <t>Гаджиева Кифаят Узеир кызы</t>
-  </si>
-  <si>
-    <t>Трунов Николай Эдуардович</t>
-  </si>
-  <si>
-    <t>Исмаилова Хадижа Султановна</t>
-  </si>
-  <si>
-    <t>Алагиров Эльдар Анзорович</t>
-  </si>
-  <si>
-    <t>Афанасьева Альбина Михайловна</t>
-  </si>
-  <si>
-    <t>Мурзакова Ольга Артуровна</t>
-  </si>
-  <si>
-    <t>Ступина Татьяна Вадимовна</t>
-  </si>
-  <si>
-    <t>Кулешова Вера Семеновна</t>
-  </si>
-  <si>
-    <t>Кошелев Николай Дмитриевич</t>
-  </si>
-  <si>
-    <t>Аккужина Индира Дамировна</t>
-  </si>
-  <si>
-    <t>Монакова Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>Хан Александра Валерьевна</t>
-  </si>
-  <si>
-    <t>Джаббаров Нурлан Наил оглы</t>
-  </si>
-  <si>
-    <t>Газимагомедов Мурад Артурович</t>
-  </si>
-  <si>
-    <t>Охунов Мирзобаходур Мирзомубинович</t>
-  </si>
-  <si>
-    <t>Ермакова Ирина Вячеславовна</t>
-  </si>
-  <si>
-    <t>Игнатенко Валентина Васильевна</t>
-  </si>
-  <si>
-    <t>Васильева Валентина Ивановна</t>
-  </si>
-  <si>
-    <t>Хандохова Марианна Хамидбиевна</t>
-  </si>
-  <si>
-    <t>Исмаилова Мехрибан Адил кызы</t>
-  </si>
-  <si>
-    <t>Коледенкова Елена Александровна</t>
-  </si>
-  <si>
-    <t>Тарасюк Максим Сергеевич</t>
-  </si>
-  <si>
-    <t>Ливенцова Алла Николаевна</t>
-  </si>
-  <si>
-    <t>Гайнутдинов Ирек Маратович</t>
-  </si>
-  <si>
-    <t>Косова Нина Сергеевна</t>
-  </si>
-  <si>
-    <t>Фишин Сергей Алексеевич</t>
-  </si>
-  <si>
-    <t>Лисунова Татьяна Игоревна</t>
-  </si>
-  <si>
-    <t>Вилковыская Дильдаш Елюсеновна</t>
-  </si>
-  <si>
-    <t>Штукатурова Елена Степановна</t>
-  </si>
-  <si>
-    <t>Новикова Вера Ивановна</t>
-  </si>
-  <si>
-    <t>Колмогорова Эльвия Мазитовна</t>
-  </si>
-  <si>
-    <t>Козацкая Руслана Викторовна</t>
-  </si>
-  <si>
-    <t>Зеленина Галина Вадимовна</t>
-  </si>
-  <si>
-    <t>Антонникова Марина Алексеевна</t>
-  </si>
-  <si>
-    <t>Урусов Александр Алексеевич</t>
-  </si>
-  <si>
-    <t>Межерицкая Алена Александровна</t>
-  </si>
-  <si>
-    <t>Милых Светлана Станиславовна</t>
-  </si>
-  <si>
-    <t>Бояркина Надежда Николаевна</t>
-  </si>
-  <si>
-    <t>Басонова Анна Орестовна</t>
-  </si>
-  <si>
-    <t>Воронина Анна Юрьевна</t>
-  </si>
-  <si>
-    <t>Субботина Марина Алексеевна</t>
-  </si>
-  <si>
-    <t>Балакшина Полина Павловна</t>
-  </si>
-  <si>
-    <t>Амелин Алексей Вадимович</t>
-  </si>
-  <si>
-    <t>Гамидова Земфира Рамазановна</t>
-  </si>
-  <si>
-    <t>Сундукова Светлана Сафарбиевна</t>
-  </si>
-  <si>
-    <t>Павлова Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>Фарафонова Татьяна Вячеславовна</t>
-  </si>
-  <si>
-    <t>Комарова Валерия Алексеевна</t>
-  </si>
-  <si>
-    <t>Шорникова Светлана Геннадьевна</t>
-  </si>
-  <si>
-    <t>Шарова Анна Юрьевна</t>
-  </si>
-  <si>
-    <t>Богданович Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>Алленов Николай Сергеевич</t>
-  </si>
-  <si>
-    <t>Масалова Любовь Михайловна</t>
-  </si>
-  <si>
-    <t>Аветова Татьяна Романовна</t>
-  </si>
-  <si>
-    <t>Зиятдинова Лейла Шавкатовна</t>
-  </si>
-  <si>
-    <t>Подковкина Ольга Зиновьевна</t>
-  </si>
-  <si>
-    <t>Алиева Земфира Имран кызы</t>
-  </si>
-  <si>
-    <t>Суслова Ирина Сергеевна</t>
-  </si>
-  <si>
-    <t>Курбонов Асрорбек Ибрагимович</t>
-  </si>
-  <si>
-    <t>Хотин Михаил Игоревич</t>
-  </si>
-  <si>
-    <t>Хизриева Хадижат Зияутдиновна</t>
-  </si>
-  <si>
-    <t>Малов Павел Сергеевич</t>
-  </si>
-  <si>
-    <t>Семенова Халимат Борисовна</t>
-  </si>
-  <si>
-    <t>Суспицына Елена Алексеевна</t>
-  </si>
-  <si>
-    <t>Ломовцева Ольга Николаевна</t>
-  </si>
-  <si>
-    <t>Мосякина Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>Фадеева Ирина Николаевна</t>
-  </si>
-  <si>
-    <t>Гаджираджабов Алибулат Гусейниевич</t>
-  </si>
-  <si>
-    <t>Пиньковский Дмитрий Владимирович</t>
-  </si>
-  <si>
-    <t>Макерова Ольга Михайловна</t>
-  </si>
-  <si>
-    <t>Сергеева Елена Владиславовна</t>
-  </si>
-  <si>
-    <t>Самотохина Елена Рудольфовна</t>
-  </si>
-  <si>
-    <t>Евдокимова Екатерина Владимировна</t>
-  </si>
-  <si>
-    <t>Богачева Анна Федоровна</t>
-  </si>
-  <si>
-    <t>Киракосян Анна Феликсовна</t>
-  </si>
-  <si>
-    <t>Клёц Леся Николаевна</t>
-  </si>
-  <si>
-    <t>Резепова Альбина Аллямовна</t>
-  </si>
-  <si>
-    <t>Артамохина Елена Владимировна</t>
-  </si>
-  <si>
-    <t>Крылов Игорь Евгеньевич</t>
-  </si>
-  <si>
-    <t>Ярахмедова Гюльнара Маратовна</t>
-  </si>
-  <si>
-    <t>Прытков Евгений Романович</t>
-  </si>
-  <si>
-    <t>Митрошин Алексей Геннадьевич</t>
-  </si>
-  <si>
-    <t>Маркарян Кристина Айгазовна</t>
-  </si>
-  <si>
-    <t>Забавкина Анастасия Алексеевна</t>
-  </si>
-  <si>
-    <t>Калиновская Анна Вячеславовна</t>
-  </si>
-  <si>
-    <t>Сниткина Наталия Александровна</t>
-  </si>
-  <si>
-    <t>Адушкина Наталия Викторовна</t>
-  </si>
-  <si>
-    <t>Ермакова Надежда Юрьевна</t>
-  </si>
-  <si>
-    <t>Новиков Евгений Валентинович</t>
-  </si>
-  <si>
-    <t>Попленкина Татьяна Николаевна</t>
-  </si>
-  <si>
-    <t>Белова Алина Сергеевна</t>
-  </si>
-  <si>
-    <t>Берендеева Мария Сергеевна</t>
-  </si>
-  <si>
-    <t>Ямуткова Анна Александровна</t>
-  </si>
-  <si>
-    <t>Морозова Светлана Глебовна</t>
-  </si>
-  <si>
-    <t>Галиаскарова Анжелика Альфредовна</t>
-  </si>
-  <si>
-    <t>Филиппова Арина Вячеславовна</t>
-  </si>
-  <si>
-    <t>Абдуллаева Альбина Тахсиновна</t>
-  </si>
-  <si>
-    <t>Давыдова Варвара Олеговна</t>
-  </si>
-  <si>
-    <t>Белов Андрей Алексеевич</t>
-  </si>
-  <si>
-    <t>Кадиева Наргиз Хайбуллаевна</t>
-  </si>
-  <si>
-    <t>Шиман Татьяна Михайловна</t>
-  </si>
-  <si>
-    <t>Цхвитава Нато Гуликоевна</t>
-  </si>
-  <si>
-    <t>Сндоян Сусанна Мисаковна</t>
-  </si>
-  <si>
-    <t>Тамчук Анна Александровна</t>
-  </si>
-  <si>
-    <t>Долаева Тамила Муслимовна</t>
-  </si>
-  <si>
-    <t>Чупров Михаил Сергеевич</t>
-  </si>
-  <si>
-    <t>Сухотерин Алексей Вячеславович</t>
-  </si>
-  <si>
-    <t>Зуев Алексей Сергеевич</t>
-  </si>
-  <si>
-    <t>Айсина Таисия Харисовна</t>
-  </si>
-  <si>
-    <t>Морозова Виктория Александровна</t>
-  </si>
-  <si>
-    <t>Почуева Анна Дмитриевна</t>
-  </si>
-  <si>
-    <t>Абдрашитова Анна Андреевна</t>
-  </si>
-  <si>
-    <t>Рагоза Антон Сергеевич</t>
-  </si>
-  <si>
-    <t>Кваченко Диана Алексеевна</t>
-  </si>
-  <si>
-    <t>Собенина Светлана Валерьевна</t>
-  </si>
-  <si>
-    <t>Чалдышкина Елена Алексеевна</t>
-  </si>
-  <si>
-    <t>Коняхина Дарья Андреевна</t>
-  </si>
-  <si>
-    <t>Джафаров Элвин Вахидович</t>
-  </si>
-  <si>
-    <t>Липатова Татьяна Владимировна</t>
-  </si>
-  <si>
-    <t>Николаев Денис Сергеевич</t>
-  </si>
-  <si>
-    <t>Климова Наталья Юрьевна</t>
-  </si>
-  <si>
-    <t>Байкалова Ольга Александровна</t>
-  </si>
-  <si>
-    <t>Буяльская Екатерина Игоревна</t>
-  </si>
-  <si>
-    <t>Отегенова Алина Мураталиевна</t>
-  </si>
-  <si>
-    <t>Довнар Татьяна Дмитриевна</t>
-  </si>
-  <si>
-    <t>Рубцова Александра Владимировна</t>
-  </si>
-  <si>
-    <t>Федюкина Байон Маргарита Анатольевна</t>
-  </si>
-  <si>
-    <t>Воякина Любовь Ивановна</t>
-  </si>
-  <si>
-    <t>Лебедь Екатерина Юрьевна</t>
-  </si>
-  <si>
-    <t>Сатторов Абдулатиф Абдурахимович</t>
-  </si>
-  <si>
-    <t>Крыжановская Вера Васильевна</t>
-  </si>
-  <si>
-    <t>Ганеева Рената Ильдаровна</t>
-  </si>
-  <si>
-    <t>Навалиев Юзбег Магамедович</t>
-  </si>
-  <si>
-    <t>Клементьева Светлана Вячеславовна</t>
-  </si>
-  <si>
-    <t>Ежовкина Валентина Дмитриевна</t>
-  </si>
-  <si>
-    <t>Казюлина Екатерина Вячеславовна</t>
-  </si>
-  <si>
-    <t>Потапов Алексей Артемович</t>
-  </si>
-  <si>
-    <t>Мисриханов Абдул Алиевич</t>
-  </si>
-  <si>
-    <t>Коновалова Екатерина Вячеславовна</t>
-  </si>
-  <si>
-    <t>Томин Виталий Владимирович</t>
-  </si>
-  <si>
-    <t>Мамедалиева Шамс Илхамовна</t>
-  </si>
-  <si>
-    <t>Джамуева Айшат Юсуповна</t>
-  </si>
-  <si>
-    <t>Запесочная Ирина Леонидовна</t>
-  </si>
-  <si>
-    <t>Фомина Татьяна Геннадьевна</t>
-  </si>
-  <si>
-    <t>Баранов Никита Юрьевич</t>
-  </si>
-  <si>
-    <t>Лозовая Наталья Владимировна</t>
-  </si>
-  <si>
-    <t>Пастухова Наталья Александровна</t>
-  </si>
-  <si>
-    <t>Подставкина Наталья Анатольевна</t>
-  </si>
-  <si>
-    <t>Волынина Светлана Владимировна</t>
-  </si>
-  <si>
-    <t>Житлова Юлия Сергеевна</t>
-  </si>
-  <si>
-    <t>Макашова Татьяна Александровна</t>
-  </si>
-  <si>
-    <t>Оганова Анна Робертовна</t>
-  </si>
-  <si>
-    <t>Петешова Евгения Александровна</t>
-  </si>
-  <si>
-    <t>Анпилова Элеанора Дмитриевна</t>
-  </si>
-  <si>
-    <t>Милехина Ирина Евгеньевна</t>
-  </si>
-  <si>
-    <t>Дзудцова Ирина Казбековна</t>
-  </si>
-  <si>
-    <t>Ширков Дмитрий Алексеевич</t>
-  </si>
-  <si>
-    <t>Буцанова Александра Владимировна</t>
-  </si>
-  <si>
-    <t>Малахевич Елена Алексеевна</t>
-  </si>
-  <si>
-    <t>Цай Надежда Николаевна</t>
-  </si>
-  <si>
-    <t>Конечных Валерия Александровна</t>
-  </si>
-  <si>
-    <t>Дроздова Вера Константиновна</t>
-  </si>
-  <si>
-    <t>Ахмедзаде Сона Рагиб кызы</t>
-  </si>
-  <si>
-    <t>Орозалиева Гулзина Маматовна</t>
-  </si>
-  <si>
-    <t>Ларина Ольга Николаевна</t>
-  </si>
-  <si>
-    <t>Болдырева Людмила Ивановна</t>
-  </si>
-  <si>
-    <t>Кондрашина Анна Михайловна</t>
-  </si>
-  <si>
-    <t>Калинина Елена Владимировна</t>
-  </si>
-  <si>
-    <t>Коробкова Ирина Викторовна</t>
-  </si>
-  <si>
-    <t>Кирьязова Вера Вячеславовна</t>
-  </si>
-  <si>
-    <t>Фролова Мария Алексеевна</t>
-  </si>
-  <si>
-    <t>Чистякова Татьяна Владимировна</t>
-  </si>
-  <si>
-    <t>Кожарова Карина Мусарбиевна</t>
-  </si>
-  <si>
-    <t>Киселева Александра Михайловна</t>
-  </si>
-  <si>
-    <t>Белова Нэлли Анатольевна</t>
-  </si>
-  <si>
-    <t>Калинин Евгений Александрович</t>
-  </si>
-  <si>
-    <t>Найманбаева Салия Апсаматовна</t>
-  </si>
-  <si>
-    <t>Гамидова Эсмира Муслимовна</t>
-  </si>
-  <si>
-    <t>Ярошенко Светлана Анатольевна</t>
-  </si>
-  <si>
-    <t>Данилов Василий Леонидович</t>
-  </si>
-  <si>
-    <t>Бельчикова Марина Геннадиевна</t>
-  </si>
-  <si>
-    <t>Алескерова Нигар Рахман кызы</t>
-  </si>
-  <si>
-    <t>Джаноян Виктория Сергеевна</t>
-  </si>
-  <si>
-    <t>Бабенко Людмила Николаевна</t>
-  </si>
-  <si>
-    <t>Сизотченко Ирина Александровна</t>
-  </si>
-  <si>
-    <t>Полякова Екатерина Константиновна</t>
-  </si>
-  <si>
-    <t>Пономарева Юлия Александровна</t>
-  </si>
-  <si>
-    <t>Рожкова Ольга Владимировна</t>
-  </si>
-  <si>
-    <t>Сибирцева Ольга Николаевна</t>
-  </si>
-  <si>
-    <t>Харапова Зумруд Мурадовна</t>
-  </si>
-  <si>
-    <t>Дубач Светлана Валерьевна</t>
-  </si>
-  <si>
-    <t>Вершинин Михаил Анатольевич</t>
-  </si>
-  <si>
-    <t>Батырев Евгений Игоревич</t>
-  </si>
-  <si>
-    <t>Райков Артем Андреевич</t>
-  </si>
-  <si>
-    <t>Хожаева Изольда Юрьевна</t>
-  </si>
-  <si>
-    <t>Солошенко Лада Вячеславна</t>
-  </si>
-  <si>
-    <t>Адамова Наталья Леонидовна</t>
-  </si>
-  <si>
-    <t>Закиева Виктория Липаритовна</t>
-  </si>
-  <si>
-    <t>Мулдагалиева Гюзель Насыровна</t>
-  </si>
-  <si>
-    <t>Янышева Ирина Александровна</t>
-  </si>
-  <si>
-    <t>Рудакова Светлана Николаевна</t>
-  </si>
-  <si>
-    <t>Рыжова Нурия Ризвановна</t>
-  </si>
-  <si>
-    <t>Сологуб Кирилл Николаевич</t>
-  </si>
-  <si>
-    <t>Урумова Амина Асланбековна</t>
-  </si>
-  <si>
-    <t>Пиковец Оксана Владимировна</t>
-  </si>
-  <si>
-    <t>Кузнецова Инна Владимировна</t>
-  </si>
-  <si>
-    <t>Баклашова Ольга Викторовна</t>
-  </si>
-  <si>
-    <t>Титов Георгий Сергеевич</t>
-  </si>
-  <si>
-    <t>Кидяева Кристина Владимировна</t>
-  </si>
-  <si>
-    <t>Капитанова Надежда Яковлевна</t>
-  </si>
-  <si>
-    <t>Олесик Надежда Нестеровна</t>
-  </si>
-  <si>
-    <t>Горбунова Татьяна Ивановна</t>
-  </si>
-  <si>
-    <t>Склярова Наталья Владимировна</t>
-  </si>
-  <si>
-    <t>Черковец Ирина Сергеевна</t>
-  </si>
-  <si>
-    <t>Адынец Кристина Васильевна</t>
-  </si>
-  <si>
-    <t>Базоркина Люба Якубовна</t>
-  </si>
-  <si>
-    <t>Дигаева Малика Сайпутдиновна</t>
-  </si>
-  <si>
-    <t>Фисюк Анна Андреевна</t>
-  </si>
-  <si>
-    <t>Деяшкина Татьяна Евгеньевна</t>
-  </si>
-  <si>
-    <t>Плотникова Ольга Николаевна</t>
-  </si>
-  <si>
-    <t>Алискерова Эльмира Гаджибалаевна</t>
-  </si>
-  <si>
-    <t>Аржаева Светлана Анатольевна</t>
-  </si>
-  <si>
-    <t>Андреасян Ваграм Дереникович</t>
-  </si>
-  <si>
-    <t>Абиев Тимур Аланович</t>
-  </si>
-  <si>
-    <t>Китаев Николай Михайлович</t>
-  </si>
-  <si>
-    <t>Дзаурова Мариета Хасмагаметовна</t>
-  </si>
-  <si>
-    <t>Мирхайдарова Галия Закиевна</t>
-  </si>
-  <si>
-    <t>Хачураева Макка Магомедовна</t>
-  </si>
-  <si>
-    <t>Стрибуль Павел Анатольевич</t>
-  </si>
-  <si>
-    <t>Абдулкасимова Юлдуз Абдулходиевна</t>
-  </si>
-  <si>
-    <t>Кучерова Ксения Вадимовна</t>
-  </si>
-  <si>
-    <t>Балданова Валентина Александровна</t>
-  </si>
-  <si>
-    <t>Умралиева Айман Казимжановна</t>
-  </si>
-  <si>
-    <t>Бортник Наталья Сергеевна</t>
-  </si>
-  <si>
-    <t>Голышева Екатерина Борисовна</t>
-  </si>
-  <si>
-    <t>Щербаков Александр Фёдорович</t>
-  </si>
-  <si>
-    <t>Прошина Ирина Дамировна</t>
-  </si>
-  <si>
-    <t>Милокост Инна Геннадиевна</t>
-  </si>
-  <si>
-    <t>Абу-альджадаель Мудар Мухьедин</t>
-  </si>
-  <si>
-    <t>Якушина Светлана Ивановна</t>
-  </si>
-  <si>
-    <t>Мусина Ирина Викторовна</t>
-  </si>
-  <si>
-    <t>Каримова Ольга Файзиевна</t>
-  </si>
-  <si>
-    <t>Пухова Надежда Жановна</t>
-  </si>
-  <si>
-    <t>Карбова Ирина Вячеславовна</t>
-  </si>
-  <si>
-    <t>Летягин Виктор Яковлевич</t>
-  </si>
-  <si>
-    <t>Кривошеева Нина Владимировна</t>
-  </si>
-  <si>
-    <t>Музаева Мадина Руслановна</t>
-  </si>
-  <si>
-    <t>Рахманова Дильбар Фархадовна</t>
-  </si>
-  <si>
-    <t>Загалаев Мовсар Арбиевич</t>
-  </si>
-  <si>
-    <t>Юдина Ирина Ивановна</t>
-  </si>
-  <si>
-    <t>Льянова Милана Магометовна</t>
-  </si>
-  <si>
-    <t>Медова Фэриде Мусаевна</t>
-  </si>
-  <si>
-    <t>Полин Денис Сергеевич</t>
-  </si>
-  <si>
-    <t>Федина Алина Сергеевна</t>
-  </si>
-  <si>
-    <t>Ткачева Валентина Ивановна</t>
-  </si>
-  <si>
-    <t>Гамсахурдия Медея Гивиевна</t>
-  </si>
-  <si>
-    <t>Шагинова Галина Васильевна</t>
-  </si>
-  <si>
-    <t>Иминова Айчурок Саминовна</t>
-  </si>
-  <si>
-    <t>Васильева Дарья Николаевна</t>
-  </si>
-  <si>
-    <t>Овес Евгения Алексеевна</t>
-  </si>
-  <si>
-    <t>Сюсюра Иван Сергеевич</t>
-  </si>
-  <si>
-    <t>Вилков Сергей Юрьевич</t>
-  </si>
-  <si>
-    <t>Николаева Елена Анатольевна</t>
-  </si>
-  <si>
-    <t>Заманлы Садат Магамед кызы</t>
-  </si>
-  <si>
-    <t>Башарина Людмила Федоровна</t>
-  </si>
-  <si>
-    <t>Алишерова Динара Тажибаевна</t>
-  </si>
-  <si>
-    <t>Колупаева Мария Игоревна</t>
-  </si>
-  <si>
-    <t>Байкина Анна Алексеевна</t>
-  </si>
-  <si>
-    <t>Купавых Арина Владимировна</t>
-  </si>
-  <si>
-    <t>Гаглоева Ира Адоевна</t>
-  </si>
-  <si>
-    <t>Закарьяева Зиярат Адильгереевна</t>
-  </si>
-  <si>
-    <t>Григорян Александр Алексеевич</t>
-  </si>
-  <si>
-    <t>Семина Людмила Федоровна</t>
-  </si>
-  <si>
-    <t>Судакова Мария Сергеевна</t>
-  </si>
-  <si>
-    <t>Джафаров Рашид Джафарович</t>
-  </si>
-  <si>
-    <t>Тихонов Константин Андреевич</t>
-  </si>
-  <si>
-    <t>Доржиева Октябрина Цыдынжаповна</t>
-  </si>
-  <si>
-    <t>Гасиев Алан Юрьевич</t>
-  </si>
-  <si>
-    <t>Деменкова Елена Николаевна</t>
-  </si>
-  <si>
-    <t>Магомедова Шахрузат Абакаровна</t>
-  </si>
-  <si>
-    <t>Неботова Розалия Ривгатовна</t>
-  </si>
-  <si>
-    <t>Коломийская Любовь Сергеевна</t>
-  </si>
-  <si>
-    <t>Аловова Лейла Сердаровна</t>
-  </si>
-  <si>
-    <t>Рословец Анна Николаевна</t>
-  </si>
-  <si>
-    <t>Солодовник Виктория Вениаминовна</t>
-  </si>
-  <si>
-    <t>Гусейнов Саид Гусейнович</t>
-  </si>
-  <si>
-    <t>Карапетян Марине Завеновна</t>
-  </si>
-  <si>
-    <t>Игнатченко Елена Владимировна</t>
-  </si>
-  <si>
-    <t>Юсупова Патимат Магомедовна</t>
-  </si>
-  <si>
-    <t>Иванец Оксана Владимировна</t>
-  </si>
-  <si>
-    <t>Севостьянова Мария Юрьевна</t>
-  </si>
-  <si>
-    <t>Погорельский Артём Васильевич</t>
-  </si>
-  <si>
-    <t>Емелькина Татьяна Владимировна</t>
-  </si>
-  <si>
-    <t>Свитина Светлана Евгеньевна</t>
-  </si>
-  <si>
-    <t>Неретина Елена Владимировна</t>
-  </si>
-  <si>
-    <t>Широва Шахринисо Станиславовна</t>
-  </si>
-  <si>
-    <t>Шалабина Марина Николаевна</t>
-  </si>
-  <si>
-    <t>Миронова Екатерина Дмитриевна</t>
-  </si>
-  <si>
-    <t>Эминова Альфия Шамилевна</t>
-  </si>
-  <si>
-    <t>Антонов Михаил Юрьевич</t>
-  </si>
-  <si>
-    <t>Лосева Надежда Николаевна</t>
-  </si>
-  <si>
-    <t>Цыганок Анжела Владимировна</t>
-  </si>
-  <si>
-    <t>Галимзянова Эльвира Равилевна</t>
-  </si>
-  <si>
-    <t>Зиновьева Тамара Николаевна</t>
-  </si>
-  <si>
-    <t>Воронин Константин Владимирович</t>
-  </si>
-  <si>
-    <t>Панина Алина Николаевна</t>
-  </si>
-  <si>
-    <t>Чочуа Арина Аслановна</t>
-  </si>
-  <si>
-    <t>Тенякова Шоиста Савруллоевна</t>
-  </si>
-  <si>
-    <t>Баталин Михаил Андреевич</t>
-  </si>
-  <si>
-    <t>Шапчиц Вера Николаевна</t>
-  </si>
-  <si>
-    <t>Бирюков Александр Сергеевич</t>
-  </si>
-  <si>
-    <t>Одишария Нино Тариеловна</t>
-  </si>
-  <si>
-    <t>Горбач Галина Михайловна</t>
-  </si>
-  <si>
-    <t>Мордвинова Елена Феликсовна</t>
-  </si>
-  <si>
-    <t>Хасанов Тохир Далерович</t>
-  </si>
-  <si>
-    <t>Овраменко Наталия Михайловна</t>
-  </si>
-  <si>
-    <t>Русанова Оксана Рашидовна</t>
-  </si>
-  <si>
-    <t>Ведяков Денис Алексеевич</t>
-  </si>
-  <si>
-    <t>Пичушкина Ольга Сергеевна</t>
-  </si>
-  <si>
-    <t>Магамедалиев Муртаза Исамудинович</t>
-  </si>
-  <si>
-    <t>Юткина Людмила Алексеевна</t>
-  </si>
-  <si>
-    <t>Писарев Владимир Александрович</t>
-  </si>
-  <si>
-    <t>Осетрова Татьяна Федоровна</t>
-  </si>
-  <si>
-    <t>Емельянова Ирина Алексеевна</t>
-  </si>
-  <si>
-    <t>Авсатова Рушания Абузаровна</t>
-  </si>
-  <si>
-    <t>Кожевникова Светлана Алексеевна</t>
-  </si>
-  <si>
-    <t>Угловский Андрей Валерьевич</t>
-  </si>
-  <si>
-    <t>Гаджифейтуллаева Наргиз Абдулвагабовна</t>
-  </si>
-  <si>
-    <t>Паруш Станислав Николаевич</t>
-  </si>
-  <si>
-    <t>Соловьева Алена Алексеевна</t>
-  </si>
-  <si>
-    <t>Блинова Дарья Романовна</t>
-  </si>
-  <si>
-    <t>Щербина Екатерина Сергеевна</t>
-  </si>
-  <si>
-    <t>Шеметова Алена Павловна</t>
-  </si>
-  <si>
-    <t>Яковлева Людмила Михайловна</t>
-  </si>
-  <si>
-    <t>Михайлянич Елена Юрьевна</t>
-  </si>
-  <si>
-    <t>Алимпиева Дина Алексеевна</t>
-  </si>
-  <si>
-    <t>Сазыкина Полина Александровна</t>
-  </si>
-  <si>
-    <t>Миндель Татьяна Викторовна</t>
-  </si>
-  <si>
-    <t>Мельникова Анастасия Витальевна</t>
-  </si>
-  <si>
-    <t>Галина Рушана Дамировна</t>
-  </si>
-  <si>
-    <t>Гудилко Марина Юльевна</t>
-  </si>
-  <si>
-    <t>Кочнова Елена Владимировна</t>
-  </si>
-  <si>
-    <t>Григорян Алина Мамиконовна</t>
-  </si>
-  <si>
-    <t>Габидуллина Розалия Ильшатовна</t>
-  </si>
-  <si>
-    <t>Прохорова Александра Андреевна</t>
-  </si>
-  <si>
-    <t>Шелгунова Ирина Михайловна</t>
-  </si>
-  <si>
-    <t>Мусдафаев Фахраддин Интигам оглы</t>
-  </si>
-  <si>
-    <t>Скуратовская Маргарита Алексеевна</t>
-  </si>
-  <si>
-    <t>Ермолов Александр Евгеньевич</t>
-  </si>
-  <si>
-    <t>Нецветаева Ольга Валерьевна</t>
-  </si>
-  <si>
-    <t>Ефимкина Галина Юрьевна</t>
-  </si>
-  <si>
-    <t>Королев Александр Сергеевич</t>
-  </si>
-  <si>
-    <t>Быков Александр Николаевич</t>
-  </si>
-  <si>
-    <t>Кокая Мзия Евграфовна</t>
-  </si>
-  <si>
-    <t>Блинова Ирина Николаевна</t>
-  </si>
-  <si>
-    <t>Тарасова Мария Владимировна</t>
-  </si>
-  <si>
-    <t>Гудов Сергей Максимович</t>
-  </si>
-  <si>
-    <t>Скотникова Мария Александровна</t>
-  </si>
-  <si>
-    <t>Газанфарова Афаг Шахин кызы</t>
-  </si>
-  <si>
-    <t>Лыков Сергей Николаевич</t>
-  </si>
-  <si>
-    <t>Деревнина Ирина Владимировна</t>
-  </si>
-  <si>
-    <t>Алехан Андрей Николаевич</t>
-  </si>
-  <si>
-    <t>Горелов Владимир Сергеевич</t>
-  </si>
-  <si>
-    <t>Колчина Наталья Васильевна</t>
-  </si>
-  <si>
-    <t>Белоусова Дарья Александровна</t>
-  </si>
-  <si>
-    <t>Торубарова Елена Геннадьевна</t>
-  </si>
-  <si>
-    <t>Онкина Александра Алексеевна</t>
-  </si>
-  <si>
-    <t>Попова Мария Александровна</t>
-  </si>
-  <si>
-    <t>Серых Виктория Викторовна</t>
-  </si>
-  <si>
-    <t>Чегодаева Наталия Николаевна</t>
-  </si>
-  <si>
-    <t>Юрга Надежда Христофоровна</t>
-  </si>
-  <si>
-    <t>Игнатьева Юлия Григорьевна</t>
-  </si>
-  <si>
-    <t>Евдокименко Иван Сергеевич</t>
-  </si>
-  <si>
-    <t>Зайцева Екатерина Николаевна</t>
-  </si>
-  <si>
-    <t>Магомедова Заира Гаджиевна</t>
-  </si>
-  <si>
-    <t>Матвеенко Юлия Викторовна</t>
-  </si>
-  <si>
-    <t>Замуруева Валентина Владимировна</t>
-  </si>
-  <si>
-    <t>Колесник Людмила Викторовна</t>
-  </si>
-  <si>
-    <t>Стародуб Валентина Адамовна</t>
-  </si>
-  <si>
-    <t>Матвеева Елена Валентиновна</t>
-  </si>
-  <si>
-    <t>Пустовалов Алексей Александрович</t>
-  </si>
-  <si>
-    <t>Базаев Артур Казбекович</t>
-  </si>
-  <si>
-    <t>Соболева Татьяна Васильевна</t>
-  </si>
-  <si>
-    <t>Морозова Марина Ивановна</t>
-  </si>
-  <si>
-    <t>Засеева Людмила Григорьевна</t>
-  </si>
-  <si>
-    <t>Фомина Наталья Андреевна</t>
-  </si>
-  <si>
-    <t>Зимина Марина Владимировна</t>
-  </si>
-  <si>
-    <t>Шевцова Арина Николаевна</t>
-  </si>
-  <si>
-    <t>Буданова Юлия Александровна</t>
-  </si>
-  <si>
-    <t>Волкова Ирина Петровна</t>
-  </si>
-  <si>
-    <t>Абашина Ирина Алексеевна</t>
-  </si>
-  <si>
-    <t>Тютеева Айса Лиджиевна</t>
-  </si>
-  <si>
-    <t>Завриева Хеди Мовлашовна</t>
-  </si>
-  <si>
-    <t>Гусева Дарья Александровна</t>
-  </si>
-  <si>
-    <t>Тедеев Руслан Сосланович</t>
-  </si>
-  <si>
-    <t>Исаева Макка Магомедовна</t>
-  </si>
-  <si>
-    <t>Чижова Людмила Владимировна</t>
-  </si>
-  <si>
-    <t>Зотова Екатерина Александровна</t>
-  </si>
-  <si>
-    <t>Марков Александр Николаевич</t>
-  </si>
-  <si>
-    <t>Гулуа Инга Гивиевна</t>
-  </si>
-  <si>
-    <t>Пущакова Ирина Павловна</t>
-  </si>
-  <si>
-    <t>Бахшинян Марина Кареновна</t>
-  </si>
-  <si>
-    <t>Боткина Татьяна Сергеевна</t>
-  </si>
-  <si>
-    <t>Егорова Светлана Викторовна</t>
-  </si>
-  <si>
-    <t>Калмахелидзе Ирина Борисовна</t>
-  </si>
-  <si>
-    <t>Карнаухова Валентина Юрьевна</t>
-  </si>
-  <si>
-    <t>Лебедева Александра Алексеевна</t>
-  </si>
-  <si>
-    <t>Маруга Юлия Леонидовна</t>
-  </si>
-  <si>
-    <t>Митрофанова Галина Вениаминовна</t>
-  </si>
-  <si>
-    <t>Перчиков Алексей Романович</t>
-  </si>
-  <si>
-    <t>Солонин Евгений Михайлович</t>
-  </si>
-  <si>
-    <t>Сосновская Дарья Юрьевна</t>
-  </si>
-  <si>
-    <t>Спрышкова Мария Александровна</t>
   </si>
 </sst>
 </file>
